--- a/Sezon/LaLiga2025_26.xlsx
+++ b/Sezon/LaLiga2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H3" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4008778677515307</v>
+        <v>0.4187794128017732</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2435455822148249</v>
+        <v>0.236268531381393</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3555765500336444</v>
+        <v>0.3449520558168338</v>
       </c>
       <c r="L3" t="n">
-        <v>1.558210153288237</v>
+        <v>1.601290294222153</v>
       </c>
       <c r="M3" t="n">
-        <v>1.086213296678119</v>
+        <v>1.053757649961013</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -671,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H5" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2463430821240163</v>
+        <v>0.2558118889728807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.39399601797492</v>
+        <v>0.3707027531267135</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3596608999010638</v>
+        <v>0.3734853579004058</v>
       </c>
       <c r="L5" t="n">
-        <v>1.098690146273113</v>
+        <v>1.140921024819048</v>
       </c>
       <c r="M5" t="n">
-        <v>1.541648953825824</v>
+        <v>1.485593617280546</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -710,25 +710,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H6" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5174455797637636</v>
+        <v>0.5073580998057555</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1961603334293644</v>
+        <v>0.2002609350383108</v>
       </c>
       <c r="K6" t="n">
-        <v>0.286394086806872</v>
+        <v>0.2923809651559337</v>
       </c>
       <c r="L6" t="n">
-        <v>1.838730826098163</v>
+        <v>1.8144552645732</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8748750870949651</v>
+        <v>0.893163770270866</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -802,25 +802,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H8" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6867214057805342</v>
+        <v>0.6818513027799574</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1273490220404332</v>
+        <v>0.1293287387073344</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1859295721790326</v>
+        <v>0.1888199585127082</v>
       </c>
       <c r="L8" t="n">
-        <v>2.246093789520635</v>
+        <v>2.234373866852581</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5679766383003323</v>
+        <v>0.5768061746347113</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -841,25 +841,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H9" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2292487278031708</v>
+        <v>0.2316475276941281</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4360481296041999</v>
+        <v>0.4301470818724451</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3347031425926293</v>
+        <v>0.3382053904334269</v>
       </c>
       <c r="L9" t="n">
-        <v>1.022449326002142</v>
+        <v>1.033147973515811</v>
       </c>
       <c r="M9" t="n">
-        <v>1.642847531405229</v>
+        <v>1.628646636050762</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -933,25 +933,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H11" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1643032241877387</v>
+        <v>0.1602129912725153</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5958140684981629</v>
+        <v>0.6058760414696124</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2398827073140984</v>
+        <v>0.2339109672578723</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7327923798773145</v>
+        <v>0.7145499410754181</v>
       </c>
       <c r="M11" t="n">
-        <v>2.027324912808587</v>
+        <v>2.051539091666709</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -972,25 +972,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H12" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8331599209570518</v>
+        <v>0.8307099147592728</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06782117034266189</v>
+        <v>0.06881710782143383</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09901890870028635</v>
+        <v>0.1004729774192934</v>
       </c>
       <c r="L12" t="n">
-        <v>2.598498671571442</v>
+        <v>2.592602721697112</v>
       </c>
       <c r="M12" t="n">
-        <v>0.302482419728272</v>
+        <v>0.3069243008835948</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1011,25 +1011,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H13" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1441284762709349</v>
+        <v>0.1458834191839081</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6454439483735001</v>
+        <v>0.6411267888075862</v>
       </c>
       <c r="K13" t="n">
-        <v>0.210427575355565</v>
+        <v>0.2129897920085058</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6428130041683698</v>
+        <v>0.65064004956023</v>
       </c>
       <c r="M13" t="n">
-        <v>2.146759420476065</v>
+        <v>2.136370158431264</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1050,25 +1050,25 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H14" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7396671283305989</v>
+        <v>0.7311209218831661</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1058263705973175</v>
+        <v>0.1093004382588755</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1545065010720836</v>
+        <v>0.1595786398579583</v>
       </c>
       <c r="L14" t="n">
-        <v>2.37350788606388</v>
+        <v>2.352941405507457</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4719856128640361</v>
+        <v>0.4874799546345848</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1089,25 +1089,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H15" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2019753009041306</v>
+        <v>0.2066770873154608</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5031407597758388</v>
+        <v>0.4915743652039662</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2948839393200306</v>
+        <v>0.3017485474805729</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9008098420324224</v>
+        <v>0.9217798094269554</v>
       </c>
       <c r="M15" t="n">
-        <v>1.804306218647547</v>
+        <v>1.776471643092472</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1128,25 +1128,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H16" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8163181221095829</v>
+        <v>0.8057949453876624</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07466743003675491</v>
+        <v>0.07894514415135681</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1090144478536622</v>
+        <v>0.1152599104609809</v>
       </c>
       <c r="L16" t="n">
-        <v>2.557968814182411</v>
+        <v>2.532644746623968</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3330167379639269</v>
+        <v>0.3520953429150513</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1167,25 +1167,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H17" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1555966219756327</v>
+        <v>0.1625693664245429</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6172323099399436</v>
+        <v>0.6000793585956244</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2271710680844237</v>
+        <v>0.2373512749798326</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6939609340113218</v>
+        <v>0.7250593742534612</v>
       </c>
       <c r="M17" t="n">
-        <v>2.078867997904255</v>
+        <v>2.037589350766706</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1206,25 +1206,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H18" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8122471759851082</v>
+        <v>0.8159818204147062</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07632228618491538</v>
+        <v>0.07480413804280238</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1114305378299765</v>
+        <v>0.1092140415424915</v>
       </c>
       <c r="L18" t="n">
-        <v>2.548172065785301</v>
+        <v>2.55715950278661</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3403973963847226</v>
+        <v>0.3336264556708986</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H19" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1582941346589827</v>
+        <v>0.1558772408783882</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6105964287389025</v>
+        <v>0.6165419874391651</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2311094366021148</v>
+        <v>0.2275807716824468</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7059918405790631</v>
+        <v>0.6952124943176115</v>
       </c>
       <c r="M19" t="n">
-        <v>2.062898722818822</v>
+        <v>2.077206733999942</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1284,25 +1284,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H20" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I20" t="n">
-        <v>0.776793919170892</v>
+        <v>0.7672532525178826</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09073417919882443</v>
+        <v>0.09461249897647053</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1324719016302837</v>
+        <v>0.138134248505647</v>
       </c>
       <c r="L20" t="n">
-        <v>2.46285365914296</v>
+        <v>2.439894006059295</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4046744392267569</v>
+        <v>0.4219717454350586</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H21" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1806309638324668</v>
+        <v>0.1863657305826867</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5556478289721316</v>
+        <v>0.5415403027665908</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2637212071954015</v>
+        <v>0.2720939666507226</v>
       </c>
       <c r="L21" t="n">
-        <v>0.805614098692802</v>
+        <v>0.8311911583987825</v>
       </c>
       <c r="M21" t="n">
-        <v>1.930664694111796</v>
+        <v>1.896714874950495</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1362,25 +1362,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H22" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8154701467397893</v>
+        <v>0.8174929418890913</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07501213547163038</v>
+        <v>0.07418986102069465</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1095177177885803</v>
+        <v>0.1083171970902142</v>
       </c>
       <c r="L22" t="n">
-        <v>2.555928158007948</v>
+        <v>2.560796022757488</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3345541242034715</v>
+        <v>0.3308867801522982</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1507,25 +1507,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H25" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1734879361493248</v>
+        <v>0.1718835803081295</v>
       </c>
       <c r="J25" t="n">
-        <v>0.573219677072661</v>
+        <v>0.5771663924420014</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2532923867780142</v>
+        <v>0.250950027249869</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7737561952259886</v>
+        <v>0.7666007681742575</v>
       </c>
       <c r="M25" t="n">
-        <v>1.972951417995997</v>
+        <v>1.982449204575873</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1599,25 +1599,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H27" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1591357025753678</v>
+        <v>0.1622721813554238</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6085261716645953</v>
+        <v>0.6008104338656574</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2323381257600369</v>
+        <v>0.2369173847789188</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7097452334861403</v>
+        <v>0.7237339288451903</v>
       </c>
       <c r="M27" t="n">
-        <v>2.057916640753823</v>
+        <v>2.039348686375891</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1638,25 +1638,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H28" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8502930928100589</v>
+        <v>0.8486278403447676</v>
       </c>
       <c r="J28" t="n">
-        <v>0.06085646633737441</v>
+        <v>0.0615333982338343</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08885044085256665</v>
+        <v>0.08983876142139807</v>
       </c>
       <c r="L28" t="n">
-        <v>2.639729719282744</v>
+        <v>2.635722282455701</v>
       </c>
       <c r="M28" t="n">
-        <v>0.2714198398646899</v>
+        <v>0.274438956122901</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1783,25 +1783,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H31" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1486997506270779</v>
+        <v>0.1552711933004287</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6341986134573884</v>
+        <v>0.6180328644809455</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2171016359155337</v>
+        <v>0.2266959422186258</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6632008877967674</v>
+        <v>0.6925095221199118</v>
       </c>
       <c r="M31" t="n">
-        <v>2.119697476287699</v>
+        <v>2.080794535661462</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1822,25 +1822,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H32" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7515597368102556</v>
+        <v>0.7545845181495286</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1009919769064001</v>
+        <v>0.09976239099612655</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1474482862833442</v>
+        <v>0.1456530908543447</v>
       </c>
       <c r="L32" t="n">
-        <v>2.402127496714111</v>
+        <v>2.409406645302931</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4504242170025446</v>
+        <v>0.4449402638427244</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1861,25 +1861,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H33" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1953514759013795</v>
+        <v>0.1936952904914541</v>
       </c>
       <c r="J33" t="n">
-        <v>0.5194353692826065</v>
+        <v>0.523509585391023</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2852131548160141</v>
+        <v>0.2827951241175229</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8712675825201526</v>
+        <v>0.8638809955918851</v>
       </c>
       <c r="M33" t="n">
-        <v>1.843519262663833</v>
+        <v>1.853323880290592</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1900,25 +1900,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H34" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7999769649978464</v>
+        <v>0.794329575584514</v>
       </c>
       <c r="J34" t="n">
-        <v>0.08131017683014372</v>
+        <v>0.08360586358353092</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1187128581720098</v>
+        <v>0.1220645608319551</v>
       </c>
       <c r="L34" t="n">
-        <v>2.518643753165549</v>
+        <v>2.505053287585497</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3626433886624409</v>
+        <v>0.3728821515825479</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -1992,25 +1992,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H36" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I36" t="n">
-        <v>0.879778936331593</v>
+        <v>0.878880099608127</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04887035108471831</v>
+        <v>0.04923573186661507</v>
       </c>
       <c r="K36" t="n">
-        <v>0.07135071258368872</v>
+        <v>0.071884168525258</v>
       </c>
       <c r="L36" t="n">
-        <v>2.710687521578468</v>
+        <v>2.708524467349639</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2179617658378436</v>
+        <v>0.2195913641251032</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2084,25 +2084,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="H38" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8743502526735776</v>
+        <v>0.8656810491820032</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05107713305952136</v>
+        <v>0.05460119951951092</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07457261426690118</v>
+        <v>0.07971775129848593</v>
       </c>
       <c r="L38" t="n">
-        <v>2.697623372287634</v>
+        <v>2.676760898844496</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2278040134454653</v>
+        <v>0.2435213498570187</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2123,25 +2123,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H39" t="n">
-        <v>95.17357732320001</v>
+        <v>95.22418940599999</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1138477776448329</v>
+        <v>0.1205475236632696</v>
       </c>
       <c r="J39" t="n">
-        <v>0.719934466993711</v>
+        <v>0.7034530917883567</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1662177553614561</v>
+        <v>0.1759993845483736</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5077610882959549</v>
+        <v>0.5376419555381823</v>
       </c>
       <c r="M39" t="n">
-        <v>2.326021156342589</v>
+        <v>2.286358659913444</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2162,25 +2162,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H40" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6393805434794183</v>
+        <v>0.6346259967480642</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1465932750083665</v>
+        <v>0.1485260175820877</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2140261815122151</v>
+        <v>0.2168479856698481</v>
       </c>
       <c r="L40" t="n">
-        <v>2.13216781195047</v>
+        <v>2.12072597591404</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6538060065373146</v>
+        <v>0.6624260384161114</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2201,25 +2201,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H41" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2505687652381797</v>
+        <v>0.253228238910552</v>
       </c>
       <c r="J41" t="n">
-        <v>0.383600837514078</v>
+        <v>0.377058532280042</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3658303972477423</v>
+        <v>0.3697132288094059</v>
       </c>
       <c r="L41" t="n">
-        <v>1.117536692962281</v>
+        <v>1.129397945541062</v>
       </c>
       <c r="M41" t="n">
-        <v>1.516632909789976</v>
+        <v>1.500888825649532</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2240,25 +2240,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H42" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5060782842388706</v>
+        <v>0.5144139091990988</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2007811852687518</v>
+        <v>0.1973927198377647</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2931405304923776</v>
+        <v>0.2881933709631365</v>
       </c>
       <c r="L42" t="n">
-        <v>1.811375383208989</v>
+        <v>1.831435098560433</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8954840862986329</v>
+        <v>0.8803715304764306</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H43" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3195732231332161</v>
+        <v>0.3134476475237856</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2765962507588552</v>
+        <v>0.2790863221448026</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4038305261079286</v>
+        <v>0.4074660303314118</v>
       </c>
       <c r="L43" t="n">
-        <v>1.362550195507577</v>
+        <v>1.347808972902768</v>
       </c>
       <c r="M43" t="n">
-        <v>1.233619278384494</v>
+        <v>1.24472499676582</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H44" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6768514045616237</v>
+        <v>0.6879450819226676</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1313612176578765</v>
+        <v>0.1268515927143628</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1917873777804997</v>
+        <v>0.1852033253629696</v>
       </c>
       <c r="L44" t="n">
-        <v>2.222341591465371</v>
+        <v>2.249038571130972</v>
       </c>
       <c r="M44" t="n">
-        <v>0.5858710307541293</v>
+        <v>0.5657581035060579</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H45" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2336088829328991</v>
+        <v>0.228937155036005</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4253221479850683</v>
+        <v>0.4368145986114277</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3410689690820327</v>
+        <v>0.3342482463525673</v>
       </c>
       <c r="L45" t="n">
-        <v>1.04189561788073</v>
+        <v>1.021059711460582</v>
       </c>
       <c r="M45" t="n">
-        <v>1.617035413037238</v>
+        <v>1.644692042186851</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2396,25 +2396,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H46" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7957257857623004</v>
+        <v>0.8137304958096627</v>
       </c>
       <c r="J46" t="n">
-        <v>0.08303829847060966</v>
+        <v>0.07571931064647856</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1212359157670901</v>
+        <v>0.1105501935438587</v>
       </c>
       <c r="L46" t="n">
-        <v>2.508413273053991</v>
+        <v>2.551741680972847</v>
       </c>
       <c r="M46" t="n">
-        <v>0.370350811178919</v>
+        <v>0.3377081254832944</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2435,25 +2435,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H47" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1686030853406284</v>
+        <v>0.1575851756847945</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5852364100620542</v>
+        <v>0.6123404678154055</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2461605045973174</v>
+        <v>0.2300743564997999</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7519697606192025</v>
+        <v>0.7028298835541833</v>
       </c>
       <c r="M47" t="n">
-        <v>2.00186973478348</v>
+        <v>2.067095759946016</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H49" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1482234741596997</v>
+        <v>0.1433538358742252</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6353702535671388</v>
+        <v>0.6473495637494059</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2164062722731614</v>
+        <v>0.2092966003763688</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6610766947522604</v>
+        <v>0.6393581079990445</v>
       </c>
       <c r="M49" t="n">
-        <v>2.122517032974578</v>
+        <v>2.151345291624586</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H50" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7308113357765559</v>
+        <v>0.7366355019505524</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1094262862696927</v>
+        <v>0.1070587390444909</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1597623779537513</v>
+        <v>0.1563057590049567</v>
       </c>
       <c r="L50" t="n">
-        <v>2.352196385283419</v>
+        <v>2.366212264856614</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4880412367628294</v>
+        <v>0.4774819761384295</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H51" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2064208061979673</v>
+        <v>0.2039181561344323</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4922048167530002</v>
+        <v>0.4983613359092965</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3013743770490324</v>
+        <v>0.2977205079562712</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9206367956429344</v>
+        <v>0.909474976359568</v>
       </c>
       <c r="M51" t="n">
-        <v>1.777988827308033</v>
+        <v>1.792804515684161</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2644,25 +2644,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H52" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8093978762866431</v>
+        <v>0.8101756351520649</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07748053809486059</v>
+        <v>0.07716437595444514</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1131215856184965</v>
+        <v>0.1126599888934899</v>
       </c>
       <c r="L52" t="n">
-        <v>2.541315214478426</v>
+        <v>2.543186894349685</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3455631999030782</v>
+        <v>0.3441531167568253</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H54" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8052101545856827</v>
+        <v>0.8201840019935052</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07918286398955987</v>
+        <v>0.07309593414898162</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1156069814247574</v>
+        <v>0.1067200638575132</v>
       </c>
       <c r="L54" t="n">
-        <v>2.531237445181806</v>
+        <v>2.567272069838029</v>
       </c>
       <c r="M54" t="n">
-        <v>0.353155573393437</v>
+        <v>0.326007866304458</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2775,25 +2775,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H55" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1625422739842055</v>
+        <v>0.1532762827403163</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6001460059988545</v>
+        <v>0.6229403444588218</v>
       </c>
       <c r="K55" t="n">
-        <v>0.23731172001694</v>
+        <v>0.2237833728008618</v>
       </c>
       <c r="L55" t="n">
-        <v>0.7249385419695566</v>
+        <v>0.6836122210218107</v>
       </c>
       <c r="M55" t="n">
-        <v>2.037749738013503</v>
+        <v>2.092604406177327</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -2814,25 +2814,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H56" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7688063226565108</v>
+        <v>0.7722576132734663</v>
       </c>
       <c r="J56" t="n">
-        <v>0.09398116965182492</v>
+        <v>0.09257820598639584</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1372125076916644</v>
+        <v>0.1351641807401379</v>
       </c>
       <c r="L56" t="n">
-        <v>2.443631475661197</v>
+        <v>2.451937020560537</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4191560166471391</v>
+        <v>0.4128987986993254</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2959,25 +2959,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H59" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1603887430038161</v>
+        <v>0.1522750486756943</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6054436922106122</v>
+        <v>0.6254033802577919</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2341675647855715</v>
+        <v>0.2223215710665137</v>
       </c>
       <c r="L59" t="n">
-        <v>0.7153337937970199</v>
+        <v>0.6791467170935968</v>
       </c>
       <c r="M59" t="n">
-        <v>2.050498641417408</v>
+        <v>2.098531711839889</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -2998,25 +2998,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H60" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7807968908933998</v>
+        <v>0.7957837571349267</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08910695492138221</v>
+        <v>0.08301473287198102</v>
       </c>
       <c r="K60" t="n">
-        <v>0.130096154185218</v>
+        <v>0.1212015099930923</v>
       </c>
       <c r="L60" t="n">
-        <v>2.472486826865417</v>
+        <v>2.508552781397873</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3974170189493647</v>
+        <v>0.3702457086090354</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3037,25 +3037,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H61" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1778516591189926</v>
+        <v>0.1691958451404613</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5624849185672783</v>
+        <v>0.5837782209544652</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2596634223137291</v>
+        <v>0.2470259339050735</v>
       </c>
       <c r="L61" t="n">
-        <v>0.7932183996707067</v>
+        <v>0.7546134693264575</v>
       </c>
       <c r="M61" t="n">
-        <v>1.947118178015564</v>
+        <v>1.998360596768469</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H63" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1633915597068416</v>
+        <v>0.1596324819344635</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5980567631211695</v>
+        <v>0.6073040944412197</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2385516771719888</v>
+        <v>0.2330634236243168</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7287263562925135</v>
+        <v>0.7119608694277073</v>
       </c>
       <c r="M63" t="n">
-        <v>2.032721966535497</v>
+        <v>2.054975706947975</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H64" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8444088879453857</v>
+        <v>0.8522195422618996</v>
       </c>
       <c r="J64" t="n">
-        <v>0.0632484195343961</v>
+        <v>0.06007335680410591</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09234269252021829</v>
+        <v>0.08770710093399463</v>
       </c>
       <c r="L64" t="n">
-        <v>2.625569356356376</v>
+        <v>2.644365727719693</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2820879511234066</v>
+        <v>0.2679271713463123</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3260,25 +3260,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H66" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8199147762195929</v>
+        <v>0.8210771924403004</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07320537552049072</v>
+        <v>0.0727328486015039</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1068798482599164</v>
+        <v>0.1061899589581957</v>
       </c>
       <c r="L66" t="n">
-        <v>2.566624176918695</v>
+        <v>2.569421536279097</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3264959748213886</v>
+        <v>0.3243885047627074</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3352,25 +3352,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H68" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7429679163894257</v>
+        <v>0.7597759876959</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1044845868335668</v>
+        <v>0.09765203752199185</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1525474967770075</v>
+        <v>0.1425719747821081</v>
       </c>
       <c r="L68" t="n">
-        <v>2.381451245945284</v>
+        <v>2.421899937869808</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4660012572777078</v>
+        <v>0.4355280873480837</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H69" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1997936058995598</v>
+        <v>0.1909440627508467</v>
       </c>
       <c r="J69" t="n">
-        <v>0.508507729487083</v>
+        <v>0.530277605632917</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2916986646133573</v>
+        <v>0.2787783316162363</v>
       </c>
       <c r="L69" t="n">
-        <v>0.8910794823120366</v>
+        <v>0.8516105198687764</v>
       </c>
       <c r="M69" t="n">
-        <v>1.817221853074606</v>
+        <v>1.869611148514987</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3483,25 +3483,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H71" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1705702171472787</v>
+        <v>0.1672153912065708</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5803972658176942</v>
+        <v>0.5886501376318358</v>
       </c>
       <c r="K71" t="n">
-        <v>0.249032517035027</v>
+        <v>0.2441344711615934</v>
       </c>
       <c r="L71" t="n">
-        <v>0.7607431684768633</v>
+        <v>0.7457806447813057</v>
       </c>
       <c r="M71" t="n">
-        <v>1.99022431448811</v>
+        <v>2.010084884057101</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3522,25 +3522,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="H72" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8748831352768457</v>
+        <v>0.8818539214440356</v>
       </c>
       <c r="J72" t="n">
-        <v>0.05086051411510339</v>
+        <v>0.04802686120161153</v>
       </c>
       <c r="K72" t="n">
-        <v>0.07425635060805094</v>
+        <v>0.07011921735435282</v>
       </c>
       <c r="L72" t="n">
-        <v>2.698905756438588</v>
+        <v>2.71568098168646</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2268378929533611</v>
+        <v>0.2141998009591874</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3667,25 +3667,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H75" t="n">
-        <v>94.86735207549999</v>
+        <v>95.4142467561</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1174676168945798</v>
+        <v>0.1182579157976359</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7110296624393337</v>
+        <v>0.7090855271378158</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1715027206660864</v>
+        <v>0.1726565570645483</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5239055713498257</v>
+        <v>0.5274303044574559</v>
       </c>
       <c r="M75" t="n">
-        <v>2.304591707984088</v>
+        <v>2.299913138477995</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -3706,25 +3706,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H76" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2853512970994542</v>
+        <v>0.2920058752966607</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2980358091353428</v>
+        <v>0.2878024897168046</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4166128937652031</v>
+        <v>0.4201916349865347</v>
       </c>
       <c r="L76" t="n">
-        <v>1.272666785063566</v>
+        <v>1.296209260876517</v>
       </c>
       <c r="M76" t="n">
-        <v>1.310720321171232</v>
+        <v>1.283599104136949</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3851,25 +3851,25 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H79" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3615550334163057</v>
+        <v>0.3454339078728984</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2595304742210139</v>
+        <v>0.2660837772874397</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3789144923626803</v>
+        <v>0.3884823148396619</v>
       </c>
       <c r="L79" t="n">
-        <v>1.463579592611597</v>
+        <v>1.424784038458357</v>
       </c>
       <c r="M79" t="n">
-        <v>1.157505915025722</v>
+        <v>1.186733646701981</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -3890,25 +3890,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H80" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5967214894627375</v>
+        <v>0.6297399043976807</v>
       </c>
       <c r="J80" t="n">
-        <v>0.163934353876936</v>
+        <v>0.1505122339846826</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2393441566603266</v>
+        <v>0.2197478616176367</v>
       </c>
       <c r="L80" t="n">
-        <v>2.029508625048539</v>
+        <v>2.108967574810679</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7311472182911346</v>
+        <v>0.6712845635716846</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3929,25 +3929,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H81" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2611975441239667</v>
+        <v>0.2482167421089855</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3574540414550419</v>
+        <v>0.3893868144118957</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3813484144209914</v>
+        <v>0.3623964434791189</v>
       </c>
       <c r="L81" t="n">
-        <v>1.164941046792892</v>
+        <v>1.107046669806075</v>
       </c>
       <c r="M81" t="n">
-        <v>1.453710538786117</v>
+        <v>1.530556886714806</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3968,25 +3968,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H82" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6444486023510408</v>
+        <v>0.6627493704744155</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1445330884751866</v>
+        <v>0.1370937518396685</v>
       </c>
       <c r="K82" t="n">
-        <v>0.2110183091737725</v>
+        <v>0.200156877685916</v>
       </c>
       <c r="L82" t="n">
-        <v>2.144364116226895</v>
+        <v>2.188404989109163</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6446175745993323</v>
+        <v>0.6114381332049215</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -4007,25 +4007,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H83" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2409619375870308</v>
+        <v>0.2334776713762431</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4072336335359042</v>
+        <v>0.4256449284144418</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3518044288770649</v>
+        <v>0.340877400209315</v>
       </c>
       <c r="L83" t="n">
-        <v>1.074690241638157</v>
+        <v>1.041310414338044</v>
       </c>
       <c r="M83" t="n">
-        <v>1.573505329484778</v>
+        <v>1.61781218545264</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4099,25 +4099,25 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H85" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I85" t="n">
-        <v>0.3018717211981932</v>
+        <v>0.2917878726812997</v>
       </c>
       <c r="J85" t="n">
-        <v>0.283791983252767</v>
+        <v>0.2878911086661384</v>
       </c>
       <c r="K85" t="n">
-        <v>0.4143362955490398</v>
+        <v>0.420321018652562</v>
       </c>
       <c r="L85" t="n">
-        <v>1.31995145914362</v>
+        <v>1.295684636696461</v>
       </c>
       <c r="M85" t="n">
-        <v>1.265712245307341</v>
+        <v>1.283994344650977</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -4138,25 +4138,25 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H86" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6173071939776437</v>
+        <v>0.6242948986776318</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1555661813099009</v>
+        <v>0.1527256509440521</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2271266247124553</v>
+        <v>0.2229794503783161</v>
       </c>
       <c r="L86" t="n">
-        <v>2.079048206645386</v>
+        <v>2.095864146411211</v>
       </c>
       <c r="M86" t="n">
-        <v>0.693825168642158</v>
+        <v>0.6811564032104725</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -4230,25 +4230,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H88" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6109277767951791</v>
+        <v>0.6397458248805996</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1581594403271629</v>
+        <v>0.1464447866339026</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2309127828776579</v>
+        <v>0.2138093884854977</v>
       </c>
       <c r="L88" t="n">
-        <v>2.063696113263195</v>
+        <v>2.133046863127297</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7053911038591467</v>
+        <v>0.6531437483872056</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4269,25 +4269,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H89" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2553813029317211</v>
+        <v>0.2438574590627355</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3717619947879662</v>
+        <v>0.4001106507056708</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3728567022803127</v>
+        <v>0.3560318902315937</v>
       </c>
       <c r="L89" t="n">
-        <v>1.139000611075476</v>
+        <v>1.0876042674198</v>
       </c>
       <c r="M89" t="n">
-        <v>1.488142686644211</v>
+        <v>1.556363842348606</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4361,25 +4361,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H91" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2761746222065544</v>
+        <v>0.2728220035845197</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3206104293718761</v>
+        <v>0.3288578711820814</v>
       </c>
       <c r="K91" t="n">
-        <v>0.4032149484215695</v>
+        <v>0.3983201252333988</v>
       </c>
       <c r="L91" t="n">
-        <v>1.231738815041233</v>
+        <v>1.216786135986958</v>
       </c>
       <c r="M91" t="n">
-        <v>1.365046236537198</v>
+        <v>1.384893738779643</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4400,25 +4400,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H92" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6159726877197108</v>
+        <v>0.642069340469581</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1561086635285729</v>
+        <v>0.1455002681017964</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2279186487517164</v>
+        <v>0.2124303914286227</v>
       </c>
       <c r="L92" t="n">
-        <v>2.075836711910849</v>
+        <v>2.138638412837365</v>
       </c>
       <c r="M92" t="n">
-        <v>0.6962446393374351</v>
+        <v>0.6489311957340118</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4439,25 +4439,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H93" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2532747267706639</v>
+        <v>0.2428319338970873</v>
       </c>
       <c r="J93" t="n">
-        <v>0.3769441721441668</v>
+        <v>0.4026334426131649</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3697811010851693</v>
+        <v>0.3545346234897476</v>
       </c>
       <c r="L93" t="n">
-        <v>1.129605281397161</v>
+        <v>1.08303042518101</v>
       </c>
       <c r="M93" t="n">
-        <v>1.50061361751767</v>
+        <v>1.562434951329242</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4531,25 +4531,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H95" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2697658036978913</v>
+        <v>0.2595424197431179</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3363761229031875</v>
+        <v>0.3615256474319301</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3938580733989212</v>
+        <v>0.3789319328249521</v>
       </c>
       <c r="L95" t="n">
-        <v>1.203155484492595</v>
+        <v>1.157559192054306</v>
       </c>
       <c r="M95" t="n">
-        <v>1.402986442108484</v>
+        <v>1.463508875120742</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4570,25 +4570,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H96" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6089378267561877</v>
+        <v>0.6249818997849298</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1589683631072408</v>
+        <v>0.152446382201248</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2320938101365716</v>
+        <v>0.2225717180138221</v>
       </c>
       <c r="L96" t="n">
-        <v>2.058907290405135</v>
+        <v>2.097517417368612</v>
       </c>
       <c r="M96" t="n">
-        <v>0.708998899458294</v>
+        <v>0.6799108646175662</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4662,25 +4662,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H98" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6733634328897899</v>
+        <v>0.6918500881293483</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1327790923212236</v>
+        <v>0.1252641918173381</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1938574747889864</v>
+        <v>0.1828857200533135</v>
       </c>
       <c r="L98" t="n">
-        <v>2.213947773458356</v>
+        <v>2.258435984441359</v>
       </c>
       <c r="M98" t="n">
-        <v>0.5921947517526572</v>
+        <v>0.5586782955053278</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4701,25 +4701,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H99" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2276814326174083</v>
+        <v>0.2195888113582318</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4399036757611756</v>
+        <v>0.4598115240587499</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3324148916214161</v>
+        <v>0.3205996645830183</v>
       </c>
       <c r="L99" t="n">
-        <v>1.015459189473641</v>
+        <v>0.9793660986577135</v>
       </c>
       <c r="M99" t="n">
-        <v>1.652125918904943</v>
+        <v>1.700034236759268</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4740,25 +4740,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H100" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6336254678000717</v>
+        <v>0.6411431445698967</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1489327366666375</v>
+        <v>0.145876770500042</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2174417955332908</v>
+        <v>0.2129800849300613</v>
       </c>
       <c r="L100" t="n">
-        <v>2.118318198933506</v>
+        <v>2.136409518639752</v>
       </c>
       <c r="M100" t="n">
-        <v>0.6642400055332034</v>
+        <v>0.6506103964301873</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4779,25 +4779,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H101" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2457280791660827</v>
+        <v>0.2432413314747003</v>
       </c>
       <c r="J101" t="n">
-        <v>0.3955089252514368</v>
+        <v>0.4016263245722373</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3587629955824806</v>
+        <v>0.3551323439530624</v>
       </c>
       <c r="L101" t="n">
-        <v>1.095947233080729</v>
+        <v>1.084856338377163</v>
       </c>
       <c r="M101" t="n">
-        <v>1.545289771336791</v>
+        <v>1.560011317669774</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4818,25 +4818,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H102" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5233539096920704</v>
+        <v>0.5518425814566099</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1937585732959063</v>
+        <v>0.1821778124160122</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2828875170120232</v>
+        <v>0.2659796061273778</v>
       </c>
       <c r="L102" t="n">
-        <v>1.852949246088235</v>
+        <v>1.921507350497208</v>
       </c>
       <c r="M102" t="n">
-        <v>0.8641632368997423</v>
+        <v>0.8125130433754144</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4910,25 +4910,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="H104" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I104" t="n">
-        <v>0.5921078001742982</v>
+        <v>0.6073357995713995</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1658098373275211</v>
+        <v>0.1596195936701628</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2420823624981807</v>
+        <v>0.2330446067584377</v>
       </c>
       <c r="L104" t="n">
-        <v>2.018405763021075</v>
+        <v>2.055052005472636</v>
       </c>
       <c r="M104" t="n">
-        <v>0.739511874480744</v>
+        <v>0.711903387768926</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4949,25 +4949,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H105" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2630504707223525</v>
+        <v>0.2576526264924367</v>
       </c>
       <c r="J105" t="n">
-        <v>0.3528958420230129</v>
+        <v>0.366174538828606</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3840536872546347</v>
+        <v>0.3761728346789575</v>
       </c>
       <c r="L105" t="n">
-        <v>1.173205099421692</v>
+        <v>1.149130714156267</v>
       </c>
       <c r="M105" t="n">
-        <v>1.442741213323673</v>
+        <v>1.474696451164775</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5041,25 +5041,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H107" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I107" t="n">
-        <v>0.2010141935823475</v>
+        <v>0.1923675051841657</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5055050837874252</v>
+        <v>0.5267759372469524</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2934807226302273</v>
+        <v>0.2808565575688819</v>
       </c>
       <c r="L107" t="n">
-        <v>0.8965233033772697</v>
+        <v>0.857959073121379</v>
       </c>
       <c r="M107" t="n">
-        <v>1.809995973992503</v>
+        <v>1.861184369309739</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5133,25 +5133,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H109" t="n">
-        <v>88.3521809181</v>
+        <v>89.0648867375</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2063360065058723</v>
+        <v>0.2048886432450789</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4924134239955543</v>
+        <v>0.4959739376171061</v>
       </c>
       <c r="K109" t="n">
-        <v>0.3012505694985735</v>
+        <v>0.2991374191378151</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9202585890161903</v>
+        <v>0.9138033488730517</v>
       </c>
       <c r="M109" t="n">
-        <v>1.778490841485236</v>
+        <v>1.787059231989133</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5172,25 +5172,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H110" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5845956191422066</v>
+        <v>0.5893833515901816</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1688635694543876</v>
+        <v>0.1669173367519587</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2465408114034059</v>
+        <v>0.2436993116578597</v>
       </c>
       <c r="L110" t="n">
-        <v>2.000327668830026</v>
+        <v>2.011849366428405</v>
       </c>
       <c r="M110" t="n">
-        <v>0.7531315197665687</v>
+        <v>0.7444513219137356</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5264,25 +5264,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H112" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I112" t="n">
-        <v>0.723546016877034</v>
+        <v>0.739875507605807</v>
       </c>
       <c r="J112" t="n">
-        <v>0.112379667936165</v>
+        <v>0.1057416635748752</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1640743151868009</v>
+        <v>0.1543828288193178</v>
       </c>
       <c r="L112" t="n">
-        <v>2.334712365817903</v>
+        <v>2.374009351636739</v>
       </c>
       <c r="M112" t="n">
-        <v>0.501213318995296</v>
+        <v>0.4716078195439433</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5409,25 +5409,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H115" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1857196015002678</v>
+        <v>0.1835176066559518</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5431297803093411</v>
+        <v>0.5485466876263586</v>
       </c>
       <c r="K115" t="n">
-        <v>0.271150618190391</v>
+        <v>0.2679357057176897</v>
       </c>
       <c r="L115" t="n">
-        <v>0.8283094226911945</v>
+        <v>0.8184885256855451</v>
       </c>
       <c r="M115" t="n">
-        <v>1.900539959118414</v>
+        <v>1.913575768596766</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5448,25 +5448,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H116" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I116" t="n">
-        <v>0.645901354666208</v>
+        <v>0.6455284411576184</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1439425387535739</v>
+        <v>0.1440941296107242</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2101561065802179</v>
+        <v>0.2103774292316574</v>
       </c>
       <c r="L116" t="n">
-        <v>2.147860170578842</v>
+        <v>2.146962752704512</v>
       </c>
       <c r="M116" t="n">
-        <v>0.6419837228409397</v>
+        <v>0.64265981806383</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5487,25 +5487,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H117" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2446915210012531</v>
+        <v>0.2452370066821268</v>
       </c>
       <c r="J117" t="n">
-        <v>0.3980588583369175</v>
+        <v>0.396716963561968</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3572496206618295</v>
+        <v>0.3580460297559051</v>
       </c>
       <c r="L117" t="n">
-        <v>1.091324183665589</v>
+        <v>1.093757049802286</v>
       </c>
       <c r="M117" t="n">
-        <v>1.551426195672582</v>
+        <v>1.548196920441809</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5579,25 +5579,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H119" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1979997242009905</v>
+        <v>0.2011852205409032</v>
       </c>
       <c r="J119" t="n">
-        <v>0.5129206784655634</v>
+        <v>0.505084357469378</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2890795973334461</v>
+        <v>0.2937304219897188</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8830787699364175</v>
+        <v>0.8972860836124285</v>
       </c>
       <c r="M119" t="n">
-        <v>1.827841632730136</v>
+        <v>1.808983494397853</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5618,25 +5618,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H120" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7352667128012272</v>
+        <v>0.7480956827732153</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1076151573978751</v>
+        <v>0.1024001289539775</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1571181298008976</v>
+        <v>0.1495041882728072</v>
       </c>
       <c r="L120" t="n">
-        <v>2.36291826820458</v>
+        <v>2.393791236592453</v>
       </c>
       <c r="M120" t="n">
-        <v>0.479963601994523</v>
+        <v>0.4567045751347398</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -5763,25 +5763,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H123" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I123" t="n">
-        <v>0.2237718999803189</v>
+        <v>0.225410820436464</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4495211260484154</v>
+        <v>0.4454893817262987</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3267069739712656</v>
+        <v>0.3290997978372374</v>
       </c>
       <c r="L123" t="n">
-        <v>0.9980226739122224</v>
+        <v>1.005332259146629</v>
       </c>
       <c r="M123" t="n">
-        <v>1.675270352116512</v>
+        <v>1.665567943016133</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5802,25 +5802,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H124" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I124" t="n">
-        <v>0.7393871401885349</v>
+        <v>0.7499934709158056</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1059401869152297</v>
+        <v>0.1016286703594287</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1546726728962354</v>
+        <v>0.1483778587247659</v>
       </c>
       <c r="L124" t="n">
-        <v>2.37283409346184</v>
+        <v>2.398358271472183</v>
       </c>
       <c r="M124" t="n">
-        <v>0.4724932336419246</v>
+        <v>0.4532638698030519</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5841,25 +5841,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H125" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1985960207095047</v>
+        <v>0.1931041373708461</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5114537890546184</v>
+        <v>0.5249638220677186</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2899501902358769</v>
+        <v>0.2819320405614352</v>
       </c>
       <c r="L125" t="n">
-        <v>0.885738252364391</v>
+        <v>0.8612444526739735</v>
       </c>
       <c r="M125" t="n">
-        <v>1.824311557399732</v>
+        <v>1.856823506764591</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5933,25 +5933,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H127" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2165585199616712</v>
+        <v>0.2107999611443927</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4672660408942888</v>
+        <v>0.4814320955847939</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3161754391440399</v>
+        <v>0.3077679432708133</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9658509990290536</v>
+        <v>0.9401678267039912</v>
       </c>
       <c r="M127" t="n">
-        <v>1.717973561826906</v>
+        <v>1.752064230025195</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5972,25 +5972,25 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H128" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7336354353026875</v>
+        <v>0.7359393382705249</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1082782783322409</v>
+        <v>0.1073417324103557</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1580862863650717</v>
+        <v>0.1567189293191193</v>
       </c>
       <c r="L128" t="n">
-        <v>2.358992592273134</v>
+        <v>2.364536944130694</v>
       </c>
       <c r="M128" t="n">
-        <v>0.4829211213617944</v>
+        <v>0.4787441265501866</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -6011,25 +6011,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H129" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I129" t="n">
-        <v>0.201727847247913</v>
+        <v>0.2008755746832295</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5037494957701338</v>
+        <v>0.5058460862792554</v>
       </c>
       <c r="K129" t="n">
-        <v>0.294522656981953</v>
+        <v>0.293278339037515</v>
       </c>
       <c r="L129" t="n">
-        <v>0.8997061987256921</v>
+        <v>0.8959050630872036</v>
       </c>
       <c r="M129" t="n">
-        <v>1.805771144292355</v>
+        <v>1.810816597875281</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -6050,25 +6050,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H130" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I130" t="n">
-        <v>0.7847784964292711</v>
+        <v>0.7896809511607198</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08748841608566216</v>
+        <v>0.0854955483086505</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1277330874850668</v>
+        <v>0.1248235005306297</v>
       </c>
       <c r="L130" t="n">
-        <v>2.48206857677288</v>
+        <v>2.493866354012789</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3901983357420532</v>
+        <v>0.3813101454565813</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6089,25 +6089,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H131" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I131" t="n">
-        <v>0.172314538155906</v>
+        <v>0.1696861204718766</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5761062361364713</v>
+        <v>0.5825721436391835</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2515792257076227</v>
+        <v>0.2477417358889398</v>
       </c>
       <c r="L131" t="n">
-        <v>0.7685228401753407</v>
+        <v>0.7568000973045694</v>
       </c>
       <c r="M131" t="n">
-        <v>1.979897934117036</v>
+        <v>1.99545816680649</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6128,25 +6128,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H132" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7536358574484904</v>
+        <v>0.7492374744027728</v>
       </c>
       <c r="J132" t="n">
-        <v>0.100148025427443</v>
+        <v>0.101935986015133</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1462161171240667</v>
+        <v>0.1488265395820942</v>
       </c>
       <c r="L132" t="n">
-        <v>2.407123689469538</v>
+        <v>2.396538962790412</v>
       </c>
       <c r="M132" t="n">
-        <v>0.4466601934063957</v>
+        <v>0.4546344976274933</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6220,25 +6220,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H134" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6601090808755858</v>
+        <v>0.6731218105071063</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1381670402944773</v>
+        <v>0.1328773128019893</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2017238788299368</v>
+        <v>0.1940008766909044</v>
       </c>
       <c r="L134" t="n">
-        <v>2.182051121456694</v>
+        <v>2.213366308212223</v>
       </c>
       <c r="M134" t="n">
-        <v>0.6162249997133687</v>
+        <v>0.5926328150968723</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6312,25 +6312,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H136" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I136" t="n">
-        <v>0.7197017116003351</v>
+        <v>0.7211850570412343</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1139423936584004</v>
+        <v>0.1133394077068153</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1663558947412646</v>
+        <v>0.1654755352519504</v>
       </c>
       <c r="L136" t="n">
-        <v>2.32546102954227</v>
+        <v>2.329030706375653</v>
       </c>
       <c r="M136" t="n">
-        <v>0.5081830757164656</v>
+        <v>0.5054937583723963</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6351,25 +6351,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H137" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2091418579328385</v>
+        <v>0.2087609253008353</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4855110294852173</v>
+        <v>0.4864481237599452</v>
       </c>
       <c r="K137" t="n">
-        <v>0.3053471125819441</v>
+        <v>0.3047909509392195</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9327726863804596</v>
+        <v>0.9310737268417253</v>
       </c>
       <c r="M137" t="n">
-        <v>1.761880201037596</v>
+        <v>1.764135322219055</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6390,25 +6390,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H138" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8245046895488979</v>
+        <v>0.8293449013184518</v>
       </c>
       <c r="J138" t="n">
-        <v>0.07133955709394391</v>
+        <v>0.0693719913339627</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1041557533571581</v>
+        <v>0.1012831073475855</v>
       </c>
       <c r="L138" t="n">
-        <v>2.577669822003851</v>
+        <v>2.589317811302941</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3181744246389898</v>
+        <v>0.3093990813494736</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6429,25 +6429,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H139" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1468082742561618</v>
+        <v>0.143888825060838</v>
       </c>
       <c r="J139" t="n">
-        <v>0.6388516453298418</v>
+        <v>0.6460334903503386</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2143400804139963</v>
+        <v>0.2100776845888234</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6547649031824818</v>
+        <v>0.6417441597713374</v>
       </c>
       <c r="M139" t="n">
-        <v>2.130895016403522</v>
+        <v>2.148178155639839</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6468,25 +6468,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="H140" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8170989455565318</v>
+        <v>0.8119030447405274</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07435002213149117</v>
+        <v>0.07646217693474493</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1085510323119771</v>
+        <v>0.1116347783247276</v>
       </c>
       <c r="L140" t="n">
-        <v>2.559847868981572</v>
+        <v>2.54734391254631</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3316010987064506</v>
+        <v>0.3410213091289623</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6507,25 +6507,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H141" t="n">
-        <v>92.1907163657</v>
+        <v>92.52598586329999</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1517548145531241</v>
+        <v>0.1555465964409914</v>
       </c>
       <c r="J141" t="n">
-        <v>0.6266831561993149</v>
+        <v>0.6173553727551612</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2215620292475611</v>
+        <v>0.2270980308038475</v>
       </c>
       <c r="L141" t="n">
-        <v>0.6768264729069333</v>
+        <v>0.6937378201268218</v>
       </c>
       <c r="M141" t="n">
-        <v>2.101611497845506</v>
+        <v>2.079164149069331</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6546,25 +6546,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H142" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5544071253889081</v>
+        <v>0.5703180916158906</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1811353148825577</v>
+        <v>0.1746674424325648</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2644575597285342</v>
+        <v>0.2550144659515446</v>
       </c>
       <c r="L142" t="n">
-        <v>1.927678935895259</v>
+        <v>1.965968740799216</v>
       </c>
       <c r="M142" t="n">
-        <v>0.8078635043762072</v>
+        <v>0.7790167932492389</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6638,25 +6638,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H144" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I144" t="n">
-        <v>0.6038172006157531</v>
+        <v>0.6053048314510759</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1610499184488809</v>
+        <v>0.1604451904670423</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2351328809353661</v>
+        <v>0.2342499780818818</v>
       </c>
       <c r="L144" t="n">
-        <v>2.046584482782625</v>
+        <v>2.05016447243511</v>
       </c>
       <c r="M144" t="n">
-        <v>0.7182826362820087</v>
+        <v>0.7155855494830087</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6783,25 +6783,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H147" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3381078382123242</v>
+        <v>0.3433724787533854</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2690618543852341</v>
+        <v>0.2669217566043149</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3928303074024417</v>
+        <v>0.3897057646422997</v>
       </c>
       <c r="L147" t="n">
-        <v>1.407153822039414</v>
+        <v>1.419823200902456</v>
       </c>
       <c r="M147" t="n">
-        <v>1.200015870558144</v>
+        <v>1.190471034455244</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6822,25 +6822,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H148" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5756166483179599</v>
+        <v>0.5646034077743802</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1725135575943252</v>
+        <v>0.1769904846445609</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2518697940877149</v>
+        <v>0.2584061075810589</v>
       </c>
       <c r="L148" t="n">
-        <v>1.978719739041594</v>
+        <v>1.9522163309042</v>
       </c>
       <c r="M148" t="n">
-        <v>0.7694104668706905</v>
+        <v>0.7893775615147418</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6861,25 +6861,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H149" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I149" t="n">
-        <v>0.2682960322834911</v>
+        <v>0.272747058747244</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3399917605826119</v>
+        <v>0.3290422354817797</v>
       </c>
       <c r="K149" t="n">
-        <v>0.391712207133897</v>
+        <v>0.3982107057709763</v>
       </c>
       <c r="L149" t="n">
-        <v>1.19660030398437</v>
+        <v>1.216451882012708</v>
       </c>
       <c r="M149" t="n">
-        <v>1.411687488881733</v>
+        <v>1.385337412216316</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -6953,25 +6953,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H151" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2708383426034758</v>
+        <v>0.2664740026089034</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3337376771954494</v>
+        <v>0.3444739535820977</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3954239802010747</v>
+        <v>0.3890520438089989</v>
       </c>
       <c r="L151" t="n">
-        <v>1.207939008011502</v>
+        <v>1.188474051635709</v>
       </c>
       <c r="M151" t="n">
-        <v>1.396637011787423</v>
+        <v>1.422473904555292</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6992,25 +6992,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H152" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5150668213824475</v>
+        <v>0.5074538237241177</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1971273083811189</v>
+        <v>0.2002220228763749</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2878058702364336</v>
+        <v>0.2923241533995073</v>
       </c>
       <c r="L152" t="n">
-        <v>1.833006334383776</v>
+        <v>1.814685624571861</v>
       </c>
       <c r="M152" t="n">
-        <v>0.8791877953797902</v>
+        <v>0.892990222028632</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -7031,25 +7031,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H153" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2926202795034029</v>
+        <v>0.2997367067997314</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2875527319091858</v>
+        <v>0.2846598752846621</v>
       </c>
       <c r="K153" t="n">
-        <v>0.4198269885874113</v>
+        <v>0.4156034179156066</v>
       </c>
       <c r="L153" t="n">
-        <v>1.29768782709762</v>
+        <v>1.314813538314801</v>
       </c>
       <c r="M153" t="n">
-        <v>1.282485184314969</v>
+        <v>1.269583043769593</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7070,25 +7070,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H154" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5742370317697295</v>
+        <v>0.5833169752265126</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1730743773293783</v>
+        <v>0.1693833434038566</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2526885909008923</v>
+        <v>0.2472996813696307</v>
       </c>
       <c r="L154" t="n">
-        <v>1.975399686210081</v>
+        <v>1.997250607049168</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7719117228890271</v>
+        <v>0.7554497115812006</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7109,25 +7109,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H155" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I155" t="n">
-        <v>0.268831076136699</v>
+        <v>0.2655086289578422</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3386755527037205</v>
+        <v>0.3468487727637084</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3924933711595805</v>
+        <v>0.3876425982784495</v>
       </c>
       <c r="L155" t="n">
-        <v>1.198986599569678</v>
+        <v>1.184168485151976</v>
       </c>
       <c r="M155" t="n">
-        <v>1.408520029270742</v>
+        <v>1.428188916569575</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7201,25 +7201,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H157" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2844547104822622</v>
+        <v>0.2810995280929991</v>
       </c>
       <c r="J157" t="n">
-        <v>0.300241412213635</v>
+        <v>0.3084951608912223</v>
       </c>
       <c r="K157" t="n">
-        <v>0.4153038773041028</v>
+        <v>0.4104053110157786</v>
       </c>
       <c r="L157" t="n">
-        <v>1.268668008750889</v>
+        <v>1.253703895294776</v>
       </c>
       <c r="M157" t="n">
-        <v>1.316028113945008</v>
+        <v>1.335890793689446</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7240,25 +7240,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H158" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5669750973609584</v>
+        <v>0.5653235611768126</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1760263831866023</v>
+        <v>0.1766977393590193</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2569985194524393</v>
+        <v>0.2579786994641681</v>
       </c>
       <c r="L158" t="n">
-        <v>1.957923811535315</v>
+        <v>1.953949382994606</v>
       </c>
       <c r="M158" t="n">
-        <v>0.7850776690122462</v>
+        <v>0.7880719175412259</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -7279,25 +7279,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H159" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2716234694278986</v>
+        <v>0.2724734373593833</v>
       </c>
       <c r="J159" t="n">
-        <v>0.3318062652073696</v>
+        <v>0.329715344095917</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3965702653647319</v>
+        <v>0.3978112185446996</v>
       </c>
       <c r="L159" t="n">
-        <v>1.211440673648428</v>
+        <v>1.215231530622849</v>
       </c>
       <c r="M159" t="n">
-        <v>1.391989060986841</v>
+        <v>1.386957250832451</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7318,25 +7318,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H160" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I160" t="n">
-        <v>0.6341605539183574</v>
+        <v>0.63664475292787</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1487152219844076</v>
+        <v>0.1477053849886707</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2171242240972351</v>
+        <v>0.2156498620834592</v>
       </c>
       <c r="L160" t="n">
-        <v>2.119605885852307</v>
+        <v>2.125584120867069</v>
       </c>
       <c r="M160" t="n">
-        <v>0.6632698900504578</v>
+        <v>0.6587660170494715</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7463,25 +7463,25 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H163" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2616122889193228</v>
+        <v>0.2658941490305711</v>
       </c>
       <c r="J163" t="n">
-        <v>0.356433769258466</v>
+        <v>0.3459003933847951</v>
       </c>
       <c r="K163" t="n">
-        <v>0.3819539418222112</v>
+        <v>0.3882054575846338</v>
       </c>
       <c r="L163" t="n">
-        <v>1.166790808580179</v>
+        <v>1.185887904676347</v>
       </c>
       <c r="M163" t="n">
-        <v>1.451255249597609</v>
+        <v>1.425906637739019</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -7502,25 +7502,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H164" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I164" t="n">
-        <v>0.480049146171257</v>
+        <v>0.4900428628610801</v>
       </c>
       <c r="J164" t="n">
-        <v>0.211362135702741</v>
+        <v>0.2072996492434634</v>
       </c>
       <c r="K164" t="n">
-        <v>0.3085887181260019</v>
+        <v>0.3026574878954566</v>
       </c>
       <c r="L164" t="n">
-        <v>1.748736156639773</v>
+        <v>1.772786076478697</v>
       </c>
       <c r="M164" t="n">
-        <v>0.9426751252342249</v>
+        <v>0.9245564356258469</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7647,25 +7647,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H167" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2781174416906382</v>
+        <v>0.2793511337151233</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3158310934410301</v>
+        <v>0.3127962110607968</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4060514648683317</v>
+        <v>0.4078526552240799</v>
       </c>
       <c r="L167" t="n">
-        <v>1.240403789940246</v>
+        <v>1.24590605636945</v>
       </c>
       <c r="M167" t="n">
-        <v>1.353544745191422</v>
+        <v>1.34624128840647</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -7686,25 +7686,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H168" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6907321397574224</v>
+        <v>0.6939855951704388</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1257186423750316</v>
+        <v>0.1243960995242119</v>
       </c>
       <c r="K168" t="n">
-        <v>0.183549217867546</v>
+        <v>0.1816183053053493</v>
       </c>
       <c r="L168" t="n">
-        <v>2.255745637139813</v>
+        <v>2.263575090816666</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5607051449926407</v>
+        <v>0.5548066038779849</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7725,25 +7725,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H169" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2179258210262349</v>
+        <v>0.2165671997783657</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4639024802754621</v>
+        <v>0.4672446885452203</v>
       </c>
       <c r="K169" t="n">
-        <v>0.3181716986983029</v>
+        <v>0.316188111676414</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9719491617770075</v>
+        <v>0.9658897110115112</v>
       </c>
       <c r="M169" t="n">
-        <v>1.709879139524689</v>
+        <v>1.717922177312075</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -7764,25 +7764,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="H170" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I170" t="n">
-        <v>0.6798731060649966</v>
+        <v>0.6682433861700162</v>
       </c>
       <c r="J170" t="n">
-        <v>0.130132883713416</v>
+        <v>0.1348604121260097</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1899940102215874</v>
+        <v>0.1968962017039741</v>
       </c>
       <c r="L170" t="n">
-        <v>2.229613328416578</v>
+        <v>2.201626360214023</v>
       </c>
       <c r="M170" t="n">
-        <v>0.5803926613618354</v>
+        <v>0.6014774380820032</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7803,25 +7803,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H171" t="n">
-        <v>87.1855402611</v>
+        <v>87.3959784356</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2232090265216999</v>
+        <v>0.2289791583409178</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4509057947566182</v>
+        <v>0.4367112704813421</v>
       </c>
       <c r="K171" t="n">
-        <v>0.3258851787216818</v>
+        <v>0.33430957117774</v>
       </c>
       <c r="L171" t="n">
-        <v>0.9955122582867815</v>
+        <v>1.021247046200493</v>
       </c>
       <c r="M171" t="n">
-        <v>1.678602562991537</v>
+        <v>1.644443382621766</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7895,25 +7895,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H173" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I173" t="n">
-        <v>0.3457452414643819</v>
+        <v>0.3593100227099799</v>
       </c>
       <c r="J173" t="n">
-        <v>0.265957218916918</v>
+        <v>0.2604430801991952</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3882975396187002</v>
+        <v>0.3802468970908249</v>
       </c>
       <c r="L173" t="n">
-        <v>1.425533264011846</v>
+        <v>1.458176965220765</v>
       </c>
       <c r="M173" t="n">
-        <v>1.186169196369454</v>
+        <v>1.16157613768841</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7934,25 +7934,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H174" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I174" t="n">
-        <v>0.3126359076943534</v>
+        <v>0.2944242458487554</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2794162976852222</v>
+        <v>0.2868194122566035</v>
       </c>
       <c r="K174" t="n">
-        <v>0.4079477946204244</v>
+        <v>0.4187563418946411</v>
       </c>
       <c r="L174" t="n">
-        <v>1.345855517703485</v>
+        <v>1.302029079440907</v>
       </c>
       <c r="M174" t="n">
-        <v>1.246196687676091</v>
+        <v>1.279214578664452</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7973,25 +7973,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H175" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I175" t="n">
-        <v>0.4871813376906124</v>
+        <v>0.5088999887159685</v>
       </c>
       <c r="J175" t="n">
-        <v>0.2084628708574746</v>
+        <v>0.1996341509284681</v>
       </c>
       <c r="K175" t="n">
-        <v>0.3043557914519129</v>
+        <v>0.2914658603555634</v>
       </c>
       <c r="L175" t="n">
-        <v>1.76589980452375</v>
+        <v>1.818165826503469</v>
       </c>
       <c r="M175" t="n">
-        <v>0.9297444040243369</v>
+        <v>0.8903683131409678</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -8012,25 +8012,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H176" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I176" t="n">
-        <v>0.4156964740663091</v>
+        <v>0.3890291919554117</v>
       </c>
       <c r="J176" t="n">
-        <v>0.2375217585096305</v>
+        <v>0.248362117091296</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3467817674240605</v>
+        <v>0.3626086909532922</v>
       </c>
       <c r="L176" t="n">
-        <v>1.593871189622988</v>
+        <v>1.529696266819527</v>
       </c>
       <c r="M176" t="n">
-        <v>1.059347042952952</v>
+        <v>1.10769504222718</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -8051,25 +8051,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H177" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I177" t="n">
-        <v>0.3736616761664897</v>
+        <v>0.4003762142000803</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2546090747290693</v>
+        <v>0.2437495064227316</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3717292491044412</v>
+        <v>0.3558742793771881</v>
       </c>
       <c r="L177" t="n">
-        <v>1.49271427760391</v>
+        <v>1.557002921977429</v>
       </c>
       <c r="M177" t="n">
-        <v>1.135556473291649</v>
+        <v>1.087122798645383</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8090,25 +8090,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H178" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I178" t="n">
-        <v>0.4091728910451217</v>
+        <v>0.4049330942295608</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2401736215263733</v>
+        <v>0.2418971161668452</v>
       </c>
       <c r="K178" t="n">
-        <v>0.3506534874285051</v>
+        <v>0.353169789603594</v>
       </c>
       <c r="L178" t="n">
-        <v>1.57817216056387</v>
+        <v>1.567969072292276</v>
       </c>
       <c r="M178" t="n">
-        <v>1.071174352007625</v>
+        <v>1.07886113810413</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8182,25 +8182,25 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H180" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I180" t="n">
-        <v>0.357786490949424</v>
+        <v>0.3359391996428825</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2610624020530797</v>
+        <v>0.2699434147793161</v>
       </c>
       <c r="K180" t="n">
-        <v>0.3811511069974964</v>
+        <v>0.3941173855778015</v>
       </c>
       <c r="L180" t="n">
-        <v>1.454510579845768</v>
+        <v>1.401934984506449</v>
       </c>
       <c r="M180" t="n">
-        <v>1.164338313156736</v>
+        <v>1.20394762991575</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -8221,25 +8221,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H181" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4348131589240095</v>
+        <v>0.4589309554781702</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2297507484048742</v>
+        <v>0.2199467660657844</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3354360926711163</v>
+        <v>0.3211222784560453</v>
       </c>
       <c r="L181" t="n">
-        <v>1.639875569443145</v>
+        <v>1.697915144890556</v>
       </c>
       <c r="M181" t="n">
-        <v>1.024688337885739</v>
+        <v>0.9809625766533987</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8260,25 +8260,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H182" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4143259410792558</v>
+        <v>0.4073681420572208</v>
       </c>
       <c r="J182" t="n">
-        <v>0.2380788857401399</v>
+        <v>0.240907259326333</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3475951731806043</v>
+        <v>0.3517245986164461</v>
       </c>
       <c r="L182" t="n">
-        <v>1.590572996418372</v>
+        <v>1.573829024788109</v>
       </c>
       <c r="M182" t="n">
-        <v>1.061831830401024</v>
+        <v>1.074446376595445</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8299,25 +8299,25 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H183" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3750367446309391</v>
+        <v>0.3814264530436825</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2540501038085613</v>
+        <v>0.2514526613643567</v>
       </c>
       <c r="K183" t="n">
-        <v>0.3709131515604995</v>
+        <v>0.3671208855919608</v>
       </c>
       <c r="L183" t="n">
-        <v>1.496023385453317</v>
+        <v>1.511400244723008</v>
       </c>
       <c r="M183" t="n">
-        <v>1.133063462986184</v>
+        <v>1.121478869685031</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -8391,25 +8391,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H185" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4173352086892023</v>
+        <v>0.4232968698135112</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2368556062239015</v>
+        <v>0.2344321667424751</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3458091850868961</v>
+        <v>0.3422709634440137</v>
       </c>
       <c r="L185" t="n">
-        <v>1.597814811154503</v>
+        <v>1.612161572884547</v>
       </c>
       <c r="M185" t="n">
-        <v>1.056376003758601</v>
+        <v>1.045567463671439</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8483,25 +8483,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H187" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3822889769004979</v>
+        <v>0.3996448607603365</v>
       </c>
       <c r="J187" t="n">
-        <v>0.2511020419103667</v>
+        <v>0.244046804568969</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3666089811891354</v>
+        <v>0.3563083346706947</v>
       </c>
       <c r="L187" t="n">
-        <v>1.513475911890629</v>
+        <v>1.555242916951704</v>
       </c>
       <c r="M187" t="n">
-        <v>1.119915106920236</v>
+        <v>1.088448748377602</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8522,25 +8522,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H188" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I188" t="n">
-        <v>0.4762273517430137</v>
+        <v>0.4624632062748861</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2129157106735717</v>
+        <v>0.2185108917581764</v>
       </c>
       <c r="K188" t="n">
-        <v>0.3108569375834146</v>
+        <v>0.3190259019669376</v>
       </c>
       <c r="L188" t="n">
-        <v>1.739538992812456</v>
+        <v>1.706415520791596</v>
       </c>
       <c r="M188" t="n">
-        <v>0.9496040696041297</v>
+        <v>0.9745585772414669</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8561,25 +8561,25 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H189" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3161212287549447</v>
+        <v>0.3280757767664317</v>
       </c>
       <c r="J189" t="n">
-        <v>0.27799950050612</v>
+        <v>0.273139928143727</v>
       </c>
       <c r="K189" t="n">
-        <v>0.4058792707389353</v>
+        <v>0.3987842950898413</v>
       </c>
       <c r="L189" t="n">
-        <v>1.354242957003769</v>
+        <v>1.383011625389136</v>
       </c>
       <c r="M189" t="n">
-        <v>1.239877772257295</v>
+        <v>1.218204079521022</v>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
@@ -8653,25 +8653,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H191" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3568656343687122</v>
+        <v>0.3824152898970186</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2614367339964585</v>
+        <v>0.2510506951638136</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3816976316348293</v>
+        <v>0.3665340149391678</v>
       </c>
       <c r="L191" t="n">
-        <v>1.452294534740966</v>
+        <v>1.513779884630224</v>
       </c>
       <c r="M191" t="n">
-        <v>1.166007833624205</v>
+        <v>1.119686100430608</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8692,25 +8692,25 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H192" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I192" t="n">
-        <v>0.3262674565776568</v>
+        <v>0.3205827873339375</v>
       </c>
       <c r="J192" t="n">
-        <v>0.273875017651359</v>
+        <v>0.2761858588073424</v>
       </c>
       <c r="K192" t="n">
-        <v>0.3998575257709842</v>
+        <v>0.4032313538587199</v>
       </c>
       <c r="L192" t="n">
-        <v>1.378659895503954</v>
+        <v>1.364979715860533</v>
       </c>
       <c r="M192" t="n">
-        <v>1.221482578725061</v>
+        <v>1.231788930280747</v>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
@@ -8731,25 +8731,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H193" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="I193" t="n">
-        <v>0.4709070616989541</v>
+        <v>0.4769638829642195</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2150784302036772</v>
+        <v>0.2126163077381222</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3140145080973687</v>
+        <v>0.3104198092976584</v>
       </c>
       <c r="L193" t="n">
-        <v>1.726735693194231</v>
+        <v>1.741311458190317</v>
       </c>
       <c r="M193" t="n">
-        <v>0.9592497987084003</v>
+        <v>0.9482687325120249</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8770,25 +8770,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H194" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I194" t="n">
-        <v>0.3903327778896332</v>
+        <v>0.3721308929631649</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2478322041099052</v>
+        <v>0.2552313443239168</v>
       </c>
       <c r="K194" t="n">
-        <v>0.3618350180004616</v>
+        <v>0.3726377627129184</v>
       </c>
       <c r="L194" t="n">
-        <v>1.532833351669361</v>
+        <v>1.489030441602413</v>
       </c>
       <c r="M194" t="n">
-        <v>1.105331630330177</v>
+        <v>1.138331795684669</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8862,25 +8862,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H196" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I196" t="n">
-        <v>0.539486205480623</v>
+        <v>0.526863607546816</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1872007294794216</v>
+        <v>0.1923318668508878</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2733130650399554</v>
+        <v>0.2808045256022961</v>
       </c>
       <c r="L196" t="n">
-        <v>1.891771681481825</v>
+        <v>1.861395348242744</v>
       </c>
       <c r="M196" t="n">
-        <v>0.8349152534782202</v>
+        <v>0.8578001261549595</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8954,25 +8954,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>82.84237720589999</v>
+        <v>82.6086446079</v>
       </c>
       <c r="H198" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I198" t="n">
-        <v>0.5269535385463138</v>
+        <v>0.4972474834810845</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1922953095340188</v>
+        <v>0.2043709416743559</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2807511519196674</v>
+        <v>0.2983815748445596</v>
       </c>
       <c r="L198" t="n">
-        <v>1.861611767558609</v>
+        <v>1.790124025287813</v>
       </c>
       <c r="M198" t="n">
-        <v>0.8576370805217239</v>
+        <v>0.9114943998676274</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -9099,25 +9099,25 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H201" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I201" t="n">
-        <v>0.5378316302871914</v>
+        <v>0.5448970163020987</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1878733210214669</v>
+        <v>0.1850012128853257</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2742950486913417</v>
+        <v>0.2701017708125755</v>
       </c>
       <c r="L201" t="n">
-        <v>1.887789939552916</v>
+        <v>1.904792819718872</v>
       </c>
       <c r="M201" t="n">
-        <v>0.8379150117557425</v>
+        <v>0.8251054094685526</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -9138,25 +9138,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H202" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I202" t="n">
-        <v>0.3655202966250161</v>
+        <v>0.3539679049082303</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2579185786077171</v>
+        <v>0.2626146728015324</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3765611247672669</v>
+        <v>0.3834174222902373</v>
       </c>
       <c r="L202" t="n">
-        <v>1.473122014642315</v>
+        <v>1.445321137014928</v>
       </c>
       <c r="M202" t="n">
-        <v>1.150316860590418</v>
+        <v>1.171261440694835</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9230,25 +9230,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H204" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I204" t="n">
-        <v>0.3592999339712107</v>
+        <v>0.3693048576963665</v>
       </c>
       <c r="J204" t="n">
-        <v>0.260447181312516</v>
+        <v>0.2563801391478185</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3802528847162734</v>
+        <v>0.3743150031558151</v>
       </c>
       <c r="L204" t="n">
-        <v>1.458152686629905</v>
+        <v>1.482229576244914</v>
       </c>
       <c r="M204" t="n">
-        <v>1.161594428653822</v>
+        <v>1.143455420599271</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9322,25 +9322,25 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H206" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I206" t="n">
-        <v>0.3108812347051032</v>
+        <v>0.3032874951404021</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2801295793881694</v>
+        <v>0.2832164653900804</v>
       </c>
       <c r="K206" t="n">
-        <v>0.4089891859067274</v>
+        <v>0.4134960394695175</v>
       </c>
       <c r="L206" t="n">
-        <v>1.341632890022037</v>
+        <v>1.323358524890724</v>
       </c>
       <c r="M206" t="n">
-        <v>1.249377924071235</v>
+        <v>1.263145435639759</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -9361,25 +9361,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H207" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I207" t="n">
-        <v>0.4851699093426061</v>
+        <v>0.4949557335729992</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2092805246574772</v>
+        <v>0.2053025473280491</v>
       </c>
       <c r="K207" t="n">
-        <v>0.3055495659999167</v>
+        <v>0.2997417190989518</v>
       </c>
       <c r="L207" t="n">
-        <v>1.761059294027735</v>
+        <v>1.784608919817949</v>
       </c>
       <c r="M207" t="n">
-        <v>0.9333911399723485</v>
+        <v>0.9156493610830991</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9400,25 +9400,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H208" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I208" t="n">
-        <v>0.3642120761685343</v>
+        <v>0.3716594695403388</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2584503755412462</v>
+        <v>0.2554229798616509</v>
       </c>
       <c r="K208" t="n">
-        <v>0.3773375482902194</v>
+        <v>0.3729175505980103</v>
       </c>
       <c r="L208" t="n">
-        <v>1.469973776795822</v>
+        <v>1.487895959219027</v>
       </c>
       <c r="M208" t="n">
-        <v>1.152688674913958</v>
+        <v>1.139186490182963</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9439,25 +9439,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H209" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I209" t="n">
-        <v>0.423659963453763</v>
+        <v>0.416045441895793</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2342845677017223</v>
+        <v>0.2373799016683768</v>
       </c>
       <c r="K209" t="n">
-        <v>0.3420554688445147</v>
+        <v>0.3465746564358301</v>
       </c>
       <c r="L209" t="n">
-        <v>1.613035359205804</v>
+        <v>1.594710982123209</v>
       </c>
       <c r="M209" t="n">
-        <v>1.044909171949682</v>
+        <v>1.058714361440961</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9478,25 +9478,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H210" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I210" t="n">
-        <v>0.3257941695671346</v>
+        <v>0.3334445586372924</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2740674107450672</v>
+        <v>0.2709574964889055</v>
       </c>
       <c r="K210" t="n">
-        <v>0.4001384196877982</v>
+        <v>0.395597944873802</v>
       </c>
       <c r="L210" t="n">
-        <v>1.377520928389202</v>
+        <v>1.395931620785679</v>
       </c>
       <c r="M210" t="n">
-        <v>1.222340651923</v>
+        <v>1.208470434340519</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9570,25 +9570,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H212" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3573767534074028</v>
+        <v>0.3546382254753915</v>
       </c>
       <c r="J212" t="n">
-        <v>0.261228962029511</v>
+        <v>0.262342184766101</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3813942845630861</v>
+        <v>0.3830195897585075</v>
       </c>
       <c r="L212" t="n">
-        <v>1.453524544785294</v>
+        <v>1.446934266184682</v>
       </c>
       <c r="M212" t="n">
-        <v>1.165081170651619</v>
+        <v>1.170046144056811</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9609,25 +9609,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H213" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4312037035553156</v>
+        <v>0.4347552227892376</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2312180066848311</v>
+        <v>0.2297742996791718</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3375782897598534</v>
+        <v>0.3354704775315908</v>
       </c>
       <c r="L213" t="n">
-        <v>1.6311894004258</v>
+        <v>1.639736145899303</v>
       </c>
       <c r="M213" t="n">
-        <v>1.031232309814347</v>
+        <v>1.024793376569106</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9701,25 +9701,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H215" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3615246805070469</v>
+        <v>0.3606759369079945</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2595428128020135</v>
+        <v>0.2598878305252055</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3789325066909397</v>
+        <v>0.3794362325668</v>
       </c>
       <c r="L215" t="n">
-        <v>1.46350654821208</v>
+        <v>1.461464043290783</v>
       </c>
       <c r="M215" t="n">
-        <v>1.15756094509698</v>
+        <v>1.159099724142416</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9740,25 +9740,25 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H216" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I216" t="n">
-        <v>0.3818234503993121</v>
+        <v>0.3707193366123102</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2512912803254829</v>
+        <v>0.2558051477185731</v>
       </c>
       <c r="K216" t="n">
-        <v>0.366885269275205</v>
+        <v>0.3734755156691167</v>
       </c>
       <c r="L216" t="n">
-        <v>1.512355620473141</v>
+        <v>1.485633525506047</v>
       </c>
       <c r="M216" t="n">
-        <v>1.120759110251654</v>
+        <v>1.140890958824836</v>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
@@ -9779,25 +9779,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H217" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I217" t="n">
-        <v>0.4046583889145403</v>
+        <v>0.4170635157984257</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2420087849940894</v>
+        <v>0.2369660504884448</v>
       </c>
       <c r="K217" t="n">
-        <v>0.3533328260913705</v>
+        <v>0.3459704337131295</v>
       </c>
       <c r="L217" t="n">
-        <v>1.567307992834991</v>
+        <v>1.597160981108407</v>
       </c>
       <c r="M217" t="n">
-        <v>1.079359181073638</v>
+        <v>1.056868585178464</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9871,25 +9871,25 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H219" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I219" t="n">
-        <v>0.5215862817929445</v>
+        <v>0.5130619326861714</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1944771212223803</v>
+        <v>0.1979423037861092</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2839365969846752</v>
+        <v>0.2889957635277194</v>
       </c>
       <c r="L219" t="n">
-        <v>1.848695442363509</v>
+        <v>1.828181561586234</v>
       </c>
       <c r="M219" t="n">
-        <v>0.8673679606518161</v>
+        <v>0.8828226748860469</v>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
@@ -9910,25 +9910,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H220" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3414291565943667</v>
+        <v>0.3377506589265244</v>
       </c>
       <c r="J220" t="n">
-        <v>0.2677117249616395</v>
+        <v>0.26920704921686</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3908591184439937</v>
+        <v>0.3930422918566156</v>
       </c>
       <c r="L220" t="n">
-        <v>1.415146588227094</v>
+        <v>1.406294268636189</v>
       </c>
       <c r="M220" t="n">
-        <v>1.193994293328912</v>
+        <v>1.200663439507196</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9949,25 +9949,25 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H221" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4491832156049809</v>
+        <v>0.4539138042611002</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2239092619491947</v>
+        <v>0.2219862584304471</v>
       </c>
       <c r="K221" t="n">
-        <v>0.3269075224458243</v>
+        <v>0.3240999373084527</v>
       </c>
       <c r="L221" t="n">
-        <v>1.674457169260767</v>
+        <v>1.685841350091753</v>
       </c>
       <c r="M221" t="n">
-        <v>0.9986353082934086</v>
+        <v>0.9900587125997938</v>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
@@ -10041,25 +10041,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H223" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3031532787542833</v>
+        <v>0.3013790941459911</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2832710248966328</v>
+        <v>0.2839922381520362</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4135756963490839</v>
+        <v>0.4146286677019728</v>
       </c>
       <c r="L223" t="n">
-        <v>1.323035532611934</v>
+        <v>1.318765950139946</v>
       </c>
       <c r="M223" t="n">
-        <v>1.263388771038982</v>
+        <v>1.266605382158081</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10080,25 +10080,25 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="H224" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I224" t="n">
-        <v>0.4742479324059415</v>
+        <v>0.4597725555817894</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2137203526805116</v>
+        <v>0.2196046522025246</v>
       </c>
       <c r="K224" t="n">
-        <v>0.3120317149135469</v>
+        <v>0.3206227922156859</v>
       </c>
       <c r="L224" t="n">
-        <v>1.734775512131371</v>
+        <v>1.699940458961054</v>
       </c>
       <c r="M224" t="n">
-        <v>0.9531927729550818</v>
+        <v>0.9794367488232598</v>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
@@ -10119,25 +10119,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H225" t="n">
-        <v>81.4220619284</v>
+        <v>81.5973590224</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3143291389215281</v>
+        <v>0.3279595116162401</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2787279923083219</v>
+        <v>0.2731871903999025</v>
       </c>
       <c r="K225" t="n">
-        <v>0.40694286877015</v>
+        <v>0.3988532979838575</v>
       </c>
       <c r="L225" t="n">
-        <v>1.349930285534734</v>
+        <v>1.382731832832578</v>
       </c>
       <c r="M225" t="n">
-        <v>1.243126845695116</v>
+        <v>1.218414869183565</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10211,25 +10211,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H227" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2936777689137256</v>
+        <v>0.2994793779964219</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2871228581651522</v>
+        <v>0.2847644804892594</v>
       </c>
       <c r="K227" t="n">
-        <v>0.4191993729211222</v>
+        <v>0.4157561415143187</v>
       </c>
       <c r="L227" t="n">
-        <v>1.300232679662299</v>
+        <v>1.314194275503584</v>
       </c>
       <c r="M227" t="n">
-        <v>1.280567947416579</v>
+        <v>1.270049582982097</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10303,25 +10303,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H229" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I229" t="n">
-        <v>0.2995186280694825</v>
+        <v>0.287447703831104</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2847485251750071</v>
+        <v>0.2928786485754842</v>
       </c>
       <c r="K229" t="n">
-        <v>0.4157328467555104</v>
+        <v>0.4196736475934119</v>
       </c>
       <c r="L229" t="n">
-        <v>1.314288730963958</v>
+        <v>1.282016759086724</v>
       </c>
       <c r="M229" t="n">
-        <v>1.269978422280532</v>
+        <v>1.298309593319865</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10395,25 +10395,25 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H231" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3490339127084082</v>
+        <v>0.3519388616389647</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2646203606876389</v>
+        <v>0.2634394871386322</v>
       </c>
       <c r="K231" t="n">
-        <v>0.3863457266039529</v>
+        <v>0.3846216512224031</v>
       </c>
       <c r="L231" t="n">
-        <v>1.433447464729178</v>
+        <v>1.440438236139297</v>
       </c>
       <c r="M231" t="n">
-        <v>1.18020680866687</v>
+        <v>1.1749401126383</v>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -10487,25 +10487,25 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H233" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2948970809628643</v>
+        <v>0.2865618409961695</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2866272028606243</v>
+        <v>0.2950578711494231</v>
       </c>
       <c r="K233" t="n">
-        <v>0.4184757161765114</v>
+        <v>0.4183802878544074</v>
       </c>
       <c r="L233" t="n">
-        <v>1.303166959065104</v>
+        <v>1.278065810842916</v>
       </c>
       <c r="M233" t="n">
-        <v>1.278357324758384</v>
+        <v>1.303553901302676</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -10526,25 +10526,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H234" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4648677562979066</v>
+        <v>0.4803394179938037</v>
       </c>
       <c r="J234" t="n">
-        <v>0.217533432399225</v>
+        <v>0.2112441390269091</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3175988113028684</v>
+        <v>0.3084164429792872</v>
       </c>
       <c r="L234" t="n">
-        <v>1.712202080196588</v>
+        <v>1.749434696960698</v>
       </c>
       <c r="M234" t="n">
-        <v>0.9701991085005435</v>
+        <v>0.9421488600600143</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10565,25 +10565,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H235" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I235" t="n">
-        <v>0.3329726262994505</v>
+        <v>0.3197035877788009</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2711493389026624</v>
+        <v>0.2765432570004874</v>
       </c>
       <c r="K235" t="n">
-        <v>0.3958780347978871</v>
+        <v>0.4037531552207117</v>
       </c>
       <c r="L235" t="n">
-        <v>1.394795913696238</v>
+        <v>1.362863918557114</v>
       </c>
       <c r="M235" t="n">
-        <v>1.209326051505874</v>
+        <v>1.233382926222174</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10604,25 +10604,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H236" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I236" t="n">
-        <v>0.4999351636961523</v>
+        <v>0.5038126631292535</v>
       </c>
       <c r="J236" t="n">
-        <v>0.2032783887414015</v>
+        <v>0.201702169459653</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2967864475624462</v>
+        <v>0.2944851674110934</v>
       </c>
       <c r="L236" t="n">
-        <v>1.796591938650903</v>
+        <v>1.805923156798854</v>
       </c>
       <c r="M236" t="n">
-        <v>0.9066216137866507</v>
+        <v>0.8995916757900524</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10696,25 +10696,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H238" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I238" t="n">
-        <v>0.5696266619012287</v>
+        <v>0.5776870004964406</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1749485114222648</v>
+        <v>0.1716719510177071</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2554248266765066</v>
+        <v>0.2506410484858523</v>
       </c>
       <c r="L238" t="n">
-        <v>1.964304812380193</v>
+        <v>1.983702049975174</v>
       </c>
       <c r="M238" t="n">
-        <v>0.780270360943301</v>
+        <v>0.7656569015389736</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10735,25 +10735,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H239" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2686869412974621</v>
+        <v>0.2659339244027844</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3390301244082435</v>
+        <v>0.3458025459691505</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3922829342942946</v>
+        <v>0.3882635296280652</v>
       </c>
       <c r="L239" t="n">
-        <v>1.198343758186681</v>
+        <v>1.186065302836418</v>
       </c>
       <c r="M239" t="n">
-        <v>1.409373307519025</v>
+        <v>1.425671167535517</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10827,25 +10827,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H241" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I241" t="n">
-        <v>0.2848072543691588</v>
+        <v>0.2869157239197311</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2993741542518691</v>
+        <v>0.2941873191574615</v>
       </c>
       <c r="K241" t="n">
-        <v>0.4158185913789719</v>
+        <v>0.4188969569228074</v>
       </c>
       <c r="L241" t="n">
-        <v>1.270240354486448</v>
+        <v>1.279644128682001</v>
       </c>
       <c r="M241" t="n">
-        <v>1.313941054134579</v>
+        <v>1.301458914395192</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10866,25 +10866,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H242" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I242" t="n">
-        <v>0.41347328817127</v>
+        <v>0.4286456096087005</v>
       </c>
       <c r="J242" t="n">
-        <v>0.2384254926133049</v>
+        <v>0.232257882272886</v>
       </c>
       <c r="K242" t="n">
-        <v>0.3481012192154251</v>
+        <v>0.3390965081184135</v>
       </c>
       <c r="L242" t="n">
-        <v>1.588521083729235</v>
+        <v>1.625033336944515</v>
       </c>
       <c r="M242" t="n">
-        <v>1.06337769705534</v>
+        <v>1.035870154937071</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10905,25 +10905,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H243" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3828303843927898</v>
+        <v>0.3686319626740068</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2508819575639066</v>
+        <v>0.2566536737097533</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3662876580433037</v>
+        <v>0.3747143636162398</v>
       </c>
       <c r="L243" t="n">
-        <v>1.514778811221673</v>
+        <v>1.48061025163826</v>
       </c>
       <c r="M243" t="n">
-        <v>1.118933530735024</v>
+        <v>1.1446753847455</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10944,25 +10944,25 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H244" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I244" t="n">
-        <v>0.4824014803600148</v>
+        <v>0.4851617598620356</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2104059022926769</v>
+        <v>0.2092838374544571</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3071926173473083</v>
+        <v>0.3055544026835073</v>
       </c>
       <c r="L244" t="n">
-        <v>1.754397058427353</v>
+        <v>1.761039682269614</v>
       </c>
       <c r="M244" t="n">
-        <v>0.9384103242253392</v>
+        <v>0.9334059150468785</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -11036,25 +11036,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="H246" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6303607755957814</v>
+        <v>0.6390570159638354</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1502598473187881</v>
+        <v>0.1467247902586035</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2193793770854305</v>
+        <v>0.2142181937775611</v>
       </c>
       <c r="L246" t="n">
-        <v>2.110461703872775</v>
+        <v>2.131389241669067</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6701589190417947</v>
+        <v>0.6543925645533717</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11075,25 +11075,25 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H247" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I247" t="n">
-        <v>0.2437638801938156</v>
+        <v>0.2403551881692335</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4003408547232136</v>
+        <v>0.4087262371036856</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3558952650829708</v>
+        <v>0.3509185747270809</v>
       </c>
       <c r="L247" t="n">
-        <v>1.087186905664418</v>
+        <v>1.071984139234781</v>
       </c>
       <c r="M247" t="n">
-        <v>1.556917829252612</v>
+        <v>1.577097286038138</v>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
@@ -11167,25 +11167,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H249" t="n">
-        <v>85.3697167723</v>
+        <v>85.7298077551</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2488468928364408</v>
+        <v>0.2523193726884894</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3878366436223556</v>
+        <v>0.3792943431863162</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3633164635412036</v>
+        <v>0.3683862841251944</v>
       </c>
       <c r="L249" t="n">
-        <v>1.109857142050526</v>
+        <v>1.125344402190662</v>
       </c>
       <c r="M249" t="n">
-        <v>1.526826394408271</v>
+        <v>1.506269313684143</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11206,25 +11206,25 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H250" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I250" t="n">
-        <v>0.3876623270606671</v>
+        <v>0.4107809688794535</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2489177532273711</v>
+        <v>0.2395199313498156</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3634199197119618</v>
+        <v>0.3496990997707308</v>
       </c>
       <c r="L250" t="n">
-        <v>1.526406900893963</v>
+        <v>1.582042006409091</v>
       </c>
       <c r="M250" t="n">
-        <v>1.110173179394075</v>
+        <v>1.068258893820178</v>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
@@ -11298,25 +11298,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H252" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I252" t="n">
-        <v>0.33743450863452</v>
+        <v>0.3413622708311115</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2693355655957236</v>
+        <v>0.2677389142962961</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3932299257697564</v>
+        <v>0.3908988148725924</v>
       </c>
       <c r="L252" t="n">
-        <v>1.405533451673316</v>
+        <v>1.414985627365927</v>
       </c>
       <c r="M252" t="n">
-        <v>1.201236622556927</v>
+        <v>1.194115557761481</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11443,25 +11443,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H255" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3954744547918461</v>
+        <v>0.3759484622056529</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2457420915480301</v>
+        <v>0.2536794869082712</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3587834536601239</v>
+        <v>0.3703720508860759</v>
       </c>
       <c r="L255" t="n">
-        <v>1.545206818035662</v>
+        <v>1.498217437503035</v>
       </c>
       <c r="M255" t="n">
-        <v>1.096009728304214</v>
+        <v>1.131410511610889</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11482,25 +11482,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H256" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I256" t="n">
-        <v>0.352968778343131</v>
+        <v>0.3732768781011678</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2630208218117354</v>
+        <v>0.2547654967068423</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3840103998451336</v>
+        <v>0.3719576251919898</v>
       </c>
       <c r="L256" t="n">
-        <v>1.442916734874527</v>
+        <v>1.491788259495493</v>
       </c>
       <c r="M256" t="n">
-        <v>1.17307286528034</v>
+        <v>1.136254115312517</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11521,25 +11521,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H257" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I257" t="n">
-        <v>0.43846079948647</v>
+        <v>0.4176235284954314</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2282679676884269</v>
+        <v>0.2367384030506376</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3332712328251032</v>
+        <v>0.345638068453931</v>
       </c>
       <c r="L257" t="n">
-        <v>1.648653631284513</v>
+        <v>1.598508653940225</v>
       </c>
       <c r="M257" t="n">
-        <v>1.018075135890384</v>
+        <v>1.055853277605844</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11560,25 +11560,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H258" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I258" t="n">
-        <v>0.3856787199800646</v>
+        <v>0.3955000768056728</v>
       </c>
       <c r="J258" t="n">
-        <v>0.2497240975690794</v>
+        <v>0.245731676095255</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3645971824508559</v>
+        <v>0.3587682470990722</v>
       </c>
       <c r="L258" t="n">
-        <v>1.52163334239105</v>
+        <v>1.545268477516091</v>
       </c>
       <c r="M258" t="n">
-        <v>1.113769475158094</v>
+        <v>1.095963275384837</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11599,25 +11599,25 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H259" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I259" t="n">
-        <v>0.4028671354006511</v>
+        <v>0.3940719080909748</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2427369368290037</v>
+        <v>0.2463122324833436</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3543959277703453</v>
+        <v>0.3596158594256816</v>
       </c>
       <c r="L259" t="n">
-        <v>1.562997333972298</v>
+        <v>1.541831583698606</v>
       </c>
       <c r="M259" t="n">
-        <v>1.082606738257356</v>
+        <v>1.098552556875712</v>
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
@@ -11638,25 +11638,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H260" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I260" t="n">
-        <v>0.4538998251156979</v>
+        <v>0.4684878092639566</v>
       </c>
       <c r="J260" t="n">
-        <v>0.221991941009879</v>
+        <v>0.2160618661528632</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3241082338744233</v>
+        <v>0.3154503245831803</v>
       </c>
       <c r="L260" t="n">
-        <v>1.685807709221517</v>
+        <v>1.72091375237505</v>
       </c>
       <c r="M260" t="n">
-        <v>0.9900840569040601</v>
+        <v>0.9636359230417699</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11677,25 +11677,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H261" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I261" t="n">
-        <v>0.3350696731117968</v>
+        <v>0.3229639515815958</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2702968808488631</v>
+        <v>0.2752179058611399</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3946334460393401</v>
+        <v>0.4018181425572643</v>
       </c>
       <c r="L261" t="n">
-        <v>1.399842465374731</v>
+        <v>1.370709997302052</v>
       </c>
       <c r="M261" t="n">
-        <v>1.20552408858593</v>
+        <v>1.227471860140684</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11769,25 +11769,25 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H263" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I263" t="n">
-        <v>0.3769103108365015</v>
+        <v>0.3769317513222139</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2532884915298774</v>
+        <v>0.2532797758852789</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3698011976336211</v>
+        <v>0.3697884727925072</v>
       </c>
       <c r="L263" t="n">
-        <v>1.500532130143126</v>
+        <v>1.500583726759149</v>
       </c>
       <c r="M263" t="n">
-        <v>1.129666672223253</v>
+        <v>1.129627800448344</v>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
@@ -11808,25 +11808,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H264" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I264" t="n">
-        <v>0.3068517199340471</v>
+        <v>0.3258796129989894</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2817675935227451</v>
+        <v>0.2740326776426872</v>
       </c>
       <c r="K264" t="n">
-        <v>0.4113806865432078</v>
+        <v>0.4000877093583233</v>
       </c>
       <c r="L264" t="n">
-        <v>1.331935846345349</v>
+        <v>1.377726548355292</v>
       </c>
       <c r="M264" t="n">
-        <v>1.256683467111443</v>
+        <v>1.222185742286385</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11847,25 +11847,25 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H265" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I265" t="n">
-        <v>0.4924525152698823</v>
+        <v>0.4711589029851181</v>
       </c>
       <c r="J265" t="n">
-        <v>0.2063201157439503</v>
+        <v>0.2149760556971064</v>
       </c>
       <c r="K265" t="n">
-        <v>0.3012273689861674</v>
+        <v>0.3138650413177754</v>
       </c>
       <c r="L265" t="n">
-        <v>1.778584914795814</v>
+        <v>1.72734175027313</v>
       </c>
       <c r="M265" t="n">
-        <v>0.9201877162180184</v>
+        <v>0.9587932084090947</v>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
@@ -11886,25 +11886,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H266" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I266" t="n">
-        <v>0.3691937518397617</v>
+        <v>0.3778058122892006</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2564253041301782</v>
+        <v>0.2529244665491055</v>
       </c>
       <c r="K266" t="n">
-        <v>0.3743809440300602</v>
+        <v>0.369269721161694</v>
       </c>
       <c r="L266" t="n">
-        <v>1.481962199549345</v>
+        <v>1.502687158029296</v>
       </c>
       <c r="M266" t="n">
-        <v>1.143656856420595</v>
+        <v>1.12804312080901</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11978,25 +11978,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H268" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5171210142734846</v>
+        <v>0.5328954544774344</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1962922706205347</v>
+        <v>0.1898798965538885</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2865867151059807</v>
+        <v>0.2772246489686772</v>
       </c>
       <c r="L268" t="n">
-        <v>1.837949757926434</v>
+        <v>1.87591101240098</v>
       </c>
       <c r="M268" t="n">
-        <v>0.8754635269675848</v>
+        <v>0.8468643386303425</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -12017,25 +12017,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H269" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2849031419220054</v>
+        <v>0.2797660076388494</v>
       </c>
       <c r="J269" t="n">
-        <v>0.2991382708718667</v>
+        <v>0.3117756212084303</v>
       </c>
       <c r="K269" t="n">
-        <v>0.4159585872061279</v>
+        <v>0.4084583711527202</v>
       </c>
       <c r="L269" t="n">
-        <v>1.270668012972144</v>
+        <v>1.247756394069268</v>
       </c>
       <c r="M269" t="n">
-        <v>1.313373399821728</v>
+        <v>1.343785234778011</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -12056,25 +12056,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>82.2381993824</v>
+        <v>82.7716245167</v>
       </c>
       <c r="H270" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I270" t="n">
-        <v>0.5045386776620164</v>
+        <v>0.5033009471864067</v>
       </c>
       <c r="J270" t="n">
-        <v>0.2014070416008063</v>
+        <v>0.2019101840705664</v>
       </c>
       <c r="K270" t="n">
-        <v>0.2940542807371773</v>
+        <v>0.294788868743027</v>
       </c>
       <c r="L270" t="n">
-        <v>1.807670313723227</v>
+        <v>1.804691710302247</v>
       </c>
       <c r="M270" t="n">
-        <v>0.8982754055395963</v>
+        <v>0.9005194209547263</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12148,25 +12148,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H272" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3437221292112088</v>
+        <v>0.3260006259669065</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2667796222718664</v>
+        <v>0.2739834853793063</v>
       </c>
       <c r="K272" t="n">
-        <v>0.3894982485169249</v>
+        <v>0.4000158886537872</v>
       </c>
       <c r="L272" t="n">
-        <v>1.420664636150551</v>
+        <v>1.378017766554507</v>
       </c>
       <c r="M272" t="n">
-        <v>1.189837115332524</v>
+        <v>1.221966344791706</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12240,25 +12240,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H274" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I274" t="n">
-        <v>0.3994213402017121</v>
+        <v>0.3965783813541587</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2441376665846699</v>
+        <v>0.2452933409129436</v>
       </c>
       <c r="K274" t="n">
-        <v>0.3564409932136181</v>
+        <v>0.3581282777328977</v>
       </c>
       <c r="L274" t="n">
-        <v>1.554705013818754</v>
+        <v>1.547863421795374</v>
       </c>
       <c r="M274" t="n">
-        <v>1.088853992967628</v>
+        <v>1.094008300471728</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12332,25 +12332,25 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H276" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I276" t="n">
-        <v>0.3593888497235994</v>
+        <v>0.3572580612368796</v>
       </c>
       <c r="J276" t="n">
-        <v>0.2604110366977238</v>
+        <v>0.2612772108793172</v>
       </c>
       <c r="K276" t="n">
-        <v>0.3802001135786768</v>
+        <v>0.3814647278838031</v>
       </c>
       <c r="L276" t="n">
-        <v>1.458366662749475</v>
+        <v>1.453238911594442</v>
       </c>
       <c r="M276" t="n">
-        <v>1.161433223671848</v>
+        <v>1.165296360521755</v>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
@@ -12371,25 +12371,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H277" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4318440025631464</v>
+        <v>0.4338662832961238</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2309577225353063</v>
+        <v>0.2301356571966977</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3371982749015472</v>
+        <v>0.3359980595071786</v>
       </c>
       <c r="L277" t="n">
-        <v>1.632730282590986</v>
+        <v>1.63759690939555</v>
       </c>
       <c r="M277" t="n">
-        <v>1.030071442507466</v>
+        <v>1.026405031097272</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12463,25 +12463,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H279" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I279" t="n">
-        <v>0.3964082951637331</v>
+        <v>0.4100436064015432</v>
       </c>
       <c r="J279" t="n">
-        <v>0.2453624816407589</v>
+        <v>0.2398196721944946</v>
       </c>
       <c r="K279" t="n">
-        <v>0.358229223195508</v>
+        <v>0.3501367214039622</v>
       </c>
       <c r="L279" t="n">
-        <v>1.547454108686707</v>
+        <v>1.580267540608592</v>
       </c>
       <c r="M279" t="n">
-        <v>1.094316668117785</v>
+        <v>1.069595737987446</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12555,25 +12555,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H281" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I281" t="n">
-        <v>0.3290987266495491</v>
+        <v>0.3376596745580703</v>
       </c>
       <c r="J281" t="n">
-        <v>0.2727240948579068</v>
+        <v>0.2692440347324918</v>
       </c>
       <c r="K281" t="n">
-        <v>0.398177178492544</v>
+        <v>0.393096290709438</v>
       </c>
       <c r="L281" t="n">
-        <v>1.385473358441191</v>
+        <v>1.406075314383649</v>
       </c>
       <c r="M281" t="n">
-        <v>1.216349463066265</v>
+        <v>1.200828394906913</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12594,25 +12594,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H282" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I282" t="n">
-        <v>0.4176169400102338</v>
+        <v>0.3956149018998014</v>
       </c>
       <c r="J282" t="n">
-        <v>0.2367410812966529</v>
+        <v>0.245684999227723</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3456419786931132</v>
+        <v>0.3587000988724756</v>
       </c>
       <c r="L282" t="n">
-        <v>1.598492798723815</v>
+        <v>1.54554480457188</v>
       </c>
       <c r="M282" t="n">
-        <v>1.055865222583072</v>
+        <v>1.095755096555645</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12686,25 +12686,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H284" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I284" t="n">
-        <v>0.3128385430251555</v>
+        <v>0.3108858349538474</v>
       </c>
       <c r="J284" t="n">
-        <v>0.2793339255995302</v>
+        <v>0.2801277093683547</v>
       </c>
       <c r="K284" t="n">
-        <v>0.4078275313753141</v>
+        <v>0.4089864556777979</v>
       </c>
       <c r="L284" t="n">
-        <v>1.346343160450781</v>
+        <v>1.34164396053934</v>
       </c>
       <c r="M284" t="n">
-        <v>1.245829308173905</v>
+        <v>1.249369583782862</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12725,25 +12725,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H285" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I285" t="n">
-        <v>0.4857257138204187</v>
+        <v>0.4877400109507327</v>
       </c>
       <c r="J285" t="n">
-        <v>0.2090545878778786</v>
+        <v>0.2082357679062062</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3052196983017028</v>
+        <v>0.3040242211430611</v>
       </c>
       <c r="L285" t="n">
-        <v>1.762396839762959</v>
+        <v>1.767244253995259</v>
       </c>
       <c r="M285" t="n">
-        <v>0.9323834619353386</v>
+        <v>0.9287315248616799</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12764,25 +12764,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H286" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I286" t="n">
-        <v>0.3757375609003138</v>
+        <v>0.3617048098641317</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2537652191462139</v>
+        <v>0.2594695894861253</v>
       </c>
       <c r="K286" t="n">
-        <v>0.3704972199534723</v>
+        <v>0.378825600649743</v>
       </c>
       <c r="L286" t="n">
-        <v>1.497709902654414</v>
+        <v>1.463940030242138</v>
       </c>
       <c r="M286" t="n">
-        <v>1.131792877392114</v>
+        <v>1.157234369108119</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12803,25 +12803,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H287" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I287" t="n">
-        <v>0.4139929492110553</v>
+        <v>0.4289395873850125</v>
       </c>
       <c r="J287" t="n">
-        <v>0.238214248288189</v>
+        <v>0.2321383791117835</v>
       </c>
       <c r="K287" t="n">
-        <v>0.3477928025007558</v>
+        <v>0.338922033503204</v>
       </c>
       <c r="L287" t="n">
-        <v>1.589771650133922</v>
+        <v>1.625740795658241</v>
       </c>
       <c r="M287" t="n">
-        <v>1.062435547365323</v>
+        <v>1.035337170838555</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12842,25 +12842,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H288" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I288" t="n">
-        <v>0.5241083140377742</v>
+        <v>0.5156627847413185</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1934519048626934</v>
+        <v>0.1968850468531225</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2824397810995323</v>
+        <v>0.2874521684055589</v>
       </c>
       <c r="L288" t="n">
-        <v>1.854764723212855</v>
+        <v>1.834440522629515</v>
       </c>
       <c r="M288" t="n">
-        <v>0.8627954956876125</v>
+        <v>0.8781073089649264</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12881,25 +12881,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H289" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2825965031035832</v>
+        <v>0.2854877674587134</v>
       </c>
       <c r="J289" t="n">
-        <v>0.3048126023651854</v>
+        <v>0.297700092051565</v>
       </c>
       <c r="K289" t="n">
-        <v>0.4125908945312314</v>
+        <v>0.4168121404897216</v>
       </c>
       <c r="L289" t="n">
-        <v>1.260380403841981</v>
+        <v>1.273275442865862</v>
       </c>
       <c r="M289" t="n">
-        <v>1.327028701626788</v>
+        <v>1.309912416644416</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12920,25 +12920,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="H290" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I290" t="n">
-        <v>0.5115360669842239</v>
+        <v>0.4860295032822362</v>
       </c>
       <c r="J290" t="n">
-        <v>0.1985625743966569</v>
+        <v>0.2089310962267333</v>
       </c>
       <c r="K290" t="n">
-        <v>0.2899013586191191</v>
+        <v>0.3050394004910305</v>
       </c>
       <c r="L290" t="n">
-        <v>1.824509559571791</v>
+        <v>1.763127910337739</v>
       </c>
       <c r="M290" t="n">
-        <v>0.8855890818090899</v>
+        <v>0.9318326891712303</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12959,25 +12959,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H291" t="n">
-        <v>82.4266424054</v>
+        <v>82.3065248857</v>
       </c>
       <c r="I291" t="n">
-        <v>0.2870609336110199</v>
+        <v>0.3060316475686235</v>
       </c>
       <c r="J291" t="n">
-        <v>0.293830103316891</v>
+        <v>0.2821009562729173</v>
       </c>
       <c r="K291" t="n">
-        <v>0.4191089630720891</v>
+        <v>0.4118673961584592</v>
       </c>
       <c r="L291" t="n">
-        <v>1.280291763905149</v>
+        <v>1.32996233886433</v>
       </c>
       <c r="M291" t="n">
-        <v>1.300599273022762</v>
+        <v>1.258170264977211</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -12998,25 +12998,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H292" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I292" t="n">
-        <v>0.4547307875847788</v>
+        <v>0.4721809444331673</v>
       </c>
       <c r="J292" t="n">
-        <v>0.2216541513883013</v>
+        <v>0.2145605916938345</v>
       </c>
       <c r="K292" t="n">
-        <v>0.3236150610269198</v>
+        <v>0.3132584638729983</v>
       </c>
       <c r="L292" t="n">
-        <v>1.687807423781256</v>
+        <v>1.7298012971725</v>
       </c>
       <c r="M292" t="n">
-        <v>0.9885775151918237</v>
+        <v>0.9569402389545016</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13037,25 +13037,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H293" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I293" t="n">
-        <v>0.3387483639278444</v>
+        <v>0.3236978077167267</v>
       </c>
       <c r="J293" t="n">
-        <v>0.268801478078112</v>
+        <v>0.2749195903590542</v>
       </c>
       <c r="K293" t="n">
-        <v>0.3924501579940435</v>
+        <v>0.4013826019242192</v>
       </c>
       <c r="L293" t="n">
-        <v>1.408695249777577</v>
+        <v>1.372476025074399</v>
       </c>
       <c r="M293" t="n">
-        <v>1.19885459222838</v>
+        <v>1.226141373001382</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13076,25 +13076,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H294" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I294" t="n">
-        <v>0.412966601659781</v>
+        <v>0.4307152052889496</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2386314627399264</v>
+        <v>0.2314165832158741</v>
       </c>
       <c r="K294" t="n">
-        <v>0.3484019356002925</v>
+        <v>0.3378682114951762</v>
       </c>
       <c r="L294" t="n">
-        <v>1.587301740579635</v>
+        <v>1.630013827362025</v>
       </c>
       <c r="M294" t="n">
-        <v>1.064296323820072</v>
+        <v>1.032117961142799</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13168,25 +13168,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H296" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I296" t="n">
-        <v>0.4473920777071227</v>
+        <v>0.4538814869829336</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2246373667857224</v>
+        <v>0.2219993955353929</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3279705555071548</v>
+        <v>0.3241191174816736</v>
       </c>
       <c r="L296" t="n">
-        <v>1.670146788628523</v>
+        <v>1.685763578430474</v>
       </c>
       <c r="M296" t="n">
-        <v>1.001882655864322</v>
+        <v>0.9901173040878521</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13207,25 +13207,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H297" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I297" t="n">
-        <v>0.3456870186394496</v>
+        <v>0.3406774700575844</v>
       </c>
       <c r="J297" t="n">
-        <v>0.265980886731931</v>
+        <v>0.2680172885944779</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3883320946286193</v>
+        <v>0.3913052413479377</v>
       </c>
       <c r="L297" t="n">
-        <v>1.425393150546968</v>
+        <v>1.413337651520691</v>
       </c>
       <c r="M297" t="n">
-        <v>1.186274754824412</v>
+        <v>1.195357107131372</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13246,25 +13246,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H298" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I298" t="n">
-        <v>0.5173365587301498</v>
+        <v>0.5282286057092275</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1962046509227033</v>
+        <v>0.1917769895490945</v>
       </c>
       <c r="K298" t="n">
-        <v>0.2864587903471468</v>
+        <v>0.279994404741678</v>
       </c>
       <c r="L298" t="n">
-        <v>1.838468466537596</v>
+        <v>1.86468022186936</v>
       </c>
       <c r="M298" t="n">
-        <v>0.8750727431152567</v>
+        <v>0.8553253733889616</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13338,25 +13338,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H300" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I300" t="n">
-        <v>0.4734596914586929</v>
+        <v>0.4711772112245699</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2140407758297996</v>
+        <v>0.2149686133233456</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3124995327115075</v>
+        <v>0.3138541754520845</v>
       </c>
       <c r="L300" t="n">
-        <v>1.732878607087586</v>
+        <v>1.727385809125794</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9546218602009064</v>
+        <v>0.9587600154221212</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13377,25 +13377,25 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H301" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I301" t="n">
-        <v>0.321431189672318</v>
+        <v>0.3246155233536228</v>
       </c>
       <c r="J301" t="n">
-        <v>0.2758409798080008</v>
+        <v>0.2745465352221046</v>
       </c>
       <c r="K301" t="n">
-        <v>0.4027278305196811</v>
+        <v>0.4008379414242727</v>
       </c>
       <c r="L301" t="n">
-        <v>1.367021399536635</v>
+        <v>1.374684511485141</v>
       </c>
       <c r="M301" t="n">
-        <v>1.230250769943684</v>
+        <v>1.224477547090586</v>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
@@ -13469,25 +13469,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H303" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I303" t="n">
-        <v>0.431750817144845</v>
+        <v>0.4144640558123796</v>
       </c>
       <c r="J303" t="n">
-        <v>0.2309956027866484</v>
+        <v>0.2380227415396831</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3372535800685066</v>
+        <v>0.3475132026479374</v>
       </c>
       <c r="L303" t="n">
-        <v>1.632506031503042</v>
+        <v>1.590905370085076</v>
       </c>
       <c r="M303" t="n">
-        <v>1.030240388428452</v>
+        <v>1.061581427266987</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13508,25 +13508,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H304" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I304" t="n">
-        <v>0.4301161619083203</v>
+        <v>0.4354568208450325</v>
       </c>
       <c r="J304" t="n">
-        <v>0.2316600967852357</v>
+        <v>0.2294890972174665</v>
       </c>
       <c r="K304" t="n">
-        <v>0.3382237413064441</v>
+        <v>0.3350540819375011</v>
       </c>
       <c r="L304" t="n">
-        <v>1.628572227031405</v>
+        <v>1.641424544472598</v>
       </c>
       <c r="M304" t="n">
-        <v>1.033204031662151</v>
+        <v>1.0235213735899</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13600,25 +13600,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H306" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I306" t="n">
-        <v>0.5800091106244587</v>
+        <v>0.5917061083664296</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1707280038111956</v>
+        <v>0.1659731266803132</v>
       </c>
       <c r="K306" t="n">
-        <v>0.2492628855643456</v>
+        <v>0.2423207649532572</v>
       </c>
       <c r="L306" t="n">
-        <v>1.989290217437722</v>
+        <v>2.017439090052546</v>
       </c>
       <c r="M306" t="n">
-        <v>0.7614468969979326</v>
+        <v>0.7402401449941967</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13639,25 +13639,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H307" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2631016347540681</v>
+        <v>0.2588881538997062</v>
       </c>
       <c r="J307" t="n">
-        <v>0.3527699785049925</v>
+        <v>0.3631351414067225</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3841283867409394</v>
+        <v>0.3779767046935712</v>
       </c>
       <c r="L307" t="n">
-        <v>1.173433291003144</v>
+        <v>1.15464116639269</v>
       </c>
       <c r="M307" t="n">
-        <v>1.442438322255917</v>
+        <v>1.467382128913739</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13678,25 +13678,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>83.94983366220001</v>
+        <v>84.3819655962</v>
       </c>
       <c r="H308" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I308" t="n">
-        <v>0.5676955434604399</v>
+        <v>0.5627805827043603</v>
       </c>
       <c r="J308" t="n">
-        <v>0.1757335189185204</v>
+        <v>0.177731470445382</v>
       </c>
       <c r="K308" t="n">
-        <v>0.2565709376210397</v>
+        <v>0.2594879468502577</v>
       </c>
       <c r="L308" t="n">
-        <v>1.95965756800236</v>
+        <v>1.947829694963338</v>
       </c>
       <c r="M308" t="n">
-        <v>0.7837714943766008</v>
+        <v>0.7926823581864038</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13770,25 +13770,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H310" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I310" t="n">
-        <v>0.3543107740062601</v>
+        <v>0.3548506920011006</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2624752951194064</v>
+        <v>0.2622558162597152</v>
       </c>
       <c r="K310" t="n">
-        <v>0.3832139308743334</v>
+        <v>0.3828934917391842</v>
       </c>
       <c r="L310" t="n">
-        <v>1.446146252893114</v>
+        <v>1.447445567742486</v>
       </c>
       <c r="M310" t="n">
-        <v>1.170639816232553</v>
+        <v>1.16966094051833</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13862,25 +13862,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H312" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I312" t="n">
-        <v>0.3870706818961531</v>
+        <v>0.3766361405589924</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2491582593918077</v>
+        <v>0.2533999428621981</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3637710587120392</v>
+        <v>0.3699639165788093</v>
       </c>
       <c r="L312" t="n">
-        <v>1.524983104400499</v>
+        <v>1.499872338255787</v>
       </c>
       <c r="M312" t="n">
-        <v>1.111245836887462</v>
+        <v>1.130163745165404</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -14007,25 +14007,25 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H315" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I315" t="n">
-        <v>0.3338130982268934</v>
+        <v>0.3399212660845867</v>
       </c>
       <c r="J315" t="n">
-        <v>0.2708076836476043</v>
+        <v>0.2683246885835013</v>
       </c>
       <c r="K315" t="n">
-        <v>0.3953792181255023</v>
+        <v>0.3917540453319119</v>
       </c>
       <c r="L315" t="n">
-        <v>1.396818512806183</v>
+        <v>1.411517843585672</v>
       </c>
       <c r="M315" t="n">
-        <v>1.207802269068315</v>
+        <v>1.196728111082416</v>
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
@@ -14046,25 +14046,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H316" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I316" t="n">
-        <v>0.4122455702291606</v>
+        <v>0.3931071469361127</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2389245649474957</v>
+        <v>0.2467044118145883</v>
       </c>
       <c r="K316" t="n">
-        <v>0.3488298648233437</v>
+        <v>0.360188441249299</v>
       </c>
       <c r="L316" t="n">
-        <v>1.585566575510825</v>
+        <v>1.539509882057637</v>
       </c>
       <c r="M316" t="n">
-        <v>1.065603559665831</v>
+        <v>1.100301676693064</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -14085,25 +14085,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H317" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I317" t="n">
-        <v>0.3755854563159285</v>
+        <v>0.3950691799949885</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2538270502780778</v>
+        <v>0.2459068374004112</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3705874934059936</v>
+        <v>0.3590239826046003</v>
       </c>
       <c r="L317" t="n">
-        <v>1.497343862353779</v>
+        <v>1.544231522589566</v>
       </c>
       <c r="M317" t="n">
-        <v>1.132068644240227</v>
+        <v>1.096744494805834</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -14124,25 +14124,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H318" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I318" t="n">
-        <v>0.3081018695727902</v>
+        <v>0.308640893312275</v>
       </c>
       <c r="J318" t="n">
-        <v>0.2812594026126869</v>
+        <v>0.281040287271433</v>
       </c>
       <c r="K318" t="n">
-        <v>0.4106387278145229</v>
+        <v>0.4103188194162921</v>
       </c>
       <c r="L318" t="n">
-        <v>1.334944336532894</v>
+        <v>1.336241499353117</v>
       </c>
       <c r="M318" t="n">
-        <v>1.254416935652584</v>
+        <v>1.253439681230591</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14216,25 +14216,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="H320" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I320" t="n">
-        <v>0.3705621059731838</v>
+        <v>0.359284226001968</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2558690626125269</v>
+        <v>0.2604535666658666</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3735688314142892</v>
+        <v>0.3802622073321653</v>
       </c>
       <c r="L320" t="n">
-        <v>1.485255149333841</v>
+        <v>1.458114885338069</v>
       </c>
       <c r="M320" t="n">
-        <v>1.14117601925187</v>
+        <v>1.161622907329765</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14255,25 +14255,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H321" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I321" t="n">
-        <v>0.4191636363487747</v>
+        <v>0.431414336992422</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2361123429476525</v>
+        <v>0.2311323833364138</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3447240207035727</v>
+        <v>0.3374532796711642</v>
       </c>
       <c r="L321" t="n">
-        <v>1.602214929749897</v>
+        <v>1.63169629064843</v>
       </c>
       <c r="M321" t="n">
-        <v>1.05306104954653</v>
+        <v>1.030850429680406</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14347,25 +14347,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H323" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I323" t="n">
-        <v>0.2844214789846832</v>
+        <v>0.2863440592519716</v>
       </c>
       <c r="J323" t="n">
-        <v>0.3003231616976793</v>
+        <v>0.2955936142401498</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4152553593176375</v>
+        <v>0.4180623265078786</v>
       </c>
       <c r="L323" t="n">
-        <v>1.268519796271687</v>
+        <v>1.277094504263793</v>
       </c>
       <c r="M323" t="n">
-        <v>1.316224844410675</v>
+        <v>1.304843169228328</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14439,25 +14439,25 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H325" t="n">
-        <v>82.2777160647</v>
+        <v>82.2358535779</v>
       </c>
       <c r="I325" t="n">
-        <v>0.2888475313001621</v>
+        <v>0.308179966246156</v>
       </c>
       <c r="J325" t="n">
-        <v>0.2894350730016013</v>
+        <v>0.2812276559974975</v>
       </c>
       <c r="K325" t="n">
-        <v>0.4217173956982366</v>
+        <v>0.4105923777563464</v>
       </c>
       <c r="L325" t="n">
-        <v>1.288259989598723</v>
+        <v>1.335132276494815</v>
       </c>
       <c r="M325" t="n">
-        <v>1.29002261470304</v>
+        <v>1.254275345748839</v>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
@@ -14531,25 +14531,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H327" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I327" t="n">
-        <v>0.3613939804521478</v>
+        <v>0.3725642693637255</v>
       </c>
       <c r="J327" t="n">
-        <v>0.259595942905631</v>
+        <v>0.2550551750553962</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3790100766422212</v>
+        <v>0.3723805555808784</v>
       </c>
       <c r="L327" t="n">
-        <v>1.463192017998665</v>
+        <v>1.490073363672055</v>
       </c>
       <c r="M327" t="n">
-        <v>1.157797905359114</v>
+        <v>1.137546080747067</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14570,25 +14570,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H328" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I328" t="n">
-        <v>0.4994729257290225</v>
+        <v>0.4921076219038064</v>
       </c>
       <c r="J328" t="n">
-        <v>0.2034662903540559</v>
+        <v>0.2064603162992657</v>
       </c>
       <c r="K328" t="n">
-        <v>0.2970607839169216</v>
+        <v>0.3014320617969279</v>
       </c>
       <c r="L328" t="n">
-        <v>1.795479561103989</v>
+        <v>1.777754927508347</v>
       </c>
       <c r="M328" t="n">
-        <v>0.9074596549790894</v>
+        <v>0.9208130106947251</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14609,25 +14609,25 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H329" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I329" t="n">
-        <v>0.2971033239524602</v>
+        <v>0.3033940222987805</v>
       </c>
       <c r="J329" t="n">
-        <v>0.2857303561168861</v>
+        <v>0.2831731616671624</v>
       </c>
       <c r="K329" t="n">
-        <v>0.4171663199306536</v>
+        <v>0.4134328160340571</v>
       </c>
       <c r="L329" t="n">
-        <v>1.308476291788034</v>
+        <v>1.323614882930399</v>
       </c>
       <c r="M329" t="n">
-        <v>1.274357388281312</v>
+        <v>1.262952301035544</v>
       </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
@@ -14648,25 +14648,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H330" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4556807564245457</v>
+        <v>0.4353573485602609</v>
       </c>
       <c r="J330" t="n">
-        <v>0.2212679851932741</v>
+        <v>0.229529533105585</v>
       </c>
       <c r="K330" t="n">
-        <v>0.3230512583821802</v>
+        <v>0.335113118334154</v>
       </c>
       <c r="L330" t="n">
-        <v>1.690093527655817</v>
+        <v>1.641185164014937</v>
       </c>
       <c r="M330" t="n">
-        <v>0.9868552139620026</v>
+        <v>1.023701717650909</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14687,25 +14687,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H331" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3366030076205897</v>
+        <v>0.3558102622132335</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2696735741379717</v>
+        <v>0.2618657470677913</v>
       </c>
       <c r="K331" t="n">
-        <v>0.3937234182414386</v>
+        <v>0.3823239907189753</v>
       </c>
       <c r="L331" t="n">
-        <v>1.403532441103208</v>
+        <v>1.449754777358676</v>
       </c>
       <c r="M331" t="n">
-        <v>1.202744140655354</v>
+        <v>1.167921231922349</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14779,25 +14779,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H333" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I333" t="n">
-        <v>0.4486866964313879</v>
+        <v>0.4485585719032356</v>
       </c>
       <c r="J333" t="n">
-        <v>0.2241110990116309</v>
+        <v>0.2241631821531563</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3272022045569811</v>
+        <v>0.3272782459436082</v>
       </c>
       <c r="L333" t="n">
-        <v>1.673262293851145</v>
+        <v>1.672953961653315</v>
       </c>
       <c r="M333" t="n">
-        <v>0.9995355015918739</v>
+        <v>0.999767792403077</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14818,25 +14818,25 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H334" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I334" t="n">
-        <v>0.4126891540637786</v>
+        <v>0.4002969463228046</v>
       </c>
       <c r="J334" t="n">
-        <v>0.2387442463155372</v>
+        <v>0.2437817291370713</v>
       </c>
       <c r="K334" t="n">
-        <v>0.3485665996206843</v>
+        <v>0.3559213245401241</v>
       </c>
       <c r="L334" t="n">
-        <v>1.58663406181202</v>
+        <v>1.556812163508538</v>
       </c>
       <c r="M334" t="n">
-        <v>1.064799338567296</v>
+        <v>1.087266511951338</v>
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
@@ -14857,25 +14857,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H335" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I335" t="n">
-        <v>0.3783991424182299</v>
+        <v>0.3908774272373813</v>
       </c>
       <c r="J335" t="n">
-        <v>0.2526832754397439</v>
+        <v>0.2476108019360239</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3689175821420262</v>
+        <v>0.3615117708265949</v>
       </c>
       <c r="L335" t="n">
-        <v>1.504115009396716</v>
+        <v>1.534144052538739</v>
       </c>
       <c r="M335" t="n">
-        <v>1.126967408461258</v>
+        <v>1.104344176634666</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14896,25 +14896,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H336" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I336" t="n">
-        <v>0.562503450540014</v>
+        <v>0.5563634395744941</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1778441257967422</v>
+        <v>0.1803400652136203</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2596524236632437</v>
+        <v>0.2632964952118856</v>
       </c>
       <c r="L336" t="n">
-        <v>1.947162775283286</v>
+        <v>1.932386813935368</v>
       </c>
       <c r="M336" t="n">
-        <v>0.7931848010534704</v>
+        <v>0.8043166908527466</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14988,25 +14988,25 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="H338" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I338" t="n">
-        <v>0.5500747738708186</v>
+        <v>0.5269358719105786</v>
       </c>
       <c r="J338" t="n">
-        <v>0.182896433385846</v>
+        <v>0.1923024910932608</v>
       </c>
       <c r="K338" t="n">
-        <v>0.2670287927433352</v>
+        <v>0.2807616369961607</v>
       </c>
       <c r="L338" t="n">
-        <v>1.917253114355791</v>
+        <v>1.861569252727896</v>
       </c>
       <c r="M338" t="n">
-        <v>0.8157180929008734</v>
+        <v>0.8576691102759431</v>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
@@ -15027,25 +15027,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H339" t="n">
-        <v>83.46870250889999</v>
+        <v>83.4086508927</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2741315800712552</v>
+        <v>0.2825666981171338</v>
       </c>
       <c r="J339" t="n">
-        <v>0.3256363130247122</v>
+        <v>0.3048859226318508</v>
       </c>
       <c r="K339" t="n">
-        <v>0.4002321069040325</v>
+        <v>0.4125473792510154</v>
       </c>
       <c r="L339" t="n">
-        <v>1.222626847117798</v>
+        <v>1.260247473602417</v>
       </c>
       <c r="M339" t="n">
-        <v>1.377141045978169</v>
+        <v>1.327205147146568</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15066,25 +15066,25 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H340" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I340" t="n">
-        <v>0.4630102171567082</v>
+        <v>0.467729088737192</v>
       </c>
       <c r="J340" t="n">
-        <v>0.2182885296110942</v>
+        <v>0.2163702891312228</v>
       </c>
       <c r="K340" t="n">
-        <v>0.3187012532321976</v>
+        <v>0.3159006221315853</v>
       </c>
       <c r="L340" t="n">
-        <v>1.707731904702322</v>
+        <v>1.719087888343161</v>
       </c>
       <c r="M340" t="n">
-        <v>0.9735668420654803</v>
+        <v>0.9650114895252535</v>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
@@ -15105,25 +15105,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H341" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I341" t="n">
-        <v>0.3272546311385156</v>
+        <v>0.3236049690727401</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2734737271794653</v>
+        <v>0.2749573296452277</v>
       </c>
       <c r="K341" t="n">
-        <v>0.3992716416820193</v>
+        <v>0.4014377012820323</v>
       </c>
       <c r="L341" t="n">
-        <v>1.381035535097566</v>
+        <v>1.372252608500252</v>
       </c>
       <c r="M341" t="n">
-        <v>1.219692823220415</v>
+        <v>1.226309690217715</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15144,25 +15144,25 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H342" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I342" t="n">
-        <v>0.4197340833118628</v>
+        <v>0.4115123111451994</v>
       </c>
       <c r="J342" t="n">
-        <v>0.2358804539382671</v>
+        <v>0.2392226377458539</v>
       </c>
       <c r="K342" t="n">
-        <v>0.34438546274987</v>
+        <v>0.3492650511089466</v>
       </c>
       <c r="L342" t="n">
-        <v>1.603587712685459</v>
+        <v>1.583801984544545</v>
       </c>
       <c r="M342" t="n">
-        <v>1.052026824564671</v>
+        <v>1.066932964346508</v>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
@@ -15183,25 +15183,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H343" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I343" t="n">
-        <v>0.3686604525390073</v>
+        <v>0.3776201399298283</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2566420924638181</v>
+        <v>0.2529999431179559</v>
       </c>
       <c r="K343" t="n">
-        <v>0.3746974549971745</v>
+        <v>0.3693799169522157</v>
       </c>
       <c r="L343" t="n">
-        <v>1.480678812614196</v>
+        <v>1.502240336741701</v>
       </c>
       <c r="M343" t="n">
-        <v>1.144623732388629</v>
+        <v>1.128379746306083</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15222,25 +15222,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H344" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I344" t="n">
-        <v>0.3147115472392008</v>
+        <v>0.3252105357046846</v>
       </c>
       <c r="J344" t="n">
-        <v>0.2785725417726826</v>
+        <v>0.2743046602826485</v>
       </c>
       <c r="K344" t="n">
-        <v>0.4067159109881166</v>
+        <v>0.4004848040126669</v>
       </c>
       <c r="L344" t="n">
-        <v>1.350850552705719</v>
+        <v>1.376116411126721</v>
       </c>
       <c r="M344" t="n">
-        <v>1.242433536306164</v>
+        <v>1.223398784860612</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15261,25 +15261,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H345" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I345" t="n">
-        <v>0.4836366437740933</v>
+        <v>0.4718890461079019</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2099038033438645</v>
+        <v>0.2146792495496333</v>
       </c>
       <c r="K345" t="n">
-        <v>0.3064595528820421</v>
+        <v>0.3134317043424646</v>
       </c>
       <c r="L345" t="n">
-        <v>1.757369484204322</v>
+        <v>1.72909884266617</v>
       </c>
       <c r="M345" t="n">
-        <v>0.9361709629136357</v>
+        <v>0.9574694529913645</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15353,25 +15353,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H347" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I347" t="n">
-        <v>0.4119652551726593</v>
+        <v>0.4134571981158399</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2390385141574556</v>
+        <v>0.2384320332862439</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3489962306698851</v>
+        <v>0.3481107685979161</v>
       </c>
       <c r="L347" t="n">
-        <v>1.584891996187863</v>
+        <v>1.588482362945436</v>
       </c>
       <c r="M347" t="n">
-        <v>1.066111773142252</v>
+        <v>1.063406868456648</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15445,25 +15445,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H349" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="I349" t="n">
-        <v>0.2818748504035559</v>
+        <v>0.2800214402503072</v>
       </c>
       <c r="J349" t="n">
-        <v>0.3065878680072526</v>
+        <v>0.3111472569842444</v>
       </c>
       <c r="K349" t="n">
-        <v>0.4115372815891916</v>
+        <v>0.4088313027654484</v>
       </c>
       <c r="L349" t="n">
-        <v>1.257161832799859</v>
+        <v>1.24889562351637</v>
       </c>
       <c r="M349" t="n">
-        <v>1.331300885610949</v>
+        <v>1.342273073718182</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15484,25 +15484,25 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="n">
-        <v>82.4851914101</v>
+        <v>82.75111397889999</v>
       </c>
       <c r="H350" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I350" t="n">
-        <v>0.5137093548791405</v>
+        <v>0.5025391533415887</v>
       </c>
       <c r="J350" t="n">
-        <v>0.1976791240328697</v>
+        <v>0.2022198563652079</v>
       </c>
       <c r="K350" t="n">
-        <v>0.2886115210879898</v>
+        <v>0.2952409902932035</v>
       </c>
       <c r="L350" t="n">
-        <v>1.829739585725411</v>
+        <v>1.80285845031797</v>
       </c>
       <c r="M350" t="n">
-        <v>0.8816488931865991</v>
+        <v>0.9019005593888271</v>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
@@ -15576,25 +15576,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H352" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I352" t="n">
-        <v>0.3507655039885875</v>
+        <v>0.3390181000905008</v>
       </c>
       <c r="J352" t="n">
-        <v>0.2639164617932571</v>
+        <v>0.2686918292315038</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3853180342181554</v>
+        <v>0.3922900706779954</v>
       </c>
       <c r="L352" t="n">
-        <v>1.437614546183918</v>
+        <v>1.409344370949498</v>
       </c>
       <c r="M352" t="n">
-        <v>1.177067419597927</v>
+        <v>1.198365558372507</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15721,25 +15721,25 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H355" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I355" t="n">
-        <v>0.5535712469199041</v>
+        <v>0.5462355327879341</v>
       </c>
       <c r="J355" t="n">
-        <v>0.1814751028780877</v>
+        <v>0.1844571004927097</v>
       </c>
       <c r="K355" t="n">
-        <v>0.2649536502020081</v>
+        <v>0.2693073667193561</v>
       </c>
       <c r="L355" t="n">
-        <v>1.92566739096172</v>
+        <v>1.908013965083159</v>
       </c>
       <c r="M355" t="n">
-        <v>0.8093789588362712</v>
+        <v>0.8226786681974851</v>
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
@@ -15760,25 +15760,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H356" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3119985998081463</v>
+        <v>0.3074910732652028</v>
       </c>
       <c r="J356" t="n">
-        <v>0.2796753659316479</v>
+        <v>0.281507693794633</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4083260342602059</v>
+        <v>0.4110012329401642</v>
       </c>
       <c r="L356" t="n">
-        <v>1.344321833684645</v>
+        <v>1.333474452735773</v>
       </c>
       <c r="M356" t="n">
-        <v>1.247352132055149</v>
+        <v>1.255524314324063</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15799,25 +15799,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H357" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="I357" t="n">
-        <v>0.4811939830799135</v>
+        <v>0.487088586538663</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2108967548455636</v>
+        <v>0.2085005745777792</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3079092620745228</v>
+        <v>0.3044108388835577</v>
       </c>
       <c r="L357" t="n">
-        <v>1.751491211314263</v>
+        <v>1.765676598499547</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9405995266112135</v>
+        <v>0.9299125626168954</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15838,25 +15838,25 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H358" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I358" t="n">
-        <v>0.4534838629225388</v>
+        <v>0.4548158519868235</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2221610313323013</v>
+        <v>0.2216195723630799</v>
       </c>
       <c r="K358" t="n">
-        <v>0.3243551057451599</v>
+        <v>0.3235645756500966</v>
       </c>
       <c r="L358" t="n">
-        <v>1.684806694512776</v>
+        <v>1.688012131610567</v>
       </c>
       <c r="M358" t="n">
-        <v>0.9908381997420639</v>
+        <v>0.9884232927393362</v>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
@@ -15930,25 +15930,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>80.5210792447</v>
+        <v>80.6648724218</v>
       </c>
       <c r="H360" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4410356999869055</v>
+        <v>0.4256065741320899</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2272212601679246</v>
+        <v>0.2334932625479309</v>
       </c>
       <c r="K360" t="n">
-        <v>0.33174303984517</v>
+        <v>0.3409001633199791</v>
       </c>
       <c r="L360" t="n">
-        <v>1.654850139805886</v>
+        <v>1.617719885716249</v>
       </c>
       <c r="M360" t="n">
-        <v>1.013406820348944</v>
+        <v>1.041379950963772</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -16075,25 +16075,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H363" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I363" t="n">
-        <v>0.5098675915506279</v>
+        <v>0.4892562181094753</v>
       </c>
       <c r="J363" t="n">
-        <v>0.1992408164428342</v>
+        <v>0.2076194235327336</v>
       </c>
       <c r="K363" t="n">
-        <v>0.2908915920065379</v>
+        <v>0.3031243583577911</v>
       </c>
       <c r="L363" t="n">
-        <v>1.820494366658421</v>
+        <v>1.770893012686217</v>
       </c>
       <c r="M363" t="n">
-        <v>0.8886140413350404</v>
+        <v>0.925982628955992</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -16114,25 +16114,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H364" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I364" t="n">
-        <v>0.3524855197240021</v>
+        <v>0.3602490905767941</v>
       </c>
       <c r="J364" t="n">
-        <v>0.2632172684048772</v>
+        <v>0.2600613452939861</v>
       </c>
       <c r="K364" t="n">
-        <v>0.3842972118711208</v>
+        <v>0.3796895641292198</v>
       </c>
       <c r="L364" t="n">
-        <v>1.441753771043127</v>
+        <v>1.460436835859602</v>
       </c>
       <c r="M364" t="n">
-        <v>1.173949017085752</v>
+        <v>1.159873600011178</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16206,25 +16206,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H366" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I366" t="n">
-        <v>0.4990141036023602</v>
+        <v>0.5140864908111085</v>
       </c>
       <c r="J366" t="n">
-        <v>0.2036528034136747</v>
+        <v>0.1975258167434519</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2973330929839651</v>
+        <v>0.2883876924454397</v>
       </c>
       <c r="L366" t="n">
-        <v>1.794375403791046</v>
+        <v>1.830647164878765</v>
       </c>
       <c r="M366" t="n">
-        <v>0.9082915032249892</v>
+        <v>0.8809651426757953</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16245,25 +16245,25 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H367" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I367" t="n">
-        <v>0.2933331660264342</v>
+        <v>0.2860028550533542</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2872629406396609</v>
+        <v>0.2964329765687488</v>
       </c>
       <c r="K367" t="n">
-        <v>0.4194038933339049</v>
+        <v>0.4175641683778971</v>
       </c>
       <c r="L367" t="n">
-        <v>1.299403391413207</v>
+        <v>1.27557273353796</v>
       </c>
       <c r="M367" t="n">
-        <v>1.281192715252887</v>
+        <v>1.306863098084143</v>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
@@ -16284,25 +16284,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="H368" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I368" t="n">
-        <v>0.4864285284634933</v>
+        <v>0.4844531876621048</v>
       </c>
       <c r="J368" t="n">
-        <v>0.2087688908684986</v>
+        <v>0.2095718749341038</v>
       </c>
       <c r="K368" t="n">
-        <v>0.304802580668008</v>
+        <v>0.3059749374037915</v>
       </c>
       <c r="L368" t="n">
-        <v>1.764088166058488</v>
+        <v>1.759334500390106</v>
       </c>
       <c r="M368" t="n">
-        <v>0.931109253273504</v>
+        <v>0.9346905622061028</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16323,25 +16323,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H369" t="n">
-        <v>81.750525315</v>
+        <v>82.2640485753</v>
       </c>
       <c r="I369" t="n">
-        <v>0.304305095019825</v>
+        <v>0.3073218708873837</v>
       </c>
       <c r="J369" t="n">
-        <v>0.2828028069025102</v>
+        <v>0.281576475249031</v>
       </c>
       <c r="K369" t="n">
-        <v>0.4128920980776649</v>
+        <v>0.4111016538635852</v>
       </c>
       <c r="L369" t="n">
-        <v>1.32580738313714</v>
+        <v>1.333067266525736</v>
       </c>
       <c r="M369" t="n">
-        <v>1.261300518785196</v>
+        <v>1.255831079610678</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16415,25 +16415,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H371" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I371" t="n">
-        <v>0.3306574591065679</v>
+        <v>0.3424665232814782</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2720904637778179</v>
+        <v>0.2672900311863909</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3972520771156142</v>
+        <v>0.3902434455321308</v>
       </c>
       <c r="L371" t="n">
-        <v>1.389224454435318</v>
+        <v>1.417643015376565</v>
       </c>
       <c r="M371" t="n">
-        <v>1.213523468449068</v>
+        <v>1.192113539091304</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16454,25 +16454,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="H372" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I372" t="n">
-        <v>0.6150398859776839</v>
+        <v>0.6090832192021647</v>
       </c>
       <c r="J372" t="n">
-        <v>0.1564878512285838</v>
+        <v>0.1589092604869249</v>
       </c>
       <c r="K372" t="n">
-        <v>0.2284722627937323</v>
+        <v>0.2320075203109103</v>
       </c>
       <c r="L372" t="n">
-        <v>2.073591920726784</v>
+        <v>2.059257177917404</v>
       </c>
       <c r="M372" t="n">
-        <v>0.6979358164794837</v>
+        <v>0.7087353017716851</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16493,25 +16493,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H373" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I373" t="n">
-        <v>0.2498435882835804</v>
+        <v>0.2522798121178887</v>
       </c>
       <c r="J373" t="n">
-        <v>0.3853847728223922</v>
+        <v>0.3793916621899939</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3647716388940274</v>
+        <v>0.3683285256921174</v>
       </c>
       <c r="L373" t="n">
-        <v>1.114302403744768</v>
+        <v>1.125167962045784</v>
       </c>
       <c r="M373" t="n">
-        <v>1.520925957361204</v>
+        <v>1.506503512262099</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16585,25 +16585,25 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H375" t="n">
-        <v>84.930753083</v>
+        <v>84.8695248274</v>
       </c>
       <c r="I375" t="n">
-        <v>0.2548548432272051</v>
+        <v>0.2638947956066587</v>
       </c>
       <c r="J375" t="n">
-        <v>0.3730570856610753</v>
+        <v>0.3508188028076197</v>
       </c>
       <c r="K375" t="n">
-        <v>0.3720880711117195</v>
+        <v>0.3852864015857216</v>
       </c>
       <c r="L375" t="n">
-        <v>1.136652600793335</v>
+        <v>1.176970788405698</v>
       </c>
       <c r="M375" t="n">
-        <v>1.491259328094945</v>
+        <v>1.437742810008581</v>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
@@ -16624,25 +16624,25 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H376" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="I376" t="n">
-        <v>0.5444268212142407</v>
+        <v>0.5514005441178352</v>
       </c>
       <c r="J376" t="n">
-        <v>0.1851923490999022</v>
+        <v>0.1823575023911239</v>
       </c>
       <c r="K376" t="n">
-        <v>0.2703808296858571</v>
+        <v>0.2662419534910409</v>
       </c>
       <c r="L376" t="n">
-        <v>1.903661293328579</v>
+        <v>1.920443585844547</v>
       </c>
       <c r="M376" t="n">
-        <v>0.8259578769855638</v>
+        <v>0.8133144606644125</v>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
@@ -16716,25 +16716,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="H378" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I378" t="n">
-        <v>0.5319119488939607</v>
+        <v>0.5219266519921594</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1902796955715607</v>
+        <v>0.1943387593527807</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2778083555344787</v>
+        <v>0.2837345886550598</v>
       </c>
       <c r="L378" t="n">
-        <v>1.87354420221636</v>
+        <v>1.849514544631538</v>
       </c>
       <c r="M378" t="n">
-        <v>0.8486474422491609</v>
+        <v>0.866750866713402</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16755,25 +16755,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="H379" t="n">
-        <v>82.97633817649999</v>
+        <v>83.2734633715</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2803318367301031</v>
+        <v>0.2842241848437687</v>
       </c>
       <c r="J379" t="n">
-        <v>0.3103836816439463</v>
+        <v>0.300808505284329</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4092844816259505</v>
+        <v>0.4149673098719023</v>
       </c>
       <c r="L379" t="n">
-        <v>1.25027999181626</v>
+        <v>1.267639864403208</v>
       </c>
       <c r="M379" t="n">
-        <v>1.340435526557789</v>
+        <v>1.317392825724889</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16794,25 +16794,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>78.7470220129</v>
+        <v>78.8589549232</v>
       </c>
       <c r="H380" t="n">
-        <v>79.0995114429</v>
+        <v>79.6889321837</v>
       </c>
       <c r="I380" t="n">
-        <v>0.3774151850550233</v>
+        <v>0.3616737554153394</v>
       </c>
       <c r="J380" t="n">
-        <v>0.2530832581077141</v>
+        <v>0.259482213245797</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3695015568372626</v>
+        <v>0.3788440313388636</v>
       </c>
       <c r="L380" t="n">
-        <v>1.501747112002332</v>
+        <v>1.463865297584882</v>
       </c>
       <c r="M380" t="n">
-        <v>1.128751331160405</v>
+        <v>1.157290671076255</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>

--- a/Sezon/LaLiga2025_26.xlsx
+++ b/Sezon/LaLiga2025_26.xlsx
@@ -579,25 +579,25 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H3" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4187794128017732</v>
+        <v>0.418793714642288</v>
       </c>
       <c r="J3" t="n">
-        <v>0.236268531381393</v>
+        <v>0.2362627176250862</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3449520558168338</v>
+        <v>0.3449435677326258</v>
       </c>
       <c r="L3" t="n">
-        <v>1.601290294222153</v>
+        <v>1.60132471165949</v>
       </c>
       <c r="M3" t="n">
-        <v>1.053757649961013</v>
+        <v>1.053731720607884</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -671,25 +671,25 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H5" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2558118889728807</v>
+        <v>0.2553267293778279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3707027531267135</v>
+        <v>0.3718962457305433</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3734853579004058</v>
+        <v>0.3727770248916288</v>
       </c>
       <c r="L5" t="n">
-        <v>1.140921024819048</v>
+        <v>1.138757213025113</v>
       </c>
       <c r="M5" t="n">
-        <v>1.485593617280546</v>
+        <v>1.488465762083259</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -710,25 +710,25 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H6" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5073580998057555</v>
+        <v>0.5078703130413327</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2002609350383108</v>
+        <v>0.2000527182758811</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2923809651559337</v>
+        <v>0.2920769686827863</v>
       </c>
       <c r="L6" t="n">
-        <v>1.8144552645732</v>
+        <v>1.815687907806784</v>
       </c>
       <c r="M6" t="n">
-        <v>0.893163770270866</v>
+        <v>0.8922351235104294</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -802,25 +802,25 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H8" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6818513027799574</v>
+        <v>0.6831199491773121</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1293287387073344</v>
+        <v>0.1288130287897105</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1888199585127082</v>
+        <v>0.1880670220329773</v>
       </c>
       <c r="L8" t="n">
-        <v>2.234373866852581</v>
+        <v>2.237426869564914</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5768061746347113</v>
+        <v>0.5745061084021088</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -841,25 +841,25 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H9" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2316475276941281</v>
+        <v>0.231008744015922</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4301470818724451</v>
+        <v>0.4317184897208319</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3382053904334269</v>
+        <v>0.3372727662632461</v>
       </c>
       <c r="L9" t="n">
-        <v>1.033147973515811</v>
+        <v>1.030298998311012</v>
       </c>
       <c r="M9" t="n">
-        <v>1.628646636050762</v>
+        <v>1.632428235425742</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -933,25 +933,25 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H11" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1602129912725153</v>
+        <v>0.15923586551075</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6058760414696124</v>
+        <v>0.6082797708435551</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2339109672578723</v>
+        <v>0.2324843636456949</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7145499410754181</v>
+        <v>0.7101919601779448</v>
       </c>
       <c r="M11" t="n">
-        <v>2.051539091666709</v>
+        <v>2.05732367617636</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -972,25 +972,25 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H12" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8307099147592728</v>
+        <v>0.8321148955158443</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06881710782143383</v>
+        <v>0.06824597743258368</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1004729774192934</v>
+        <v>0.09963912705157217</v>
       </c>
       <c r="L12" t="n">
-        <v>2.592602721697112</v>
+        <v>2.595983813599105</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3069243008835948</v>
+        <v>0.3043770593493232</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1011,25 +1011,25 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H13" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1458834191839081</v>
+        <v>0.1448800654028841</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6411267888075862</v>
+        <v>0.6435950391089053</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2129897920085058</v>
+        <v>0.2115248954882107</v>
       </c>
       <c r="L13" t="n">
-        <v>0.65064004956023</v>
+        <v>0.6461650916968629</v>
       </c>
       <c r="M13" t="n">
-        <v>2.136370158431264</v>
+        <v>2.142310012814926</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1050,25 +1050,25 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H14" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7311209218831661</v>
+        <v>0.7325190465822619</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1093004382588755</v>
+        <v>0.1087320948852594</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1595786398579583</v>
+        <v>0.1587488585324788</v>
       </c>
       <c r="L14" t="n">
-        <v>2.352941405507457</v>
+        <v>2.356305998279264</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4874799546345848</v>
+        <v>0.4849451431882571</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1089,25 +1089,25 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H15" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2066770873154608</v>
+        <v>0.2058918838832143</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4915743652039662</v>
+        <v>0.4935059656472927</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3017485474805729</v>
+        <v>0.300602150469493</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9217798094269554</v>
+        <v>0.918277802119136</v>
       </c>
       <c r="M15" t="n">
-        <v>1.776471643092472</v>
+        <v>1.781120047411371</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1128,25 +1128,25 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H16" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8057949453876624</v>
+        <v>0.8072332657686061</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07894514415135681</v>
+        <v>0.07836046106967234</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1152599104609809</v>
+        <v>0.1144062731617216</v>
       </c>
       <c r="L16" t="n">
-        <v>2.532644746623968</v>
+        <v>2.53610607046754</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3520953429150513</v>
+        <v>0.3494876563707386</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1167,25 +1167,25 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H17" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1625693664245429</v>
+        <v>0.1616040412031141</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6000793585956244</v>
+        <v>0.6024540586403394</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2373512749798326</v>
+        <v>0.2359419001565466</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7250593742534612</v>
+        <v>0.7207540237658887</v>
       </c>
       <c r="M17" t="n">
-        <v>2.037589350766706</v>
+        <v>2.043304076077565</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1206,25 +1206,25 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H18" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8159818204147062</v>
+        <v>0.8174097332008381</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07480413804280238</v>
+        <v>0.07422368569071619</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1092140415424915</v>
+        <v>0.1083665811084456</v>
       </c>
       <c r="L18" t="n">
-        <v>2.55715950278661</v>
+        <v>2.56059578071096</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3336264556708986</v>
+        <v>0.3310376381805942</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1245,25 +1245,25 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H19" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1558772408783882</v>
+        <v>0.1548943918195287</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6165419874391651</v>
+        <v>0.6189597961239595</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2275807716824468</v>
+        <v>0.2261458120565119</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6952124943176115</v>
+        <v>0.690828987515098</v>
       </c>
       <c r="M19" t="n">
-        <v>2.077206733999942</v>
+        <v>2.08302520042839</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1284,25 +1284,25 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H20" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7672532525178826</v>
+        <v>0.7686945177308969</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09461249897647053</v>
+        <v>0.09402661880857846</v>
       </c>
       <c r="K20" t="n">
-        <v>0.138134248505647</v>
+        <v>0.1372788634605246</v>
       </c>
       <c r="L20" t="n">
-        <v>2.439894006059295</v>
+        <v>2.443362416653216</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4219717454350586</v>
+        <v>0.4193587198862599</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1323,25 +1323,25 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H21" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1863657305826867</v>
+        <v>0.1854848607042466</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5415403027665908</v>
+        <v>0.5437072426675531</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2720939666507226</v>
+        <v>0.2708078966282002</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8311911583987825</v>
+        <v>0.8272624787409401</v>
       </c>
       <c r="M21" t="n">
-        <v>1.896714874950495</v>
+        <v>1.901929624630859</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1362,25 +1362,25 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H22" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8174929418890913</v>
+        <v>0.8189189393807771</v>
       </c>
       <c r="J22" t="n">
-        <v>0.07418986102069465</v>
+        <v>0.07361018724358656</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1083171970902142</v>
+        <v>0.1074708733756364</v>
       </c>
       <c r="L22" t="n">
-        <v>2.560796022757488</v>
+        <v>2.564227691517968</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3308867801522982</v>
+        <v>0.3283014351063961</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1507,25 +1507,25 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H25" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1718835803081295</v>
+        <v>0.1709473760098236</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5771663924420014</v>
+        <v>0.5794694550158341</v>
       </c>
       <c r="K25" t="n">
-        <v>0.250950027249869</v>
+        <v>0.2495831689743424</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7666007681742575</v>
+        <v>0.762425297003813</v>
       </c>
       <c r="M25" t="n">
-        <v>1.982449204575873</v>
+        <v>1.987991534021845</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1599,25 +1599,25 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H27" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1622721813554238</v>
+        <v>0.161306016074565</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6008104338656574</v>
+        <v>0.6031872004565703</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2369173847789188</v>
+        <v>0.2355067834688649</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7237339288451903</v>
+        <v>0.7194248316925599</v>
       </c>
       <c r="M27" t="n">
-        <v>2.039348686375891</v>
+        <v>2.045068384838576</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1638,25 +1638,25 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H28" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8486278403447676</v>
+        <v>0.8499913919711635</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0615333982338343</v>
+        <v>0.06097910895481158</v>
       </c>
       <c r="K28" t="n">
-        <v>0.08983876142139807</v>
+        <v>0.08902949907402491</v>
       </c>
       <c r="L28" t="n">
-        <v>2.635722282455701</v>
+        <v>2.639003674987515</v>
       </c>
       <c r="M28" t="n">
-        <v>0.274438956122901</v>
+        <v>0.2719668259384597</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -1783,25 +1783,25 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H31" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1552711933004287</v>
+        <v>0.1542869038902994</v>
       </c>
       <c r="J31" t="n">
-        <v>0.6180328644809455</v>
+        <v>0.6204542164298636</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2266959422186258</v>
+        <v>0.225258879679837</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6925095221199118</v>
+        <v>0.6881195913507351</v>
       </c>
       <c r="M31" t="n">
-        <v>2.080794535661462</v>
+        <v>2.086621528969428</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -1822,25 +1822,25 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H32" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7545845181495286</v>
+        <v>0.7560056134571415</v>
       </c>
       <c r="J32" t="n">
-        <v>0.09976239099612655</v>
+        <v>0.09918470997677174</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1456530908543447</v>
+        <v>0.1448096765660867</v>
       </c>
       <c r="L32" t="n">
-        <v>2.409406645302931</v>
+        <v>2.412826516937511</v>
       </c>
       <c r="M32" t="n">
-        <v>0.4449402638427244</v>
+        <v>0.4423638064964019</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -1861,25 +1861,25 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H33" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1936952904914541</v>
+        <v>0.1928522295957454</v>
       </c>
       <c r="J33" t="n">
-        <v>0.523509585391023</v>
+        <v>0.5255835151944663</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2827951241175229</v>
+        <v>0.2815642552097883</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8638809955918851</v>
+        <v>0.8601209439970245</v>
       </c>
       <c r="M33" t="n">
-        <v>1.853323880290592</v>
+        <v>1.858314800793187</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1900,25 +1900,25 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H34" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.794329575584514</v>
+        <v>0.7957745866285123</v>
       </c>
       <c r="J34" t="n">
-        <v>0.08360586358353092</v>
+        <v>0.08301846072011694</v>
       </c>
       <c r="K34" t="n">
-        <v>0.1220645608319551</v>
+        <v>0.1212069526513707</v>
       </c>
       <c r="L34" t="n">
-        <v>2.505053287585497</v>
+        <v>2.508530712536908</v>
       </c>
       <c r="M34" t="n">
-        <v>0.3728821515825479</v>
+        <v>0.3702623348117215</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -1992,25 +1992,25 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H36" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I36" t="n">
-        <v>0.878880099608127</v>
+        <v>0.8801302988048691</v>
       </c>
       <c r="J36" t="n">
-        <v>0.04923573186661507</v>
+        <v>0.04872752081102883</v>
       </c>
       <c r="K36" t="n">
-        <v>0.071884168525258</v>
+        <v>0.0711421803841021</v>
       </c>
       <c r="L36" t="n">
-        <v>2.708524467349639</v>
+        <v>2.711533076798709</v>
       </c>
       <c r="M36" t="n">
-        <v>0.2195913641251032</v>
+        <v>0.2173247428171886</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2084,25 +2084,25 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="H38" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8656810491820032</v>
+        <v>0.8669900769775758</v>
       </c>
       <c r="J38" t="n">
-        <v>0.05460119951951092</v>
+        <v>0.05406907439935942</v>
       </c>
       <c r="K38" t="n">
-        <v>0.07971775129848593</v>
+        <v>0.07894084862306475</v>
       </c>
       <c r="L38" t="n">
-        <v>2.676760898844496</v>
+        <v>2.679911079555792</v>
       </c>
       <c r="M38" t="n">
-        <v>0.2435213498570187</v>
+        <v>0.241148071821143</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -2123,25 +2123,25 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H39" t="n">
-        <v>95.22418940599999</v>
+        <v>95.1967978883</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1205475236632696</v>
+        <v>0.1195260112471977</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7034530917883567</v>
+        <v>0.7059660123318937</v>
       </c>
       <c r="K39" t="n">
-        <v>0.1759993845483736</v>
+        <v>0.1745079764209087</v>
       </c>
       <c r="L39" t="n">
-        <v>0.5376419555381823</v>
+        <v>0.5330860101625017</v>
       </c>
       <c r="M39" t="n">
-        <v>2.286358659913444</v>
+        <v>2.29240601341659</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -2162,25 +2162,25 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H40" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6346259967480642</v>
+        <v>0.6357439140351958</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1485260175820877</v>
+        <v>0.1480715796604895</v>
       </c>
       <c r="K40" t="n">
-        <v>0.2168479856698481</v>
+        <v>0.2161845063043146</v>
       </c>
       <c r="L40" t="n">
-        <v>2.12072597591404</v>
+        <v>2.123416248409902</v>
       </c>
       <c r="M40" t="n">
-        <v>0.6624260384161114</v>
+        <v>0.6603992452857831</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -2201,25 +2201,25 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H41" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I41" t="n">
-        <v>0.253228238910552</v>
+        <v>0.2527199710302282</v>
       </c>
       <c r="J41" t="n">
-        <v>0.377058532280042</v>
+        <v>0.3783088712656384</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3697132288094059</v>
+        <v>0.3689711577041332</v>
       </c>
       <c r="L41" t="n">
-        <v>1.129397945541062</v>
+        <v>1.127131070794818</v>
       </c>
       <c r="M41" t="n">
-        <v>1.500888825649532</v>
+        <v>1.503897771501049</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -2240,25 +2240,25 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5144139091990988</v>
+        <v>0.5149795722112972</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1973927198377647</v>
+        <v>0.1971627755238629</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2881933709631365</v>
+        <v>0.2878576522648399</v>
       </c>
       <c r="L42" t="n">
-        <v>1.831435098560433</v>
+        <v>1.832796368898731</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8803715304764306</v>
+        <v>0.8793459788364286</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -2279,25 +2279,25 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H43" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3134476475237856</v>
+        <v>0.3128760185791389</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2790863221448026</v>
+        <v>0.2793186916344964</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4074660303314118</v>
+        <v>0.4078052897863647</v>
       </c>
       <c r="L43" t="n">
-        <v>1.347808972902768</v>
+        <v>1.346433345523781</v>
       </c>
       <c r="M43" t="n">
-        <v>1.24472499676582</v>
+        <v>1.245761364689854</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2318,25 +2318,25 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H44" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I44" t="n">
-        <v>0.6879450819226676</v>
+        <v>0.6892466168385796</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1268515927143628</v>
+        <v>0.1263225134802522</v>
       </c>
       <c r="K44" t="n">
-        <v>0.1852033253629696</v>
+        <v>0.1844308696811682</v>
       </c>
       <c r="L44" t="n">
-        <v>2.249038571130972</v>
+        <v>2.252170720196907</v>
       </c>
       <c r="M44" t="n">
-        <v>0.5657581035060579</v>
+        <v>0.5633984101219248</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -2357,25 +2357,25 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H45" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I45" t="n">
-        <v>0.228937155036005</v>
+        <v>0.2282753696360824</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4368145986114277</v>
+        <v>0.4384425906952373</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3342482463525673</v>
+        <v>0.3332820396686803</v>
       </c>
       <c r="L45" t="n">
-        <v>1.021059711460582</v>
+        <v>1.018108148576927</v>
       </c>
       <c r="M45" t="n">
-        <v>1.644692042186851</v>
+        <v>1.648609811754392</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2396,25 +2396,25 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H46" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8137304958096627</v>
+        <v>0.8151808830434982</v>
       </c>
       <c r="J46" t="n">
-        <v>0.07571931064647856</v>
+        <v>0.07512972234004137</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1105501935438587</v>
+        <v>0.1096893946164604</v>
       </c>
       <c r="L46" t="n">
-        <v>2.551741680972847</v>
+        <v>2.555232043746955</v>
       </c>
       <c r="M46" t="n">
-        <v>0.3377081254832944</v>
+        <v>0.3350785616365845</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -2435,25 +2435,25 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H47" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1575851756847945</v>
+        <v>0.1565939569169734</v>
       </c>
       <c r="J47" t="n">
-        <v>0.6123404678154055</v>
+        <v>0.6147788659842455</v>
       </c>
       <c r="K47" t="n">
-        <v>0.2300743564997999</v>
+        <v>0.2286271770987812</v>
       </c>
       <c r="L47" t="n">
-        <v>0.7028298835541833</v>
+        <v>0.6984090478497014</v>
       </c>
       <c r="M47" t="n">
-        <v>2.067095759946016</v>
+        <v>2.072963775051518</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -2527,25 +2527,25 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H49" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1433538358742252</v>
+        <v>0.142339228944881</v>
       </c>
       <c r="J49" t="n">
-        <v>0.6473495637494059</v>
+        <v>0.6498454967955927</v>
       </c>
       <c r="K49" t="n">
-        <v>0.2092966003763688</v>
+        <v>0.2078152742595263</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6393581079990445</v>
+        <v>0.6348329610941693</v>
       </c>
       <c r="M49" t="n">
-        <v>2.151345291624586</v>
+        <v>2.157351764646304</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -2566,25 +2566,25 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H50" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7366355019505524</v>
+        <v>0.7380568490186135</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1070587390444909</v>
+        <v>0.1064809556834905</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1563057590049567</v>
+        <v>0.1554621952978961</v>
       </c>
       <c r="L50" t="n">
-        <v>2.366212264856614</v>
+        <v>2.369632742353736</v>
       </c>
       <c r="M50" t="n">
-        <v>0.4774819761384295</v>
+        <v>0.4749050623483676</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -2605,25 +2605,25 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H51" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I51" t="n">
-        <v>0.2039181561344323</v>
+        <v>0.2031117426757907</v>
       </c>
       <c r="J51" t="n">
-        <v>0.4983613359092965</v>
+        <v>0.500345113017555</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2977205079562712</v>
+        <v>0.2965431443066543</v>
       </c>
       <c r="L51" t="n">
-        <v>0.909474976359568</v>
+        <v>0.9058783723340262</v>
       </c>
       <c r="M51" t="n">
-        <v>1.792804515684161</v>
+        <v>1.797578483359319</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -2644,25 +2644,25 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H52" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8101756351520649</v>
+        <v>0.8116220142150772</v>
       </c>
       <c r="J52" t="n">
-        <v>0.07716437595444514</v>
+        <v>0.076576416985741</v>
       </c>
       <c r="K52" t="n">
-        <v>0.1126599888934899</v>
+        <v>0.1118015687991819</v>
       </c>
       <c r="L52" t="n">
-        <v>2.543186894349685</v>
+        <v>2.546667611444414</v>
       </c>
       <c r="M52" t="n">
-        <v>0.3441531167568253</v>
+        <v>0.3415308197564049</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -2736,25 +2736,25 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H54" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8201840019935052</v>
+        <v>0.8216179910722905</v>
       </c>
       <c r="J54" t="n">
-        <v>0.07309593414898162</v>
+        <v>0.07251301175923153</v>
       </c>
       <c r="K54" t="n">
-        <v>0.1067200638575132</v>
+        <v>0.105868997168478</v>
       </c>
       <c r="L54" t="n">
-        <v>2.567272069838029</v>
+        <v>2.570722970385349</v>
       </c>
       <c r="M54" t="n">
-        <v>0.326007866304458</v>
+        <v>0.3234080324461726</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -2775,25 +2775,25 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H55" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1532762827403163</v>
+        <v>0.152280153582311</v>
       </c>
       <c r="J55" t="n">
-        <v>0.6229403444588218</v>
+        <v>0.6253908221875151</v>
       </c>
       <c r="K55" t="n">
-        <v>0.2237833728008618</v>
+        <v>0.222329024230174</v>
       </c>
       <c r="L55" t="n">
-        <v>0.6836122210218107</v>
+        <v>0.6791694849771069</v>
       </c>
       <c r="M55" t="n">
-        <v>2.092604406177327</v>
+        <v>2.098501490792719</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -2814,25 +2814,25 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H56" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7722576132734663</v>
+        <v>0.7737147240813643</v>
       </c>
       <c r="J56" t="n">
-        <v>0.09257820598639584</v>
+        <v>0.09198588451977056</v>
       </c>
       <c r="K56" t="n">
-        <v>0.1351641807401379</v>
+        <v>0.134299391398865</v>
       </c>
       <c r="L56" t="n">
-        <v>2.451937020560537</v>
+        <v>2.455443563642958</v>
       </c>
       <c r="M56" t="n">
-        <v>0.4128987986993254</v>
+        <v>0.4102570449581767</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -2959,25 +2959,25 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H59" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1522750486756943</v>
+        <v>0.1512767376335092</v>
       </c>
       <c r="J59" t="n">
-        <v>0.6254033802577919</v>
+        <v>0.6278592254215674</v>
       </c>
       <c r="K59" t="n">
-        <v>0.2223215710665137</v>
+        <v>0.2208640369449235</v>
       </c>
       <c r="L59" t="n">
-        <v>0.6791467170935968</v>
+        <v>0.674694249845451</v>
       </c>
       <c r="M59" t="n">
-        <v>2.098531711839889</v>
+        <v>2.104441713209626</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -2998,25 +2998,25 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H60" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7957837571349267</v>
+        <v>0.797240693628292</v>
       </c>
       <c r="J60" t="n">
-        <v>0.08301473287198102</v>
+        <v>0.08242248226492199</v>
       </c>
       <c r="K60" t="n">
-        <v>0.1212015099930923</v>
+        <v>0.1203368241067861</v>
       </c>
       <c r="L60" t="n">
-        <v>2.508552781397873</v>
+        <v>2.512058904991662</v>
       </c>
       <c r="M60" t="n">
-        <v>0.3702457086090354</v>
+        <v>0.3676042709015521</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -3037,25 +3037,25 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H61" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1691958451404613</v>
+        <v>0.1682433683430624</v>
       </c>
       <c r="J61" t="n">
-        <v>0.5837782209544652</v>
+        <v>0.5861213138760665</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2470259339050735</v>
+        <v>0.2456353177808711</v>
       </c>
       <c r="L61" t="n">
-        <v>0.7546134693264575</v>
+        <v>0.7503654228100585</v>
       </c>
       <c r="M61" t="n">
-        <v>1.998360596768469</v>
+        <v>2.003999259409071</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -3129,25 +3129,25 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H63" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1596324819344635</v>
+        <v>0.1586517984269885</v>
       </c>
       <c r="J63" t="n">
-        <v>0.6073040944412197</v>
+        <v>0.6097165758696083</v>
       </c>
       <c r="K63" t="n">
-        <v>0.2330634236243168</v>
+        <v>0.2316316257034032</v>
       </c>
       <c r="L63" t="n">
-        <v>0.7119608694277073</v>
+        <v>0.7075870209843687</v>
       </c>
       <c r="M63" t="n">
-        <v>2.054975706947975</v>
+        <v>2.060781353312228</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -3168,25 +3168,25 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H64" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8522195422618996</v>
+        <v>0.8535832307616104</v>
       </c>
       <c r="J64" t="n">
-        <v>0.06007335680410591</v>
+        <v>0.0595190118855243</v>
       </c>
       <c r="K64" t="n">
-        <v>0.08770710093399463</v>
+        <v>0.08689775735286548</v>
       </c>
       <c r="L64" t="n">
-        <v>2.644365727719693</v>
+        <v>2.647647449637696</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2679271713463123</v>
+        <v>0.2654547930094384</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -3260,25 +3260,25 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H66" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I66" t="n">
-        <v>0.8210771924403004</v>
+        <v>0.8225098659923279</v>
       </c>
       <c r="J66" t="n">
-        <v>0.0727328486015039</v>
+        <v>0.0721504609787285</v>
       </c>
       <c r="K66" t="n">
-        <v>0.1061899589581957</v>
+        <v>0.1053396730289436</v>
       </c>
       <c r="L66" t="n">
-        <v>2.569421536279097</v>
+        <v>2.572869271005927</v>
       </c>
       <c r="M66" t="n">
-        <v>0.3243885047627074</v>
+        <v>0.3217910559651291</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -3352,25 +3352,25 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H68" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7597759876959</v>
+        <v>0.7612156687787299</v>
       </c>
       <c r="J68" t="n">
-        <v>0.09765203752199185</v>
+        <v>0.09706680130945937</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1425719747821081</v>
+        <v>0.1417175299118107</v>
       </c>
       <c r="L68" t="n">
-        <v>2.421899937869808</v>
+        <v>2.425364536248</v>
       </c>
       <c r="M68" t="n">
-        <v>0.4355280873480837</v>
+        <v>0.4329179338401887</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -3391,25 +3391,25 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H69" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1909440627508467</v>
+        <v>0.1900813311091136</v>
       </c>
       <c r="J69" t="n">
-        <v>0.530277605632917</v>
+        <v>0.5323999254715804</v>
       </c>
       <c r="K69" t="n">
-        <v>0.2787783316162363</v>
+        <v>0.2775187434193059</v>
       </c>
       <c r="L69" t="n">
-        <v>0.8516105198687764</v>
+        <v>0.8477627367466467</v>
       </c>
       <c r="M69" t="n">
-        <v>1.869611148514987</v>
+        <v>1.874718519834047</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -3483,25 +3483,25 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H71" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1672153912065708</v>
+        <v>0.1662566010063266</v>
       </c>
       <c r="J71" t="n">
-        <v>0.5886501376318358</v>
+        <v>0.5910087615244366</v>
       </c>
       <c r="K71" t="n">
-        <v>0.2441344711615934</v>
+        <v>0.2427346374692368</v>
       </c>
       <c r="L71" t="n">
-        <v>0.7457806447813057</v>
+        <v>0.7415044404882165</v>
       </c>
       <c r="M71" t="n">
-        <v>2.010084884057101</v>
+        <v>2.015760922042547</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -3522,25 +3522,25 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="H72" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I72" t="n">
-        <v>0.8818539214440356</v>
+        <v>0.88309973472542</v>
       </c>
       <c r="J72" t="n">
-        <v>0.04802686120161153</v>
+        <v>0.04752043303844711</v>
       </c>
       <c r="K72" t="n">
-        <v>0.07011921735435282</v>
+        <v>0.06937983223613278</v>
       </c>
       <c r="L72" t="n">
-        <v>2.71568098168646</v>
+        <v>2.718679036412393</v>
       </c>
       <c r="M72" t="n">
-        <v>0.2141998009591874</v>
+        <v>0.2119411313514741</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -3667,25 +3667,25 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H75" t="n">
-        <v>95.4142467561</v>
+        <v>95.3883042417</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1182579157976359</v>
+        <v>0.1172305808651615</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7090855271378158</v>
+        <v>0.7116127710717025</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1726565570645483</v>
+        <v>0.1711566480631359</v>
       </c>
       <c r="L75" t="n">
-        <v>0.5274303044574559</v>
+        <v>0.5228483906586204</v>
       </c>
       <c r="M75" t="n">
-        <v>2.299913138477995</v>
+        <v>2.305994961278243</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -3706,25 +3706,25 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H76" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2920058752966607</v>
+        <v>0.2914052777390506</v>
       </c>
       <c r="J76" t="n">
-        <v>0.2878024897168046</v>
+        <v>0.2880466350654265</v>
       </c>
       <c r="K76" t="n">
-        <v>0.4201916349865347</v>
+        <v>0.4205480871955228</v>
       </c>
       <c r="L76" t="n">
-        <v>1.296209260876517</v>
+        <v>1.294763920412675</v>
       </c>
       <c r="M76" t="n">
-        <v>1.283599104136949</v>
+        <v>1.284687992391802</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -3851,25 +3851,25 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H79" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I79" t="n">
-        <v>0.3454339078728984</v>
+        <v>0.345062654966758</v>
       </c>
       <c r="J79" t="n">
-        <v>0.2660837772874397</v>
+        <v>0.2662346931029439</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3884823148396619</v>
+        <v>0.3887026519302981</v>
       </c>
       <c r="L79" t="n">
-        <v>1.424784038458357</v>
+        <v>1.423890616830572</v>
       </c>
       <c r="M79" t="n">
-        <v>1.186733646701981</v>
+        <v>1.18740673123913</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -3890,25 +3890,25 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H80" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6297399043976807</v>
+        <v>0.6307713804203081</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1505122339846826</v>
+        <v>0.1500929347884926</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2197478616176367</v>
+        <v>0.2191356847911992</v>
       </c>
       <c r="L80" t="n">
-        <v>2.108967574810679</v>
+        <v>2.111449826052124</v>
       </c>
       <c r="M80" t="n">
-        <v>0.6712845635716846</v>
+        <v>0.669414489156677</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -3929,25 +3929,25 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H81" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2482167421089855</v>
+        <v>0.2477030696227309</v>
       </c>
       <c r="J81" t="n">
-        <v>0.3893868144118957</v>
+        <v>0.3906504487280822</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3623964434791189</v>
+        <v>0.361646481649187</v>
       </c>
       <c r="L81" t="n">
-        <v>1.107046669806075</v>
+        <v>1.10475569051738</v>
       </c>
       <c r="M81" t="n">
-        <v>1.530556886714806</v>
+        <v>1.533597827833434</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3968,25 +3968,25 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H82" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6627493704744155</v>
+        <v>0.6638810979826599</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1370937518396685</v>
+        <v>0.1366337000070488</v>
       </c>
       <c r="K82" t="n">
-        <v>0.200156877685916</v>
+        <v>0.1994852020102913</v>
       </c>
       <c r="L82" t="n">
-        <v>2.188404989109163</v>
+        <v>2.191128495958271</v>
       </c>
       <c r="M82" t="n">
-        <v>0.6114381332049215</v>
+        <v>0.6093863020314378</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -4007,25 +4007,25 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H83" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2334776713762431</v>
+        <v>0.2328832802036198</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4256449284144418</v>
+        <v>0.4271071306990953</v>
       </c>
       <c r="K83" t="n">
-        <v>0.340877400209315</v>
+        <v>0.340009589097285</v>
       </c>
       <c r="L83" t="n">
-        <v>1.041310414338044</v>
+        <v>1.038659429708144</v>
       </c>
       <c r="M83" t="n">
-        <v>1.61781218545264</v>
+        <v>1.621330981194571</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -4099,25 +4099,25 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H85" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2917878726812997</v>
+        <v>0.2911760444094365</v>
       </c>
       <c r="J85" t="n">
-        <v>0.2878911086661384</v>
+        <v>0.2881398193457576</v>
       </c>
       <c r="K85" t="n">
-        <v>0.420321018652562</v>
+        <v>0.4206841362448061</v>
       </c>
       <c r="L85" t="n">
-        <v>1.295684636696461</v>
+        <v>1.294212269473115</v>
       </c>
       <c r="M85" t="n">
-        <v>1.283994344650977</v>
+        <v>1.285103594282079</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -4138,25 +4138,25 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H86" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6242948986776318</v>
+        <v>0.6252937751341743</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1527256509440521</v>
+        <v>0.1523196036039942</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2229794503783161</v>
+        <v>0.2223866212618315</v>
       </c>
       <c r="L86" t="n">
-        <v>2.095864146411211</v>
+        <v>2.098267946664354</v>
       </c>
       <c r="M86" t="n">
-        <v>0.6811564032104725</v>
+        <v>0.6793454320738141</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -4230,25 +4230,25 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H88" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I88" t="n">
-        <v>0.6397458248805996</v>
+        <v>0.6408011886995137</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1464447866339026</v>
+        <v>0.1460157769514172</v>
       </c>
       <c r="K88" t="n">
-        <v>0.2138093884854977</v>
+        <v>0.2131830343490691</v>
       </c>
       <c r="L88" t="n">
-        <v>2.133046863127297</v>
+        <v>2.13558660044761</v>
       </c>
       <c r="M88" t="n">
-        <v>0.6531437483872056</v>
+        <v>0.6512303652033207</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -4269,25 +4269,25 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H89" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2438574590627355</v>
+        <v>0.2433231131161578</v>
       </c>
       <c r="J89" t="n">
-        <v>0.4001106507056708</v>
+        <v>0.4014251417342518</v>
       </c>
       <c r="K89" t="n">
-        <v>0.3560318902315937</v>
+        <v>0.3552517451495903</v>
       </c>
       <c r="L89" t="n">
-        <v>1.0876042674198</v>
+        <v>1.085221084498064</v>
       </c>
       <c r="M89" t="n">
-        <v>1.556363842348606</v>
+        <v>1.559527170352346</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -4361,25 +4361,25 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H91" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2728220035845197</v>
+        <v>0.2724659654035641</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3288578711820814</v>
+        <v>0.3297337251072325</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3983201252333988</v>
+        <v>0.3978003094892035</v>
       </c>
       <c r="L91" t="n">
-        <v>1.216786135986958</v>
+        <v>1.215198205699896</v>
       </c>
       <c r="M91" t="n">
-        <v>1.384893738779643</v>
+        <v>1.387001484810901</v>
       </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
@@ -4400,25 +4400,25 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H92" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I92" t="n">
-        <v>0.642069340469581</v>
+        <v>0.6431328508387492</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1455002681017964</v>
+        <v>0.1450679468135166</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2124303914286227</v>
+        <v>0.2117992023477343</v>
       </c>
       <c r="L92" t="n">
-        <v>2.138638412837365</v>
+        <v>2.141197754863982</v>
       </c>
       <c r="M92" t="n">
-        <v>0.6489311957340118</v>
+        <v>0.6470030427882842</v>
       </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
@@ -4439,25 +4439,25 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H93" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2428319338970873</v>
+        <v>0.2422915396447473</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4026334426131649</v>
+        <v>0.4039628124739216</v>
       </c>
       <c r="K93" t="n">
-        <v>0.3545346234897476</v>
+        <v>0.3537456478813311</v>
       </c>
       <c r="L93" t="n">
-        <v>1.08303042518101</v>
+        <v>1.080620266815573</v>
       </c>
       <c r="M93" t="n">
-        <v>1.562434951329242</v>
+        <v>1.565634085303096</v>
       </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
@@ -4531,25 +4531,25 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H95" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2595424197431179</v>
+        <v>0.2591031556706526</v>
       </c>
       <c r="J95" t="n">
-        <v>0.3615256474319301</v>
+        <v>0.3626062370501946</v>
       </c>
       <c r="K95" t="n">
-        <v>0.3789319328249521</v>
+        <v>0.3782906072791528</v>
       </c>
       <c r="L95" t="n">
-        <v>1.157559192054306</v>
+        <v>1.155600074291111</v>
       </c>
       <c r="M95" t="n">
-        <v>1.463508875120742</v>
+        <v>1.466109318429736</v>
       </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
@@ -4570,25 +4570,25 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H96" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6249818997849298</v>
+        <v>0.6259833707244702</v>
       </c>
       <c r="J96" t="n">
-        <v>0.152446382201248</v>
+        <v>0.1520392801933048</v>
       </c>
       <c r="K96" t="n">
-        <v>0.2225717180138221</v>
+        <v>0.221977349082225</v>
       </c>
       <c r="L96" t="n">
-        <v>2.097517417368612</v>
+        <v>2.099927461255636</v>
       </c>
       <c r="M96" t="n">
-        <v>0.6799108646175662</v>
+        <v>0.6780951896621394</v>
       </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
@@ -4662,25 +4662,25 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H98" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I98" t="n">
-        <v>0.6918500881293483</v>
+        <v>0.6930635450276736</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1252641918173381</v>
+        <v>0.1247709166554172</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1828857200533135</v>
+        <v>0.1821655383169091</v>
       </c>
       <c r="L98" t="n">
-        <v>2.258435984441359</v>
+        <v>2.26135617339993</v>
       </c>
       <c r="M98" t="n">
-        <v>0.5586782955053278</v>
+        <v>0.5564782882831607</v>
       </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
@@ -4701,25 +4701,25 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H99" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2195888113582318</v>
+        <v>0.2189187890229444</v>
       </c>
       <c r="J99" t="n">
-        <v>0.4598115240587499</v>
+        <v>0.4614597790035567</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3205996645830183</v>
+        <v>0.3196214319734989</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9793660986577135</v>
+        <v>0.9763777990423321</v>
       </c>
       <c r="M99" t="n">
-        <v>1.700034236759268</v>
+        <v>1.704000768984169</v>
       </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
@@ -4740,25 +4740,25 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H100" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I100" t="n">
-        <v>0.6411431445698967</v>
+        <v>0.6422034188109922</v>
       </c>
       <c r="J100" t="n">
-        <v>0.145876770500042</v>
+        <v>0.1454457647109788</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2129800849300613</v>
+        <v>0.212350816478029</v>
       </c>
       <c r="L100" t="n">
-        <v>2.136409518639752</v>
+        <v>2.138961072911006</v>
       </c>
       <c r="M100" t="n">
-        <v>0.6506103964301873</v>
+        <v>0.6486881106109654</v>
       </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
@@ -4779,25 +4779,25 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H101" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I101" t="n">
-        <v>0.2432413314747003</v>
+        <v>0.2427033489156861</v>
       </c>
       <c r="J101" t="n">
-        <v>0.4016263245722373</v>
+        <v>0.402949761667412</v>
       </c>
       <c r="K101" t="n">
-        <v>0.3551323439530624</v>
+        <v>0.3543468894169018</v>
       </c>
       <c r="L101" t="n">
-        <v>1.084856338377163</v>
+        <v>1.08245693616396</v>
       </c>
       <c r="M101" t="n">
-        <v>1.560011317669774</v>
+        <v>1.563196174419138</v>
       </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
@@ -4818,25 +4818,25 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H102" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5518425814566099</v>
+        <v>0.5525183194656564</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1821778124160122</v>
+        <v>0.1819031221684323</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2659796061273778</v>
+        <v>0.2655785583659112</v>
       </c>
       <c r="L102" t="n">
-        <v>1.921507350497208</v>
+        <v>1.92313351676288</v>
       </c>
       <c r="M102" t="n">
-        <v>0.8125130433754144</v>
+        <v>0.8112879248712082</v>
       </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
@@ -4910,25 +4910,25 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="H104" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I104" t="n">
-        <v>0.6073357995713995</v>
+        <v>0.6082683284417785</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1596195936701628</v>
+        <v>0.159240516893586</v>
       </c>
       <c r="K104" t="n">
-        <v>0.2330446067584377</v>
+        <v>0.2324911546646355</v>
       </c>
       <c r="L104" t="n">
-        <v>2.055052005472636</v>
+        <v>2.057296139989971</v>
       </c>
       <c r="M104" t="n">
-        <v>0.711903387768926</v>
+        <v>0.7102127053453935</v>
       </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
@@ -4949,25 +4949,25 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H105" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2576526264924367</v>
+        <v>0.2572016847917803</v>
       </c>
       <c r="J105" t="n">
-        <v>0.366174538828606</v>
+        <v>0.3672838554122205</v>
       </c>
       <c r="K105" t="n">
-        <v>0.3761728346789575</v>
+        <v>0.3755144597959992</v>
       </c>
       <c r="L105" t="n">
-        <v>1.149130714156267</v>
+        <v>1.14711951417134</v>
       </c>
       <c r="M105" t="n">
-        <v>1.474696451164775</v>
+        <v>1.477366026032661</v>
       </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
@@ -5041,25 +5041,25 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H107" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1923675051841657</v>
+        <v>0.1915749614635567</v>
       </c>
       <c r="J107" t="n">
-        <v>0.5267759372469524</v>
+        <v>0.5287255947996504</v>
       </c>
       <c r="K107" t="n">
-        <v>0.2808565575688819</v>
+        <v>0.2796994437367928</v>
       </c>
       <c r="L107" t="n">
-        <v>0.857959073121379</v>
+        <v>0.8544243281274631</v>
       </c>
       <c r="M107" t="n">
-        <v>1.861184369309739</v>
+        <v>1.865876228135744</v>
       </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
@@ -5133,25 +5133,25 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H109" t="n">
-        <v>89.0648867375</v>
+        <v>89.0041362142</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2048886432450789</v>
+        <v>0.2041457486356268</v>
       </c>
       <c r="J109" t="n">
-        <v>0.4959739376171061</v>
+        <v>0.4978014583563582</v>
       </c>
       <c r="K109" t="n">
-        <v>0.2991374191378151</v>
+        <v>0.2980527930080151</v>
       </c>
       <c r="L109" t="n">
-        <v>0.9138033488730517</v>
+        <v>0.9104900389148953</v>
       </c>
       <c r="M109" t="n">
-        <v>1.787059231989133</v>
+        <v>1.79145716807709</v>
       </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
@@ -5172,25 +5172,25 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H110" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I110" t="n">
-        <v>0.5893833515901816</v>
+        <v>0.5902447161519503</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1669173367519587</v>
+        <v>0.1665671885561178</v>
       </c>
       <c r="K110" t="n">
-        <v>0.2436993116578597</v>
+        <v>0.2431880952919319</v>
       </c>
       <c r="L110" t="n">
-        <v>2.011849366428405</v>
+        <v>2.013922243747783</v>
       </c>
       <c r="M110" t="n">
-        <v>0.7444513219137356</v>
+        <v>0.7428896609602853</v>
       </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
@@ -5264,25 +5264,25 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H112" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I112" t="n">
-        <v>0.739875507605807</v>
+        <v>0.7412374201007998</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1057416635748752</v>
+        <v>0.1051880406094309</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1543828288193178</v>
+        <v>0.1535745392897692</v>
       </c>
       <c r="L112" t="n">
-        <v>2.374009351636739</v>
+        <v>2.377286799592169</v>
       </c>
       <c r="M112" t="n">
-        <v>0.4716078195439433</v>
+        <v>0.469138661118062</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -5409,25 +5409,25 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H115" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1835176066559518</v>
+        <v>0.1826584488260955</v>
       </c>
       <c r="J115" t="n">
-        <v>0.5485466876263586</v>
+        <v>0.5506602158878051</v>
       </c>
       <c r="K115" t="n">
-        <v>0.2679357057176897</v>
+        <v>0.2666813352860994</v>
       </c>
       <c r="L115" t="n">
-        <v>0.8184885256855451</v>
+        <v>0.8146566817643859</v>
       </c>
       <c r="M115" t="n">
-        <v>1.913575768596766</v>
+        <v>1.918661982949515</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -5448,25 +5448,25 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H116" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I116" t="n">
-        <v>0.6455284411576184</v>
+        <v>0.6466328212068109</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1440941296107242</v>
+        <v>0.1436451946313777</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2103774292316574</v>
+        <v>0.2097219841618114</v>
       </c>
       <c r="L116" t="n">
-        <v>2.146962752704512</v>
+        <v>2.149620447782244</v>
       </c>
       <c r="M116" t="n">
-        <v>0.64265981806383</v>
+        <v>0.6406575680559445</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -5487,25 +5487,25 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H117" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I117" t="n">
-        <v>0.2452370066821268</v>
+        <v>0.2446994405544062</v>
       </c>
       <c r="J117" t="n">
-        <v>0.396716963561968</v>
+        <v>0.3980393762361609</v>
       </c>
       <c r="K117" t="n">
-        <v>0.3580460297559051</v>
+        <v>0.357261183209433</v>
       </c>
       <c r="L117" t="n">
-        <v>1.093757049802286</v>
+        <v>1.091359504872651</v>
       </c>
       <c r="M117" t="n">
-        <v>1.548196920441809</v>
+        <v>1.551379311917916</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -5579,25 +5579,25 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H119" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2011852205409032</v>
+        <v>0.2004028890997783</v>
       </c>
       <c r="J119" t="n">
-        <v>0.505084357469378</v>
+        <v>0.5070088928145454</v>
       </c>
       <c r="K119" t="n">
-        <v>0.2937304219897188</v>
+        <v>0.2925882180856763</v>
       </c>
       <c r="L119" t="n">
-        <v>0.8972860836124285</v>
+        <v>0.8937968853850111</v>
       </c>
       <c r="M119" t="n">
-        <v>1.808983494397853</v>
+        <v>1.813614896529313</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -5618,25 +5618,25 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H120" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I120" t="n">
-        <v>0.7480956827732153</v>
+        <v>0.749458388208553</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1024001289539775</v>
+        <v>0.1018461836550598</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1495041882728072</v>
+        <v>0.1486954281363873</v>
       </c>
       <c r="L120" t="n">
-        <v>2.393791236592453</v>
+        <v>2.397070592762046</v>
       </c>
       <c r="M120" t="n">
-        <v>0.4567045751347398</v>
+        <v>0.4542339791015665</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -5763,25 +5763,25 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H123" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I123" t="n">
-        <v>0.225410820436464</v>
+        <v>0.224755323824941</v>
       </c>
       <c r="J123" t="n">
-        <v>0.4454893817262987</v>
+        <v>0.4471019033906451</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3290997978372374</v>
+        <v>0.3281427727844138</v>
       </c>
       <c r="L123" t="n">
-        <v>1.005332259146629</v>
+        <v>1.002408744259237</v>
       </c>
       <c r="M123" t="n">
-        <v>1.665567943016133</v>
+        <v>1.669448482956349</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -5802,25 +5802,25 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H124" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I124" t="n">
-        <v>0.7499934709158056</v>
+        <v>0.7513584033039986</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1016286703594287</v>
+        <v>0.1010738197951225</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1483778587247659</v>
+        <v>0.1475677769008789</v>
       </c>
       <c r="L124" t="n">
-        <v>2.398358271472183</v>
+        <v>2.401642986812874</v>
       </c>
       <c r="M124" t="n">
-        <v>0.4532638698030519</v>
+        <v>0.4507892362862463</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -5841,25 +5841,25 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H125" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I125" t="n">
-        <v>0.1931041373708461</v>
+        <v>0.1922848272483162</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5249638220677186</v>
+        <v>0.526979324969142</v>
       </c>
       <c r="K125" t="n">
-        <v>0.2819320405614352</v>
+        <v>0.2807358477825417</v>
       </c>
       <c r="L125" t="n">
-        <v>0.8612444526739735</v>
+        <v>0.8575903295274905</v>
       </c>
       <c r="M125" t="n">
-        <v>1.856823506764591</v>
+        <v>1.861673822689968</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -5933,25 +5933,25 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H127" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2107999611443927</v>
+        <v>0.2100652984001964</v>
       </c>
       <c r="J127" t="n">
-        <v>0.4814320955847939</v>
+        <v>0.483239365935517</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3077679432708133</v>
+        <v>0.3066953356642867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.9401678267039912</v>
+        <v>0.9368912308648758</v>
       </c>
       <c r="M127" t="n">
-        <v>1.752064230025195</v>
+        <v>1.756413433470838</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -5972,25 +5972,25 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H128" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I128" t="n">
-        <v>0.7359393382705249</v>
+        <v>0.7372852657678237</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1073417324103557</v>
+        <v>0.1067946074114538</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1567189293191193</v>
+        <v>0.1559201268207225</v>
       </c>
       <c r="L128" t="n">
-        <v>2.364536944130694</v>
+        <v>2.367775924124194</v>
       </c>
       <c r="M128" t="n">
-        <v>0.4787441265501866</v>
+        <v>0.4763039490550839</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -6011,25 +6011,25 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H129" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I129" t="n">
-        <v>0.2008755746832295</v>
+        <v>0.2000917724936834</v>
       </c>
       <c r="J129" t="n">
-        <v>0.5058460862792554</v>
+        <v>0.5077742396655387</v>
       </c>
       <c r="K129" t="n">
-        <v>0.293278339037515</v>
+        <v>0.2921339878407778</v>
       </c>
       <c r="L129" t="n">
-        <v>0.8959050630872036</v>
+        <v>0.8924093053218278</v>
       </c>
       <c r="M129" t="n">
-        <v>1.810816597875281</v>
+        <v>1.815456706837394</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -6050,25 +6050,25 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H130" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I130" t="n">
-        <v>0.7896809511607198</v>
+        <v>0.7910660846867285</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0854955483086505</v>
+        <v>0.0849324858997039</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1248235005306297</v>
+        <v>0.1240014294135677</v>
       </c>
       <c r="L130" t="n">
-        <v>2.493866354012789</v>
+        <v>2.497199683473753</v>
       </c>
       <c r="M130" t="n">
-        <v>0.3813101454565813</v>
+        <v>0.3787988871126793</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -6089,25 +6089,25 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H131" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1696861204718766</v>
+        <v>0.1687779620686514</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5825721436391835</v>
+        <v>0.5848062133111178</v>
       </c>
       <c r="K131" t="n">
-        <v>0.2477417358889398</v>
+        <v>0.246415824620231</v>
       </c>
       <c r="L131" t="n">
-        <v>0.7568000973045694</v>
+        <v>0.752749710826185</v>
       </c>
       <c r="M131" t="n">
-        <v>1.99545816680649</v>
+        <v>2.000834464553584</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -6128,25 +6128,25 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H132" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7492374744027728</v>
+        <v>0.7506015326232324</v>
       </c>
       <c r="J132" t="n">
-        <v>0.101935986015133</v>
+        <v>0.1013814908035641</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1488265395820942</v>
+        <v>0.1480169765732035</v>
       </c>
       <c r="L132" t="n">
-        <v>2.396538962790412</v>
+        <v>2.399821574442901</v>
       </c>
       <c r="M132" t="n">
-        <v>0.4546344976274933</v>
+        <v>0.4521614489838957</v>
       </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
@@ -6220,25 +6220,25 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H134" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I134" t="n">
-        <v>0.6731218105071063</v>
+        <v>0.6743077170633552</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1328773128019893</v>
+        <v>0.1323952369661158</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1940008766909044</v>
+        <v>0.193297045970529</v>
       </c>
       <c r="L134" t="n">
-        <v>2.213366308212223</v>
+        <v>2.216220197160595</v>
       </c>
       <c r="M134" t="n">
-        <v>0.5926328150968723</v>
+        <v>0.5904827568688763</v>
       </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
@@ -6312,25 +6312,25 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H136" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I136" t="n">
-        <v>0.7211850570412343</v>
+        <v>0.7225050292958221</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1133394077068153</v>
+        <v>0.1128028336195846</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1654755352519504</v>
+        <v>0.1646921370845935</v>
       </c>
       <c r="L136" t="n">
-        <v>2.329030706375653</v>
+        <v>2.33220722497206</v>
       </c>
       <c r="M136" t="n">
-        <v>0.5054937583723963</v>
+        <v>0.5031006379433471</v>
       </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
@@ -6351,25 +6351,25 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H137" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I137" t="n">
-        <v>0.2087609253008353</v>
+        <v>0.2080158390431456</v>
       </c>
       <c r="J137" t="n">
-        <v>0.4864481237599452</v>
+        <v>0.488281035953862</v>
       </c>
       <c r="K137" t="n">
-        <v>0.3047909509392195</v>
+        <v>0.3037031250029926</v>
       </c>
       <c r="L137" t="n">
-        <v>0.9310737268417253</v>
+        <v>0.9277506421324294</v>
       </c>
       <c r="M137" t="n">
-        <v>1.764135322219055</v>
+        <v>1.768546232864578</v>
       </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
@@ -6390,25 +6390,25 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H138" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8293449013184518</v>
+        <v>0.8306856775361233</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0693719913339627</v>
+        <v>0.06882696035116943</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1012831073475855</v>
+        <v>0.1004873621127074</v>
       </c>
       <c r="L138" t="n">
-        <v>2.589317811302941</v>
+        <v>2.592544394721077</v>
       </c>
       <c r="M138" t="n">
-        <v>0.3093990813494736</v>
+        <v>0.3069682431662157</v>
       </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
@@ -6429,25 +6429,25 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H139" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I139" t="n">
-        <v>0.143888825060838</v>
+        <v>0.1429251726042062</v>
       </c>
       <c r="J139" t="n">
-        <v>0.6460334903503386</v>
+        <v>0.6484040753936529</v>
       </c>
       <c r="K139" t="n">
-        <v>0.2100776845888234</v>
+        <v>0.208670752002141</v>
       </c>
       <c r="L139" t="n">
-        <v>0.6417441597713374</v>
+        <v>0.6374462698147596</v>
       </c>
       <c r="M139" t="n">
-        <v>2.148178155639839</v>
+        <v>2.1538829781831</v>
       </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
@@ -6468,25 +6468,25 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="H140" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8119030447405274</v>
+        <v>0.8132752121551855</v>
       </c>
       <c r="J140" t="n">
-        <v>0.07646217693474493</v>
+        <v>0.07590438530277016</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1116347783247276</v>
+        <v>0.1108204025420444</v>
       </c>
       <c r="L140" t="n">
-        <v>2.54734391254631</v>
+        <v>2.550646039007601</v>
       </c>
       <c r="M140" t="n">
-        <v>0.3410213091289623</v>
+        <v>0.3385335584503549</v>
       </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
@@ -6507,25 +6507,25 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H141" t="n">
-        <v>92.52598586329999</v>
+        <v>92.4831533863</v>
       </c>
       <c r="I141" t="n">
-        <v>0.1555465964409914</v>
+        <v>0.1545998998557437</v>
       </c>
       <c r="J141" t="n">
-        <v>0.6173553727551612</v>
+        <v>0.6196842463548704</v>
       </c>
       <c r="K141" t="n">
-        <v>0.2270980308038475</v>
+        <v>0.2257158537893858</v>
       </c>
       <c r="L141" t="n">
-        <v>0.6937378201268218</v>
+        <v>0.689515553356617</v>
       </c>
       <c r="M141" t="n">
-        <v>2.079164149069331</v>
+        <v>2.084768592853997</v>
       </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
@@ -6546,25 +6546,25 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H142" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I142" t="n">
-        <v>0.5703180916158906</v>
+        <v>0.5710852181449401</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1746674424325648</v>
+        <v>0.1743556023801057</v>
       </c>
       <c r="K142" t="n">
-        <v>0.2550144659515446</v>
+        <v>0.2545591794749543</v>
       </c>
       <c r="L142" t="n">
-        <v>1.965968740799216</v>
+        <v>1.967814833909775</v>
       </c>
       <c r="M142" t="n">
-        <v>0.7790167932492389</v>
+        <v>0.7776259866152714</v>
       </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
@@ -6638,25 +6638,25 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H144" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I144" t="n">
-        <v>0.6053048314510759</v>
+        <v>0.6062057325701461</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1604451904670423</v>
+        <v>0.1600789704999406</v>
       </c>
       <c r="K144" t="n">
-        <v>0.2342499780818818</v>
+        <v>0.2337152969299132</v>
       </c>
       <c r="L144" t="n">
-        <v>2.05016447243511</v>
+        <v>2.052332494640352</v>
       </c>
       <c r="M144" t="n">
-        <v>0.7155855494830087</v>
+        <v>0.7139522084297351</v>
       </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
@@ -6783,25 +6783,25 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H147" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I147" t="n">
-        <v>0.3433724787533854</v>
+        <v>0.3429854129199874</v>
       </c>
       <c r="J147" t="n">
-        <v>0.2669217566043149</v>
+        <v>0.2670791004390295</v>
       </c>
       <c r="K147" t="n">
-        <v>0.3897057646422997</v>
+        <v>0.3899354866409832</v>
       </c>
       <c r="L147" t="n">
-        <v>1.419823200902456</v>
+        <v>1.418891725400945</v>
       </c>
       <c r="M147" t="n">
-        <v>1.190471034455244</v>
+        <v>1.191172787958072</v>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
@@ -6822,25 +6822,25 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H148" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I148" t="n">
-        <v>0.5646034077743802</v>
+        <v>0.5653323276619769</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1769904846445609</v>
+        <v>0.1766941757471639</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2584061075810589</v>
+        <v>0.2579734965908593</v>
       </c>
       <c r="L148" t="n">
-        <v>1.9522163309042</v>
+        <v>1.95397047957679</v>
       </c>
       <c r="M148" t="n">
-        <v>0.7893775615147418</v>
+        <v>0.7880560238323508</v>
       </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
@@ -6861,25 +6861,25 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H149" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I149" t="n">
-        <v>0.272747058747244</v>
+        <v>0.2723973418380414</v>
       </c>
       <c r="J149" t="n">
-        <v>0.3290422354817797</v>
+        <v>0.3299025390784182</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3982107057709763</v>
+        <v>0.3977001190835404</v>
       </c>
       <c r="L149" t="n">
-        <v>1.216451882012708</v>
+        <v>1.214892144597664</v>
       </c>
       <c r="M149" t="n">
-        <v>1.385337412216316</v>
+        <v>1.387407736318795</v>
       </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
@@ -6953,25 +6953,25 @@
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H151" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I151" t="n">
-        <v>0.2664740026089034</v>
+        <v>0.2660856283755217</v>
       </c>
       <c r="J151" t="n">
-        <v>0.3444739535820977</v>
+        <v>0.3454293541962166</v>
       </c>
       <c r="K151" t="n">
-        <v>0.3890520438089989</v>
+        <v>0.3884850174282617</v>
       </c>
       <c r="L151" t="n">
-        <v>1.188474051635709</v>
+        <v>1.186741902554827</v>
       </c>
       <c r="M151" t="n">
-        <v>1.422473904555292</v>
+        <v>1.424773080016911</v>
       </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
@@ -6992,25 +6992,25 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H152" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I152" t="n">
-        <v>0.5074538237241177</v>
+        <v>0.5079129648534444</v>
       </c>
       <c r="J152" t="n">
-        <v>0.2002220228763749</v>
+        <v>0.2000353801408762</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2923241533995073</v>
+        <v>0.2920516550056793</v>
       </c>
       <c r="L152" t="n">
-        <v>1.814685624571861</v>
+        <v>1.815790549566012</v>
       </c>
       <c r="M152" t="n">
-        <v>0.892990222028632</v>
+        <v>0.892157795428308</v>
       </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
@@ -7031,25 +7031,25 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H153" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I153" t="n">
-        <v>0.2997367067997314</v>
+        <v>0.2991660462434618</v>
       </c>
       <c r="J153" t="n">
-        <v>0.2846598752846621</v>
+        <v>0.2848918511205439</v>
       </c>
       <c r="K153" t="n">
-        <v>0.4156034179156066</v>
+        <v>0.4159421026359941</v>
       </c>
       <c r="L153" t="n">
-        <v>1.314813538314801</v>
+        <v>1.31344024136638</v>
       </c>
       <c r="M153" t="n">
-        <v>1.269583043769593</v>
+        <v>1.270617655997626</v>
       </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
@@ -7070,25 +7070,25 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H154" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5833169752265126</v>
+        <v>0.5841274744656904</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1693833434038566</v>
+        <v>0.1690538721684186</v>
       </c>
       <c r="K154" t="n">
-        <v>0.2472996813696307</v>
+        <v>0.2468186533658911</v>
       </c>
       <c r="L154" t="n">
-        <v>1.997250607049168</v>
+        <v>1.999201076762962</v>
       </c>
       <c r="M154" t="n">
-        <v>0.7554497115812006</v>
+        <v>0.7539802698711469</v>
       </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
@@ -7109,25 +7109,25 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H155" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I155" t="n">
-        <v>0.2655086289578422</v>
+        <v>0.2651143364016463</v>
       </c>
       <c r="J155" t="n">
-        <v>0.3468487727637084</v>
+        <v>0.3478187324519499</v>
       </c>
       <c r="K155" t="n">
-        <v>0.3876425982784495</v>
+        <v>0.3870669311464037</v>
       </c>
       <c r="L155" t="n">
-        <v>1.184168485151976</v>
+        <v>1.182409940351343</v>
       </c>
       <c r="M155" t="n">
-        <v>1.428188916569575</v>
+        <v>1.430523128502253</v>
       </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
@@ -7201,25 +7201,25 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H157" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I157" t="n">
-        <v>0.2810995280929991</v>
+        <v>0.2808016277222212</v>
       </c>
       <c r="J157" t="n">
-        <v>0.3084951608912223</v>
+        <v>0.3092279958033358</v>
       </c>
       <c r="K157" t="n">
-        <v>0.4104053110157786</v>
+        <v>0.409970376474443</v>
       </c>
       <c r="L157" t="n">
-        <v>1.253703895294776</v>
+        <v>1.252375259641107</v>
       </c>
       <c r="M157" t="n">
-        <v>1.335890793689446</v>
+        <v>1.33765436388445</v>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
@@ -7240,25 +7240,25 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H158" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I158" t="n">
-        <v>0.5653235611768126</v>
+        <v>0.5660556923011366</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1766977393590193</v>
+        <v>0.1764001250808388</v>
       </c>
       <c r="K158" t="n">
-        <v>0.2579786994641681</v>
+        <v>0.2575441826180246</v>
       </c>
       <c r="L158" t="n">
-        <v>1.953949382994606</v>
+        <v>1.955711259521435</v>
       </c>
       <c r="M158" t="n">
-        <v>0.7880719175412259</v>
+        <v>0.786744557860541</v>
       </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
@@ -7279,25 +7279,25 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H159" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2724734373593833</v>
+        <v>0.2721220281896648</v>
       </c>
       <c r="J159" t="n">
-        <v>0.329715344095917</v>
+        <v>0.3305798106534247</v>
       </c>
       <c r="K159" t="n">
-        <v>0.3978112185446996</v>
+        <v>0.3972981611569105</v>
       </c>
       <c r="L159" t="n">
-        <v>1.215231530622849</v>
+        <v>1.213664245725905</v>
       </c>
       <c r="M159" t="n">
-        <v>1.386957250832451</v>
+        <v>1.389037593117185</v>
       </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
@@ -7318,25 +7318,25 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H160" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I160" t="n">
-        <v>0.63664475292787</v>
+        <v>0.6376626440012146</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1477053849886707</v>
+        <v>0.1472916081295876</v>
       </c>
       <c r="K160" t="n">
-        <v>0.2156498620834592</v>
+        <v>0.2150457478691978</v>
       </c>
       <c r="L160" t="n">
-        <v>2.125584120867069</v>
+        <v>2.128033679872841</v>
       </c>
       <c r="M160" t="n">
-        <v>0.6587660170494715</v>
+        <v>0.6569205722579605</v>
       </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
@@ -7463,25 +7463,25 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H163" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2658941490305711</v>
+        <v>0.2655022188125473</v>
       </c>
       <c r="J163" t="n">
-        <v>0.3459003933847951</v>
+        <v>0.3468645417211337</v>
       </c>
       <c r="K163" t="n">
-        <v>0.3882054575846338</v>
+        <v>0.387633239466319</v>
       </c>
       <c r="L163" t="n">
-        <v>1.185887904676347</v>
+        <v>1.184139895903961</v>
       </c>
       <c r="M163" t="n">
-        <v>1.425906637739019</v>
+        <v>1.42822686462972</v>
       </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
@@ -7502,25 +7502,25 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H164" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I164" t="n">
-        <v>0.4900428628610801</v>
+        <v>0.4904021069085418</v>
       </c>
       <c r="J164" t="n">
-        <v>0.2072996492434634</v>
+        <v>0.2071536150778285</v>
       </c>
       <c r="K164" t="n">
-        <v>0.3026574878954566</v>
+        <v>0.3024442780136296</v>
       </c>
       <c r="L164" t="n">
-        <v>1.772786076478697</v>
+        <v>1.773650598739255</v>
       </c>
       <c r="M164" t="n">
-        <v>0.9245564356258469</v>
+        <v>0.923905123247115</v>
       </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
@@ -7647,25 +7647,25 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H167" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2793511337151233</v>
+        <v>0.2790423696336258</v>
       </c>
       <c r="J167" t="n">
-        <v>0.3127962110607968</v>
+        <v>0.3135557707012806</v>
       </c>
       <c r="K167" t="n">
-        <v>0.4078526552240799</v>
+        <v>0.4074018596650936</v>
       </c>
       <c r="L167" t="n">
-        <v>1.24590605636945</v>
+        <v>1.244528968565971</v>
       </c>
       <c r="M167" t="n">
-        <v>1.34624128840647</v>
+        <v>1.348069171768935</v>
       </c>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr"/>
@@ -7686,25 +7686,25 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H168" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I168" t="n">
-        <v>0.6939855951704388</v>
+        <v>0.6951620717728865</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1243960995242119</v>
+        <v>0.1239178570028917</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1816183053053493</v>
+        <v>0.1809200712242219</v>
       </c>
       <c r="L168" t="n">
-        <v>2.263575090816666</v>
+        <v>2.266406286542881</v>
       </c>
       <c r="M168" t="n">
-        <v>0.5548066038779849</v>
+        <v>0.5526736422328971</v>
       </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
@@ -7725,25 +7725,25 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H169" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I169" t="n">
-        <v>0.2165671997783657</v>
+        <v>0.2159014961764954</v>
       </c>
       <c r="J169" t="n">
-        <v>0.4672446885452203</v>
+        <v>0.4688823194058215</v>
       </c>
       <c r="K169" t="n">
-        <v>0.316188111676414</v>
+        <v>0.3152161844176832</v>
       </c>
       <c r="L169" t="n">
-        <v>0.9658897110115112</v>
+        <v>0.9629206729471693</v>
       </c>
       <c r="M169" t="n">
-        <v>1.717922177312075</v>
+        <v>1.721863142635148</v>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
@@ -7764,25 +7764,25 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="H170" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I170" t="n">
-        <v>0.6682433861700162</v>
+        <v>0.6693626699351272</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1348604121260097</v>
+        <v>0.1344054187255581</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1968962017039741</v>
+        <v>0.1962319113393148</v>
       </c>
       <c r="L170" t="n">
-        <v>2.201626360214023</v>
+        <v>2.204319921144696</v>
       </c>
       <c r="M170" t="n">
-        <v>0.6014774380820032</v>
+        <v>0.5994481675159892</v>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
@@ -7803,25 +7803,25 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H171" t="n">
-        <v>87.3959784356</v>
+        <v>87.3265102937</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2289791583409178</v>
+        <v>0.2283724407582864</v>
       </c>
       <c r="J171" t="n">
-        <v>0.4367112704813421</v>
+        <v>0.4382037957346153</v>
       </c>
       <c r="K171" t="n">
-        <v>0.33430957117774</v>
+        <v>0.3334237635070982</v>
       </c>
       <c r="L171" t="n">
-        <v>1.021247046200493</v>
+        <v>1.018541085781957</v>
       </c>
       <c r="M171" t="n">
-        <v>1.644443382621766</v>
+        <v>1.648035150710944</v>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
@@ -7895,25 +7895,25 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H173" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I173" t="n">
-        <v>0.3593100227099799</v>
+        <v>0.3590326734250575</v>
       </c>
       <c r="J173" t="n">
-        <v>0.2604430801991952</v>
+        <v>0.2605558238109522</v>
       </c>
       <c r="K173" t="n">
-        <v>0.3802468970908249</v>
+        <v>0.3804115027639902</v>
       </c>
       <c r="L173" t="n">
-        <v>1.458176965220765</v>
+        <v>1.457509523039163</v>
       </c>
       <c r="M173" t="n">
-        <v>1.16157613768841</v>
+        <v>1.162078974196847</v>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
@@ -7934,25 +7934,25 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H174" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I174" t="n">
-        <v>0.2944242458487554</v>
+        <v>0.2938435952145441</v>
       </c>
       <c r="J174" t="n">
-        <v>0.2868194122566035</v>
+        <v>0.2870554490997788</v>
       </c>
       <c r="K174" t="n">
-        <v>0.4187563418946411</v>
+        <v>0.4191009556856771</v>
       </c>
       <c r="L174" t="n">
-        <v>1.302029079440907</v>
+        <v>1.300631741329309</v>
       </c>
       <c r="M174" t="n">
-        <v>1.279214578664452</v>
+        <v>1.280267302985014</v>
       </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
@@ -7973,25 +7973,25 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H175" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I175" t="n">
-        <v>0.5088999887159685</v>
+        <v>0.5093525599924199</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1996341509284681</v>
+        <v>0.19945017886487</v>
       </c>
       <c r="K175" t="n">
-        <v>0.2914658603555634</v>
+        <v>0.2911972611427102</v>
       </c>
       <c r="L175" t="n">
-        <v>1.818165826503469</v>
+        <v>1.81925494111997</v>
       </c>
       <c r="M175" t="n">
-        <v>0.8903683131409678</v>
+        <v>0.8895477977373203</v>
       </c>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
@@ -8012,25 +8012,25 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H176" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I176" t="n">
-        <v>0.3890291919554117</v>
+        <v>0.3888620063385921</v>
       </c>
       <c r="J176" t="n">
-        <v>0.248362117091296</v>
+        <v>0.2484300787241495</v>
       </c>
       <c r="K176" t="n">
-        <v>0.3626086909532922</v>
+        <v>0.3627079149372583</v>
       </c>
       <c r="L176" t="n">
-        <v>1.529696266819527</v>
+        <v>1.529293933953035</v>
       </c>
       <c r="M176" t="n">
-        <v>1.10769504222718</v>
+        <v>1.107998151109707</v>
       </c>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
@@ -8051,25 +8051,25 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H177" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I177" t="n">
-        <v>0.4003762142000803</v>
+        <v>0.4002883239846405</v>
       </c>
       <c r="J177" t="n">
-        <v>0.2437495064227316</v>
+        <v>0.2437852341525851</v>
       </c>
       <c r="K177" t="n">
-        <v>0.3558742793771881</v>
+        <v>0.3559264418627743</v>
       </c>
       <c r="L177" t="n">
-        <v>1.557002921977429</v>
+        <v>1.556791413816696</v>
       </c>
       <c r="M177" t="n">
-        <v>1.087122798645383</v>
+        <v>1.08728214432053</v>
       </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
@@ -8090,25 +8090,25 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H178" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I178" t="n">
-        <v>0.4049330942295608</v>
+        <v>0.4048409808897926</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2418971161668452</v>
+        <v>0.2419345606139054</v>
       </c>
       <c r="K178" t="n">
-        <v>0.353169789603594</v>
+        <v>0.353224458496302</v>
       </c>
       <c r="L178" t="n">
-        <v>1.567969072292276</v>
+        <v>1.56774740116568</v>
       </c>
       <c r="M178" t="n">
-        <v>1.07886113810413</v>
+        <v>1.079028140338018</v>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
@@ -8182,25 +8182,25 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H180" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I180" t="n">
-        <v>0.3359391996428825</v>
+        <v>0.3355305883373152</v>
       </c>
       <c r="J180" t="n">
-        <v>0.2699434147793161</v>
+        <v>0.2701095169360507</v>
       </c>
       <c r="K180" t="n">
-        <v>0.3941173855778015</v>
+        <v>0.3943598947266341</v>
       </c>
       <c r="L180" t="n">
-        <v>1.401934984506449</v>
+        <v>1.40095165973858</v>
       </c>
       <c r="M180" t="n">
-        <v>1.20394762991575</v>
+        <v>1.204688445534786</v>
       </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
@@ -8221,25 +8221,25 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H181" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4589309554781702</v>
+        <v>0.4591315485025583</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2199467660657844</v>
+        <v>0.2198652241859519</v>
       </c>
       <c r="K181" t="n">
-        <v>0.3211222784560453</v>
+        <v>0.3210032273114898</v>
       </c>
       <c r="L181" t="n">
-        <v>1.697915144890556</v>
+        <v>1.698397872819165</v>
       </c>
       <c r="M181" t="n">
-        <v>0.9809625766533987</v>
+        <v>0.9805988998693456</v>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
@@ -8260,25 +8260,25 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H182" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4073681420572208</v>
+        <v>0.4072875879856355</v>
       </c>
       <c r="J182" t="n">
-        <v>0.240907259326333</v>
+        <v>0.240940004883888</v>
       </c>
       <c r="K182" t="n">
-        <v>0.3517245986164461</v>
+        <v>0.3517724071304764</v>
       </c>
       <c r="L182" t="n">
-        <v>1.573829024788109</v>
+        <v>1.573635171087383</v>
       </c>
       <c r="M182" t="n">
-        <v>1.074446376595445</v>
+        <v>1.07459242178214</v>
       </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
@@ -8299,25 +8299,25 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H183" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I183" t="n">
-        <v>0.3814264530436825</v>
+        <v>0.3812493567435547</v>
       </c>
       <c r="J183" t="n">
-        <v>0.2514526613643567</v>
+        <v>0.2515246517302623</v>
       </c>
       <c r="K183" t="n">
-        <v>0.3671208855919608</v>
+        <v>0.367225991526183</v>
       </c>
       <c r="L183" t="n">
-        <v>1.511400244723008</v>
+        <v>1.510974061756847</v>
       </c>
       <c r="M183" t="n">
-        <v>1.121478869685031</v>
+        <v>1.12179994671697</v>
       </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
@@ -8391,25 +8391,25 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H185" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I185" t="n">
-        <v>0.4232968698135112</v>
+        <v>0.4233200721922439</v>
       </c>
       <c r="J185" t="n">
-        <v>0.2344321667424751</v>
+        <v>0.2344227348812017</v>
       </c>
       <c r="K185" t="n">
-        <v>0.3422709634440137</v>
+        <v>0.3422571929265544</v>
       </c>
       <c r="L185" t="n">
-        <v>1.612161572884547</v>
+        <v>1.612217409503286</v>
       </c>
       <c r="M185" t="n">
-        <v>1.045567463671439</v>
+        <v>1.045525397570159</v>
       </c>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
@@ -8483,25 +8483,25 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H187" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I187" t="n">
-        <v>0.3996448607603365</v>
+        <v>0.3995534788804786</v>
       </c>
       <c r="J187" t="n">
-        <v>0.244046804568969</v>
+        <v>0.2440839516746022</v>
       </c>
       <c r="K187" t="n">
-        <v>0.3563083346706947</v>
+        <v>0.3563625694449192</v>
       </c>
       <c r="L187" t="n">
-        <v>1.555242916951704</v>
+        <v>1.555023006086355</v>
       </c>
       <c r="M187" t="n">
-        <v>1.088448748377602</v>
+        <v>1.088614424468726</v>
       </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
@@ -8522,25 +8522,25 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H188" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I188" t="n">
-        <v>0.4624632062748861</v>
+        <v>0.4626455926767324</v>
       </c>
       <c r="J188" t="n">
-        <v>0.2185108917581764</v>
+        <v>0.2184367509444177</v>
       </c>
       <c r="K188" t="n">
-        <v>0.3190259019669376</v>
+        <v>0.3189176563788499</v>
       </c>
       <c r="L188" t="n">
-        <v>1.706415520791596</v>
+        <v>1.706854434409047</v>
       </c>
       <c r="M188" t="n">
-        <v>0.9745585772414669</v>
+        <v>0.9742279092121031</v>
       </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
@@ -8561,25 +8561,25 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H189" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I189" t="n">
-        <v>0.3280757767664317</v>
+        <v>0.3276657320003717</v>
       </c>
       <c r="J189" t="n">
-        <v>0.273139928143727</v>
+        <v>0.273306613007979</v>
       </c>
       <c r="K189" t="n">
-        <v>0.3987842950898413</v>
+        <v>0.3990276549916493</v>
       </c>
       <c r="L189" t="n">
-        <v>1.383011625389136</v>
+        <v>1.382024850992764</v>
       </c>
       <c r="M189" t="n">
-        <v>1.218204079521022</v>
+        <v>1.218947494015586</v>
       </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
@@ -8653,25 +8653,25 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H191" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I191" t="n">
-        <v>0.3824152898970186</v>
+        <v>0.3822427790712562</v>
       </c>
       <c r="J191" t="n">
-        <v>0.2510506951638136</v>
+        <v>0.2511208215157495</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3665340149391678</v>
+        <v>0.3666363994129943</v>
       </c>
       <c r="L191" t="n">
-        <v>1.513779884630224</v>
+        <v>1.513364736626763</v>
       </c>
       <c r="M191" t="n">
-        <v>1.119686100430608</v>
+        <v>1.119998863960243</v>
       </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
@@ -8692,25 +8692,25 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H192" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I192" t="n">
-        <v>0.3205827873339375</v>
+        <v>0.3200969030491047</v>
       </c>
       <c r="J192" t="n">
-        <v>0.2761858588073424</v>
+        <v>0.2763833727442664</v>
       </c>
       <c r="K192" t="n">
-        <v>0.4032313538587199</v>
+        <v>0.403519724206629</v>
       </c>
       <c r="L192" t="n">
-        <v>1.364979715860533</v>
+        <v>1.363810433353943</v>
       </c>
       <c r="M192" t="n">
-        <v>1.231788930280747</v>
+        <v>1.232669842439428</v>
       </c>
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr"/>
@@ -8731,25 +8731,25 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H193" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="I193" t="n">
-        <v>0.4769638829642195</v>
+        <v>0.4772690540986668</v>
       </c>
       <c r="J193" t="n">
-        <v>0.2126163077381222</v>
+        <v>0.2124922544314363</v>
       </c>
       <c r="K193" t="n">
-        <v>0.3104198092976584</v>
+        <v>0.3102386914698969</v>
       </c>
       <c r="L193" t="n">
-        <v>1.741311458190317</v>
+        <v>1.742045853765897</v>
       </c>
       <c r="M193" t="n">
-        <v>0.9482687325120249</v>
+        <v>0.9477154547642057</v>
       </c>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr"/>
@@ -8770,25 +8770,25 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H194" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I194" t="n">
-        <v>0.3721308929631649</v>
+        <v>0.3718850284889653</v>
       </c>
       <c r="J194" t="n">
-        <v>0.2552313443239168</v>
+        <v>0.2553312892321279</v>
       </c>
       <c r="K194" t="n">
-        <v>0.3726377627129184</v>
+        <v>0.3727836822789068</v>
       </c>
       <c r="L194" t="n">
-        <v>1.489030441602413</v>
+        <v>1.488438767745803</v>
       </c>
       <c r="M194" t="n">
-        <v>1.138331795684669</v>
+        <v>1.138777549975291</v>
       </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
@@ -8862,25 +8862,25 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H196" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I196" t="n">
-        <v>0.526863607546816</v>
+        <v>0.5273313639287687</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1923318668508878</v>
+        <v>0.1921417219801753</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2808045256022961</v>
+        <v>0.280526914091056</v>
       </c>
       <c r="L196" t="n">
-        <v>1.861395348242744</v>
+        <v>1.862521005877362</v>
       </c>
       <c r="M196" t="n">
-        <v>0.8578001261549595</v>
+        <v>0.8569520800315821</v>
       </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
@@ -8954,25 +8954,25 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="n">
-        <v>82.6086446079</v>
+        <v>82.5144799489</v>
       </c>
       <c r="H198" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I198" t="n">
-        <v>0.4972474834810845</v>
+        <v>0.497593444331789</v>
       </c>
       <c r="J198" t="n">
-        <v>0.2043709416743559</v>
+        <v>0.2042303071821996</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2983815748445596</v>
+        <v>0.2981762484860114</v>
       </c>
       <c r="L198" t="n">
-        <v>1.790124025287813</v>
+        <v>1.790956581481378</v>
       </c>
       <c r="M198" t="n">
-        <v>0.9114943998676274</v>
+        <v>0.9108671700326101</v>
       </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
@@ -9099,25 +9099,25 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H201" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I201" t="n">
-        <v>0.5448970163020987</v>
+        <v>0.5455050423114276</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1850012128853257</v>
+        <v>0.1847540478408831</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2701017708125755</v>
+        <v>0.2697409098476893</v>
       </c>
       <c r="L201" t="n">
-        <v>1.904792819718872</v>
+        <v>1.906256036781972</v>
       </c>
       <c r="M201" t="n">
-        <v>0.8251054094685526</v>
+        <v>0.8240030533703384</v>
       </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
@@ -9138,25 +9138,25 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H202" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I202" t="n">
-        <v>0.3539679049082303</v>
+        <v>0.3536546030728451</v>
       </c>
       <c r="J202" t="n">
-        <v>0.2626146728015324</v>
+        <v>0.2627420312712012</v>
       </c>
       <c r="K202" t="n">
-        <v>0.3834174222902373</v>
+        <v>0.3836033656559537</v>
       </c>
       <c r="L202" t="n">
-        <v>1.445321137014928</v>
+        <v>1.444567174874489</v>
       </c>
       <c r="M202" t="n">
-        <v>1.171261440694835</v>
+        <v>1.171829459469557</v>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
@@ -9230,25 +9230,25 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H204" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I204" t="n">
-        <v>0.3693048576963665</v>
+        <v>0.3690605144625114</v>
       </c>
       <c r="J204" t="n">
-        <v>0.2563801391478185</v>
+        <v>0.2564794656656458</v>
       </c>
       <c r="K204" t="n">
-        <v>0.3743150031558151</v>
+        <v>0.3744600198718428</v>
       </c>
       <c r="L204" t="n">
-        <v>1.482229576244914</v>
+        <v>1.481641563259377</v>
       </c>
       <c r="M204" t="n">
-        <v>1.143455420599271</v>
+        <v>1.14389841686878</v>
       </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
@@ -9322,25 +9322,25 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H206" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I206" t="n">
-        <v>0.3032874951404021</v>
+        <v>0.3027596835990045</v>
       </c>
       <c r="J206" t="n">
-        <v>0.2832164653900804</v>
+        <v>0.2834310229272339</v>
       </c>
       <c r="K206" t="n">
-        <v>0.4134960394695175</v>
+        <v>0.4138092934737616</v>
       </c>
       <c r="L206" t="n">
-        <v>1.323358524890724</v>
+        <v>1.322088344270775</v>
       </c>
       <c r="M206" t="n">
-        <v>1.263145435639759</v>
+        <v>1.264102362255463</v>
       </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
@@ -9361,25 +9361,25 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H207" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I207" t="n">
-        <v>0.4949557335729992</v>
+        <v>0.4953179621594342</v>
       </c>
       <c r="J207" t="n">
-        <v>0.2053025473280491</v>
+        <v>0.2051552999351894</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2997417190989518</v>
+        <v>0.2995267379053764</v>
       </c>
       <c r="L207" t="n">
-        <v>1.784608919817949</v>
+        <v>1.785480624383679</v>
       </c>
       <c r="M207" t="n">
-        <v>0.9156493610830991</v>
+        <v>0.9149926377109445</v>
       </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
@@ -9400,25 +9400,25 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H208" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I208" t="n">
-        <v>0.3716594695403388</v>
+        <v>0.3714258341746111</v>
       </c>
       <c r="J208" t="n">
-        <v>0.2554229798616509</v>
+        <v>0.2555179535875565</v>
       </c>
       <c r="K208" t="n">
-        <v>0.3729175505980103</v>
+        <v>0.3730562122378325</v>
       </c>
       <c r="L208" t="n">
-        <v>1.487895959219027</v>
+        <v>1.487333714761666</v>
       </c>
       <c r="M208" t="n">
-        <v>1.139186490182963</v>
+        <v>1.139610073000502</v>
       </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
@@ -9439,25 +9439,25 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H209" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I209" t="n">
-        <v>0.416045441895793</v>
+        <v>0.4160188611213437</v>
       </c>
       <c r="J209" t="n">
-        <v>0.2373799016683768</v>
+        <v>0.2373907068612424</v>
       </c>
       <c r="K209" t="n">
-        <v>0.3465746564358301</v>
+        <v>0.346590432017414</v>
       </c>
       <c r="L209" t="n">
-        <v>1.594710982123209</v>
+        <v>1.594647015381445</v>
       </c>
       <c r="M209" t="n">
-        <v>1.058714361440961</v>
+        <v>1.058762552601141</v>
       </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
@@ -9478,25 +9478,25 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H210" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I210" t="n">
-        <v>0.3334445586372924</v>
+        <v>0.3330415536520219</v>
       </c>
       <c r="J210" t="n">
-        <v>0.2709574964889055</v>
+        <v>0.2711213196536497</v>
       </c>
       <c r="K210" t="n">
-        <v>0.395597944873802</v>
+        <v>0.3958371266943285</v>
       </c>
       <c r="L210" t="n">
-        <v>1.395931620785679</v>
+        <v>1.394961787650394</v>
       </c>
       <c r="M210" t="n">
-        <v>1.208470434340519</v>
+        <v>1.209201085655277</v>
       </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
@@ -9570,25 +9570,25 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H212" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I212" t="n">
-        <v>0.3546382254753915</v>
+        <v>0.3543279064454411</v>
       </c>
       <c r="J212" t="n">
-        <v>0.262342184766101</v>
+        <v>0.2624683307132353</v>
       </c>
       <c r="K212" t="n">
-        <v>0.3830195897585075</v>
+        <v>0.3832037628413236</v>
       </c>
       <c r="L212" t="n">
-        <v>1.446934266184682</v>
+        <v>1.446187482177647</v>
       </c>
       <c r="M212" t="n">
-        <v>1.170046144056811</v>
+        <v>1.170608754981029</v>
       </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
@@ -9609,25 +9609,25 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H213" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I213" t="n">
-        <v>0.4347552227892376</v>
+        <v>0.4348192081907972</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2297742996791718</v>
+        <v>0.2297482893533345</v>
       </c>
       <c r="K213" t="n">
-        <v>0.3354704775315908</v>
+        <v>0.3354325024558684</v>
       </c>
       <c r="L213" t="n">
-        <v>1.639736145899303</v>
+        <v>1.63989012702826</v>
       </c>
       <c r="M213" t="n">
-        <v>1.024793376569106</v>
+        <v>1.024677370515872</v>
       </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
@@ -9701,25 +9701,25 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H215" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I215" t="n">
-        <v>0.3606759369079945</v>
+        <v>0.3603947950916414</v>
       </c>
       <c r="J215" t="n">
-        <v>0.2598878305252055</v>
+        <v>0.2600021158164059</v>
       </c>
       <c r="K215" t="n">
-        <v>0.3794362325668</v>
+        <v>0.3796030890919527</v>
       </c>
       <c r="L215" t="n">
-        <v>1.461464043290783</v>
+        <v>1.460787474366877</v>
       </c>
       <c r="M215" t="n">
-        <v>1.159099724142416</v>
+        <v>1.15960943654117</v>
       </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
@@ -9740,25 +9740,25 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H216" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I216" t="n">
-        <v>0.3707193366123102</v>
+        <v>0.3704814223582683</v>
       </c>
       <c r="J216" t="n">
-        <v>0.2558051477185731</v>
+        <v>0.2559018608299722</v>
       </c>
       <c r="K216" t="n">
-        <v>0.3734755156691167</v>
+        <v>0.3736167168117595</v>
       </c>
       <c r="L216" t="n">
-        <v>1.485633525506047</v>
+        <v>1.485060983886564</v>
       </c>
       <c r="M216" t="n">
-        <v>1.140890958824836</v>
+        <v>1.141322299301676</v>
       </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
@@ -9779,25 +9779,25 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H217" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I217" t="n">
-        <v>0.4170635157984257</v>
+        <v>0.4170418181469858</v>
       </c>
       <c r="J217" t="n">
-        <v>0.2369660504884448</v>
+        <v>0.2369748706719569</v>
       </c>
       <c r="K217" t="n">
-        <v>0.3459704337131295</v>
+        <v>0.3459833111810572</v>
       </c>
       <c r="L217" t="n">
-        <v>1.597160981108407</v>
+        <v>1.597108765622015</v>
       </c>
       <c r="M217" t="n">
-        <v>1.056868585178464</v>
+        <v>1.056907923196928</v>
       </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
@@ -9871,25 +9871,25 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H219" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I219" t="n">
-        <v>0.5130619326861714</v>
+        <v>0.5135277288120627</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1979423037861092</v>
+        <v>0.1977529557674542</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2889957635277194</v>
+        <v>0.2887193154204832</v>
       </c>
       <c r="L219" t="n">
-        <v>1.828181561586234</v>
+        <v>1.829302501856671</v>
       </c>
       <c r="M219" t="n">
-        <v>0.8828226748860469</v>
+        <v>0.8819781827228459</v>
       </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
@@ -9910,25 +9910,25 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H220" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I220" t="n">
-        <v>0.3377506589265244</v>
+        <v>0.3373661955264884</v>
       </c>
       <c r="J220" t="n">
-        <v>0.26920704921686</v>
+        <v>0.269363335151834</v>
       </c>
       <c r="K220" t="n">
-        <v>0.3930422918566156</v>
+        <v>0.3932704693216776</v>
       </c>
       <c r="L220" t="n">
-        <v>1.406294268636189</v>
+        <v>1.405369055901143</v>
       </c>
       <c r="M220" t="n">
-        <v>1.200663439507196</v>
+        <v>1.20136047477718</v>
       </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
@@ -9949,25 +9949,25 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H221" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4539138042611002</v>
+        <v>0.4540719743558064</v>
       </c>
       <c r="J221" t="n">
-        <v>0.2219862584304471</v>
+        <v>0.2219219616439811</v>
       </c>
       <c r="K221" t="n">
-        <v>0.3240999373084527</v>
+        <v>0.3240060640002125</v>
       </c>
       <c r="L221" t="n">
-        <v>1.685841350091753</v>
+        <v>1.686221987067632</v>
       </c>
       <c r="M221" t="n">
-        <v>0.9900587125997938</v>
+        <v>0.9897719489321559</v>
       </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
@@ -10041,25 +10041,25 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H223" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3013790941459911</v>
+        <v>0.3008723259405557</v>
       </c>
       <c r="J223" t="n">
-        <v>0.2839922381520362</v>
+        <v>0.284198241487579</v>
       </c>
       <c r="K223" t="n">
-        <v>0.4146286677019728</v>
+        <v>0.4149294325718653</v>
       </c>
       <c r="L223" t="n">
-        <v>1.318765950139946</v>
+        <v>1.317546410393533</v>
       </c>
       <c r="M223" t="n">
-        <v>1.266605382158081</v>
+        <v>1.267524157034602</v>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
@@ -10080,25 +10080,25 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="H224" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I224" t="n">
-        <v>0.4597725555817894</v>
+        <v>0.4599506439710668</v>
       </c>
       <c r="J224" t="n">
-        <v>0.2196046522025246</v>
+        <v>0.2195322585483468</v>
       </c>
       <c r="K224" t="n">
-        <v>0.3206227922156859</v>
+        <v>0.3205170974805864</v>
       </c>
       <c r="L224" t="n">
-        <v>1.699940458961054</v>
+        <v>1.700369029393787</v>
       </c>
       <c r="M224" t="n">
-        <v>0.9794367488232598</v>
+        <v>0.979113873125627</v>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
@@ -10119,25 +10119,25 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H225" t="n">
-        <v>81.5973590224</v>
+        <v>81.4987055711</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3279595116162401</v>
+        <v>0.3275418382898226</v>
       </c>
       <c r="J225" t="n">
-        <v>0.2731871903999025</v>
+        <v>0.2733569763049501</v>
       </c>
       <c r="K225" t="n">
-        <v>0.3988532979838575</v>
+        <v>0.3991011854052272</v>
       </c>
       <c r="L225" t="n">
-        <v>1.382731832832578</v>
+        <v>1.381726700274695</v>
       </c>
       <c r="M225" t="n">
-        <v>1.218414869183565</v>
+        <v>1.219172114320078</v>
       </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
@@ -10211,25 +10211,25 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H227" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I227" t="n">
-        <v>0.2994793779964219</v>
+        <v>0.2989290208811824</v>
       </c>
       <c r="J227" t="n">
-        <v>0.2847644804892594</v>
+        <v>0.2849882028938283</v>
       </c>
       <c r="K227" t="n">
-        <v>0.4157561415143187</v>
+        <v>0.4160827762249893</v>
       </c>
       <c r="L227" t="n">
-        <v>1.314194275503584</v>
+        <v>1.312869838868536</v>
       </c>
       <c r="M227" t="n">
-        <v>1.270049582982097</v>
+        <v>1.271047384906474</v>
       </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
@@ -10303,25 +10303,25 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H229" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I229" t="n">
-        <v>0.287447703831104</v>
+        <v>0.2871984629668161</v>
       </c>
       <c r="J229" t="n">
-        <v>0.2928786485754842</v>
+        <v>0.2934917811016326</v>
       </c>
       <c r="K229" t="n">
-        <v>0.4196736475934119</v>
+        <v>0.4193097559315514</v>
       </c>
       <c r="L229" t="n">
-        <v>1.282016759086724</v>
+        <v>1.280905144831999</v>
       </c>
       <c r="M229" t="n">
-        <v>1.298309593319865</v>
+        <v>1.299785099236449</v>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
@@ -10395,25 +10395,25 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H231" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I231" t="n">
-        <v>0.3519388616389647</v>
+        <v>0.351608030102011</v>
       </c>
       <c r="J231" t="n">
-        <v>0.2634394871386322</v>
+        <v>0.2635739715032476</v>
       </c>
       <c r="K231" t="n">
-        <v>0.3846216512224031</v>
+        <v>0.3848179983947415</v>
       </c>
       <c r="L231" t="n">
-        <v>1.440438236139297</v>
+        <v>1.439642088700775</v>
       </c>
       <c r="M231" t="n">
-        <v>1.1749401126383</v>
+        <v>1.175539912904484</v>
       </c>
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr"/>
@@ -10487,25 +10487,25 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H233" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I233" t="n">
-        <v>0.2865618409961695</v>
+        <v>0.2863072415333882</v>
       </c>
       <c r="J233" t="n">
-        <v>0.2950578711494231</v>
+        <v>0.2956841858278652</v>
       </c>
       <c r="K233" t="n">
-        <v>0.4183802878544074</v>
+        <v>0.4180085726387467</v>
       </c>
       <c r="L233" t="n">
-        <v>1.278065810842916</v>
+        <v>1.276930297238911</v>
       </c>
       <c r="M233" t="n">
-        <v>1.303553901302676</v>
+        <v>1.305061130122342</v>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
@@ -10526,25 +10526,25 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H234" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I234" t="n">
-        <v>0.4803394179938037</v>
+        <v>0.4806394879648248</v>
       </c>
       <c r="J234" t="n">
-        <v>0.2112441390269091</v>
+        <v>0.2111221593638923</v>
       </c>
       <c r="K234" t="n">
-        <v>0.3084164429792872</v>
+        <v>0.3082383526712828</v>
       </c>
       <c r="L234" t="n">
-        <v>1.749434696960698</v>
+        <v>1.750156816565757</v>
       </c>
       <c r="M234" t="n">
-        <v>0.9421488600600143</v>
+        <v>0.9416048307629599</v>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
@@ -10565,25 +10565,25 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H235" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I235" t="n">
-        <v>0.3197035877788009</v>
+        <v>0.3192332071526058</v>
       </c>
       <c r="J235" t="n">
-        <v>0.2765432570004874</v>
+        <v>0.2767344686371521</v>
       </c>
       <c r="K235" t="n">
-        <v>0.4037531552207117</v>
+        <v>0.404032324210242</v>
       </c>
       <c r="L235" t="n">
-        <v>1.362863918557114</v>
+        <v>1.361731945668059</v>
       </c>
       <c r="M235" t="n">
-        <v>1.233382926222174</v>
+        <v>1.234235730121698</v>
       </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
@@ -10604,25 +10604,25 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H236" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I236" t="n">
-        <v>0.5038126631292535</v>
+        <v>0.5042275703268794</v>
       </c>
       <c r="J236" t="n">
-        <v>0.201702169459653</v>
+        <v>0.2015335079972035</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2944851674110934</v>
+        <v>0.2942389216759171</v>
       </c>
       <c r="L236" t="n">
-        <v>1.805923156798854</v>
+        <v>1.806921632656555</v>
       </c>
       <c r="M236" t="n">
-        <v>0.8995916757900524</v>
+        <v>0.8988394456675277</v>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
@@ -10696,25 +10696,25 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H238" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I238" t="n">
-        <v>0.5776870004964406</v>
+        <v>0.5784388735193247</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1716719510177071</v>
+        <v>0.1713663115775103</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2506410484858523</v>
+        <v>0.2501948149031651</v>
       </c>
       <c r="L238" t="n">
-        <v>1.983702049975174</v>
+        <v>1.985511435461139</v>
       </c>
       <c r="M238" t="n">
-        <v>0.7656569015389736</v>
+        <v>0.764293749635696</v>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
@@ -10735,25 +10735,25 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H239" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I239" t="n">
-        <v>0.2659339244027844</v>
+        <v>0.2655548684513571</v>
       </c>
       <c r="J239" t="n">
-        <v>0.3458025459691505</v>
+        <v>0.3467350236096615</v>
       </c>
       <c r="K239" t="n">
-        <v>0.3882635296280652</v>
+        <v>0.3877101079389814</v>
       </c>
       <c r="L239" t="n">
-        <v>1.186065302836418</v>
+        <v>1.184374713293053</v>
       </c>
       <c r="M239" t="n">
-        <v>1.425671167535517</v>
+        <v>1.427915178767966</v>
       </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
@@ -10827,25 +10827,25 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H241" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I241" t="n">
-        <v>0.2869157239197311</v>
+        <v>0.286663265393541</v>
       </c>
       <c r="J241" t="n">
-        <v>0.2941873191574615</v>
+        <v>0.2948083671318893</v>
       </c>
       <c r="K241" t="n">
-        <v>0.4188969569228074</v>
+        <v>0.4185283674745698</v>
       </c>
       <c r="L241" t="n">
-        <v>1.279644128682001</v>
+        <v>1.278518163655193</v>
       </c>
       <c r="M241" t="n">
-        <v>1.301458914395192</v>
+        <v>1.302953468870238</v>
       </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
@@ -10866,25 +10866,25 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H242" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I242" t="n">
-        <v>0.4286456096087005</v>
+        <v>0.4286743379741209</v>
       </c>
       <c r="J242" t="n">
-        <v>0.232257882272886</v>
+        <v>0.2322462040755607</v>
       </c>
       <c r="K242" t="n">
-        <v>0.3390965081184135</v>
+        <v>0.3390794579503185</v>
       </c>
       <c r="L242" t="n">
-        <v>1.625033336944515</v>
+        <v>1.625102471872681</v>
       </c>
       <c r="M242" t="n">
-        <v>1.035870154937071</v>
+        <v>1.035818070177001</v>
       </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
@@ -10905,25 +10905,25 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H243" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I243" t="n">
-        <v>0.3686319626740068</v>
+        <v>0.3683910185093478</v>
       </c>
       <c r="J243" t="n">
-        <v>0.2566536737097533</v>
+        <v>0.2567516184921351</v>
       </c>
       <c r="K243" t="n">
-        <v>0.3747143636162398</v>
+        <v>0.3748573629985171</v>
       </c>
       <c r="L243" t="n">
-        <v>1.48061025163826</v>
+        <v>1.480030418526561</v>
       </c>
       <c r="M243" t="n">
-        <v>1.1446753847455</v>
+        <v>1.145112218474922</v>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
@@ -10944,25 +10944,25 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H244" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I244" t="n">
-        <v>0.4851617598620356</v>
+        <v>0.485485618458262</v>
       </c>
       <c r="J244" t="n">
-        <v>0.2092838374544571</v>
+        <v>0.2091521876185927</v>
       </c>
       <c r="K244" t="n">
-        <v>0.3055544026835073</v>
+        <v>0.3053621939231453</v>
       </c>
       <c r="L244" t="n">
-        <v>1.761039682269614</v>
+        <v>1.761819049297931</v>
       </c>
       <c r="M244" t="n">
-        <v>0.9334059150468785</v>
+        <v>0.9328187567789235</v>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
@@ -11036,25 +11036,25 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="H246" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I246" t="n">
-        <v>0.6390570159638354</v>
+        <v>0.6400311114734623</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1467247902586035</v>
+        <v>0.1463288164742023</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2142181937775611</v>
+        <v>0.2136400720523354</v>
       </c>
       <c r="L246" t="n">
-        <v>2.131389241669067</v>
+        <v>2.133733406472722</v>
       </c>
       <c r="M246" t="n">
-        <v>0.6543925645533717</v>
+        <v>0.6526265214749425</v>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr"/>
@@ -11075,25 +11075,25 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H247" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I247" t="n">
-        <v>0.2403551881692335</v>
+        <v>0.2398334897011425</v>
       </c>
       <c r="J247" t="n">
-        <v>0.4087262371036856</v>
+        <v>0.4100096153351895</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3509185747270809</v>
+        <v>0.350156894963668</v>
       </c>
       <c r="L247" t="n">
-        <v>1.071984139234781</v>
+        <v>1.069657364067095</v>
       </c>
       <c r="M247" t="n">
-        <v>1.577097286038138</v>
+        <v>1.580185740969236</v>
       </c>
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr"/>
@@ -11167,25 +11167,25 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H249" t="n">
-        <v>85.7298077551</v>
+        <v>85.6514534866</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2523193726884894</v>
+        <v>0.2518601573952892</v>
       </c>
       <c r="J249" t="n">
-        <v>0.3792943431863162</v>
+        <v>0.3804240128075885</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3683862841251944</v>
+        <v>0.3677158297971223</v>
       </c>
       <c r="L249" t="n">
-        <v>1.125344402190662</v>
+        <v>1.12329630198299</v>
       </c>
       <c r="M249" t="n">
-        <v>1.506269313684143</v>
+        <v>1.508987868219888</v>
       </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
@@ -11206,25 +11206,25 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H250" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I250" t="n">
-        <v>0.4107809688794535</v>
+        <v>0.4107300661643375</v>
       </c>
       <c r="J250" t="n">
-        <v>0.2395199313498156</v>
+        <v>0.2395406235104319</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3496990997707308</v>
+        <v>0.3497293103252306</v>
       </c>
       <c r="L250" t="n">
-        <v>1.582042006409091</v>
+        <v>1.581919508818243</v>
       </c>
       <c r="M250" t="n">
-        <v>1.068258893820178</v>
+        <v>1.068351180856526</v>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
@@ -11298,25 +11298,25 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H252" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I252" t="n">
-        <v>0.3413622708311115</v>
+        <v>0.3409890945831521</v>
       </c>
       <c r="J252" t="n">
-        <v>0.2677389142962961</v>
+        <v>0.2678906119580682</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3908988148725924</v>
+        <v>0.3911202934587796</v>
       </c>
       <c r="L252" t="n">
-        <v>1.414985627365927</v>
+        <v>1.414087577208236</v>
       </c>
       <c r="M252" t="n">
-        <v>1.194115557761481</v>
+        <v>1.194792129332984</v>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
@@ -11443,25 +11443,25 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H255" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I255" t="n">
-        <v>0.3759484622056529</v>
+        <v>0.3757335766621379</v>
       </c>
       <c r="J255" t="n">
-        <v>0.2536794869082712</v>
+        <v>0.2537668387552285</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3703720508860759</v>
+        <v>0.3704995845826336</v>
       </c>
       <c r="L255" t="n">
-        <v>1.498217437503035</v>
+        <v>1.497700314569047</v>
       </c>
       <c r="M255" t="n">
-        <v>1.131410511610889</v>
+        <v>1.131800100848319</v>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
@@ -11482,25 +11482,25 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H256" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3732768781011678</v>
+        <v>0.3730488401812059</v>
       </c>
       <c r="J256" t="n">
-        <v>0.2547654967068423</v>
+        <v>0.2548581950482903</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3719576251919898</v>
+        <v>0.3720929647705039</v>
       </c>
       <c r="L256" t="n">
-        <v>1.491788259495493</v>
+        <v>1.491239485314122</v>
       </c>
       <c r="M256" t="n">
-        <v>1.136254115312517</v>
+        <v>1.136667549915375</v>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
@@ -11521,25 +11521,25 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H257" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I257" t="n">
-        <v>0.4176235284954314</v>
+        <v>0.4176064268251434</v>
       </c>
       <c r="J257" t="n">
-        <v>0.2367384030506376</v>
+        <v>0.2367453549491287</v>
       </c>
       <c r="K257" t="n">
-        <v>0.345638068453931</v>
+        <v>0.3456482182257279</v>
       </c>
       <c r="L257" t="n">
-        <v>1.598508653940225</v>
+        <v>1.598467498701158</v>
       </c>
       <c r="M257" t="n">
-        <v>1.055853277605844</v>
+        <v>1.055884283073114</v>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
@@ -11560,25 +11560,25 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H258" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I258" t="n">
-        <v>0.3955000768056728</v>
+        <v>0.3953764170006911</v>
       </c>
       <c r="J258" t="n">
-        <v>0.245731676095255</v>
+        <v>0.2457819443086622</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3587682470990722</v>
+        <v>0.3588416386906468</v>
       </c>
       <c r="L258" t="n">
-        <v>1.545268477516091</v>
+        <v>1.54497088969272</v>
       </c>
       <c r="M258" t="n">
-        <v>1.095963275384837</v>
+        <v>1.096187471616633</v>
       </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
@@ -11599,25 +11599,25 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H259" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I259" t="n">
-        <v>0.3940719080909748</v>
+        <v>0.3939414832933278</v>
       </c>
       <c r="J259" t="n">
-        <v>0.2463122324833436</v>
+        <v>0.2463652506937692</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3596158594256816</v>
+        <v>0.359693266012903</v>
       </c>
       <c r="L259" t="n">
-        <v>1.541831583698606</v>
+        <v>1.541517715892886</v>
       </c>
       <c r="M259" t="n">
-        <v>1.098552556875712</v>
+        <v>1.098789018094211</v>
       </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
@@ -11638,25 +11638,25 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H260" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I260" t="n">
-        <v>0.4684878092639566</v>
+        <v>0.4687133254283711</v>
       </c>
       <c r="J260" t="n">
-        <v>0.2160618661528632</v>
+        <v>0.2159701929152963</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3154503245831803</v>
+        <v>0.3153164816563326</v>
       </c>
       <c r="L260" t="n">
-        <v>1.72091375237505</v>
+        <v>1.721456457941446</v>
       </c>
       <c r="M260" t="n">
-        <v>0.9636359230417699</v>
+        <v>0.9632270604022215</v>
       </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
@@ -11677,25 +11677,25 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H261" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I261" t="n">
-        <v>0.3229639515815958</v>
+        <v>0.3225210960715573</v>
       </c>
       <c r="J261" t="n">
-        <v>0.2752179058611399</v>
+        <v>0.2753979284261962</v>
       </c>
       <c r="K261" t="n">
-        <v>0.4018181425572643</v>
+        <v>0.4020809755022465</v>
       </c>
       <c r="L261" t="n">
-        <v>1.370709997302052</v>
+        <v>1.369644263716918</v>
       </c>
       <c r="M261" t="n">
-        <v>1.227471860140684</v>
+        <v>1.228274760780835</v>
       </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
@@ -11769,25 +11769,25 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H263" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I263" t="n">
-        <v>0.3769317513222139</v>
+        <v>0.3767213770789182</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2532797758852789</v>
+        <v>0.2533652938703585</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3697884727925072</v>
+        <v>0.3699133290507234</v>
       </c>
       <c r="L263" t="n">
-        <v>1.500583726759149</v>
+        <v>1.500077460287478</v>
       </c>
       <c r="M263" t="n">
-        <v>1.129627800448344</v>
+        <v>1.130009210661799</v>
       </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
@@ -11808,25 +11808,25 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H264" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I264" t="n">
-        <v>0.3258796129989894</v>
+        <v>0.3254272972427991</v>
       </c>
       <c r="J264" t="n">
-        <v>0.2740326776426872</v>
+        <v>0.2742165458362605</v>
       </c>
       <c r="K264" t="n">
-        <v>0.4000877093583233</v>
+        <v>0.4003561569209404</v>
       </c>
       <c r="L264" t="n">
-        <v>1.377726548355292</v>
+        <v>1.376638048649338</v>
       </c>
       <c r="M264" t="n">
-        <v>1.222185742286385</v>
+        <v>1.223005794429722</v>
       </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
@@ -11847,25 +11847,25 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H265" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I265" t="n">
-        <v>0.4711589029851181</v>
+        <v>0.4714225024276729</v>
       </c>
       <c r="J265" t="n">
-        <v>0.2149760556971064</v>
+        <v>0.2148689014521655</v>
       </c>
       <c r="K265" t="n">
-        <v>0.3138650413177754</v>
+        <v>0.3137085961201616</v>
       </c>
       <c r="L265" t="n">
-        <v>1.72734175027313</v>
+        <v>1.72797610340318</v>
       </c>
       <c r="M265" t="n">
-        <v>0.9587932084090947</v>
+        <v>0.958315300476658</v>
       </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
@@ -11886,25 +11886,25 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H266" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I266" t="n">
-        <v>0.3778058122892006</v>
+        <v>0.3775988695967718</v>
       </c>
       <c r="J266" t="n">
-        <v>0.2529244665491055</v>
+        <v>0.2530085895948082</v>
       </c>
       <c r="K266" t="n">
-        <v>0.369269721161694</v>
+        <v>0.36939254080842</v>
       </c>
       <c r="L266" t="n">
-        <v>1.502687158029296</v>
+        <v>1.502189149598735</v>
       </c>
       <c r="M266" t="n">
-        <v>1.12804312080901</v>
+        <v>1.128418309592845</v>
       </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
@@ -11978,25 +11978,25 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H268" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I268" t="n">
-        <v>0.5328954544774344</v>
+        <v>0.533405331464759</v>
       </c>
       <c r="J268" t="n">
-        <v>0.1898798965538885</v>
+        <v>0.1896726294858703</v>
       </c>
       <c r="K268" t="n">
-        <v>0.2772246489686772</v>
+        <v>0.2769220390493707</v>
       </c>
       <c r="L268" t="n">
-        <v>1.87591101240098</v>
+        <v>1.877138033443648</v>
       </c>
       <c r="M268" t="n">
-        <v>0.8468643386303425</v>
+        <v>0.8459399275069817</v>
       </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
@@ -12017,25 +12017,25 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H269" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="I269" t="n">
-        <v>0.2797660076388494</v>
+        <v>0.2794854426982155</v>
       </c>
       <c r="J269" t="n">
-        <v>0.3117756212084303</v>
+        <v>0.3124658109623898</v>
       </c>
       <c r="K269" t="n">
-        <v>0.4084583711527202</v>
+        <v>0.4080487463393946</v>
       </c>
       <c r="L269" t="n">
-        <v>1.247756394069268</v>
+        <v>1.246505074434041</v>
       </c>
       <c r="M269" t="n">
-        <v>1.343785234778011</v>
+        <v>1.345446179226564</v>
       </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
@@ -12056,25 +12056,25 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="n">
-        <v>82.7716245167</v>
+        <v>82.6786173867</v>
       </c>
       <c r="H270" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I270" t="n">
-        <v>0.5033009471864067</v>
+        <v>0.5036898921645471</v>
       </c>
       <c r="J270" t="n">
-        <v>0.2019101840705664</v>
+        <v>0.2017520763558752</v>
       </c>
       <c r="K270" t="n">
-        <v>0.294788868743027</v>
+        <v>0.2945580314795778</v>
       </c>
       <c r="L270" t="n">
-        <v>1.804691710302247</v>
+        <v>1.805627707973219</v>
       </c>
       <c r="M270" t="n">
-        <v>0.9005194209547263</v>
+        <v>0.8998142605472033</v>
       </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
@@ -12148,25 +12148,25 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H272" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I272" t="n">
-        <v>0.3260006259669065</v>
+        <v>0.3255625980739626</v>
       </c>
       <c r="J272" t="n">
-        <v>0.2739834853793063</v>
+        <v>0.2741615454983892</v>
       </c>
       <c r="K272" t="n">
-        <v>0.4000158886537872</v>
+        <v>0.4002758564276482</v>
       </c>
       <c r="L272" t="n">
-        <v>1.378017766554507</v>
+        <v>1.376963650649536</v>
       </c>
       <c r="M272" t="n">
-        <v>1.221966344791706</v>
+        <v>1.222760492922816</v>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
@@ -12240,25 +12240,25 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H274" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I274" t="n">
-        <v>0.3965783813541587</v>
+        <v>0.3964597625725714</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2452933409129436</v>
+        <v>0.245341559929849</v>
       </c>
       <c r="K274" t="n">
-        <v>0.3581282777328977</v>
+        <v>0.3581986774975796</v>
       </c>
       <c r="L274" t="n">
-        <v>1.547863421795374</v>
+        <v>1.547577965215294</v>
       </c>
       <c r="M274" t="n">
-        <v>1.094008300471728</v>
+        <v>1.094223357287127</v>
       </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
@@ -12332,25 +12332,25 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H276" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I276" t="n">
-        <v>0.3572580612368796</v>
+        <v>0.3569575636941339</v>
       </c>
       <c r="J276" t="n">
-        <v>0.2612772108793172</v>
+        <v>0.2613993643519781</v>
       </c>
       <c r="K276" t="n">
-        <v>0.3814647278838031</v>
+        <v>0.381643071953888</v>
       </c>
       <c r="L276" t="n">
-        <v>1.453238911594442</v>
+        <v>1.452515763036289</v>
       </c>
       <c r="M276" t="n">
-        <v>1.165296360521755</v>
+        <v>1.165841165009822</v>
       </c>
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr"/>
@@ -12371,25 +12371,25 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H277" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I277" t="n">
-        <v>0.4338662832961238</v>
+        <v>0.4339278978671034</v>
       </c>
       <c r="J277" t="n">
-        <v>0.2301356571966977</v>
+        <v>0.2301106106231287</v>
       </c>
       <c r="K277" t="n">
-        <v>0.3359980595071786</v>
+        <v>0.3359614915097678</v>
       </c>
       <c r="L277" t="n">
-        <v>1.63759690939555</v>
+        <v>1.637745185111078</v>
       </c>
       <c r="M277" t="n">
-        <v>1.026405031097272</v>
+        <v>1.026293323379154</v>
       </c>
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr"/>
@@ -12463,25 +12463,25 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H279" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I279" t="n">
-        <v>0.4100436064015432</v>
+        <v>0.4099891568781803</v>
       </c>
       <c r="J279" t="n">
-        <v>0.2398196721944946</v>
+        <v>0.2398418061470811</v>
       </c>
       <c r="K279" t="n">
-        <v>0.3501367214039622</v>
+        <v>0.3501690369747384</v>
       </c>
       <c r="L279" t="n">
-        <v>1.580267540608592</v>
+        <v>1.580136507609279</v>
       </c>
       <c r="M279" t="n">
-        <v>1.069595737987446</v>
+        <v>1.069694455415982</v>
       </c>
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr"/>
@@ -12555,25 +12555,25 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H281" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I281" t="n">
-        <v>0.3376596745580703</v>
+        <v>0.3372784865638153</v>
       </c>
       <c r="J281" t="n">
-        <v>0.2692440347324918</v>
+        <v>0.2693989892017011</v>
       </c>
       <c r="K281" t="n">
-        <v>0.393096290709438</v>
+        <v>0.3933225242344837</v>
       </c>
       <c r="L281" t="n">
-        <v>1.406075314383649</v>
+        <v>1.40515798392593</v>
       </c>
       <c r="M281" t="n">
-        <v>1.200828394906913</v>
+        <v>1.201519491839587</v>
       </c>
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr"/>
@@ -12594,25 +12594,25 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H282" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I282" t="n">
-        <v>0.3956149018998014</v>
+        <v>0.3954917475338427</v>
       </c>
       <c r="J282" t="n">
-        <v>0.245684999227723</v>
+        <v>0.2457350619781127</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3587000988724756</v>
+        <v>0.3587731904880445</v>
       </c>
       <c r="L282" t="n">
-        <v>1.54554480457188</v>
+        <v>1.545248433089573</v>
       </c>
       <c r="M282" t="n">
-        <v>1.095755096555645</v>
+        <v>1.095978376422383</v>
       </c>
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr"/>
@@ -12686,25 +12686,25 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H284" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I284" t="n">
-        <v>0.3108858349538474</v>
+        <v>0.310373250975261</v>
       </c>
       <c r="J284" t="n">
-        <v>0.2801277093683547</v>
+        <v>0.2803360768393248</v>
       </c>
       <c r="K284" t="n">
-        <v>0.4089864556777979</v>
+        <v>0.4092906721854142</v>
       </c>
       <c r="L284" t="n">
-        <v>1.34164396053934</v>
+        <v>1.340410425111197</v>
       </c>
       <c r="M284" t="n">
-        <v>1.249369583782862</v>
+        <v>1.250298902703389</v>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
@@ -12725,25 +12725,25 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H285" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I285" t="n">
-        <v>0.4877400109507327</v>
+        <v>0.4880845703993591</v>
       </c>
       <c r="J285" t="n">
-        <v>0.2082357679062062</v>
+        <v>0.2080957030896914</v>
       </c>
       <c r="K285" t="n">
-        <v>0.3040242211430611</v>
+        <v>0.3038197265109494</v>
       </c>
       <c r="L285" t="n">
-        <v>1.767244253995259</v>
+        <v>1.768073437709027</v>
       </c>
       <c r="M285" t="n">
-        <v>0.9287315248616799</v>
+        <v>0.9281068357800237</v>
       </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
@@ -12764,25 +12764,25 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H286" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I286" t="n">
-        <v>0.3617048098641317</v>
+        <v>0.3614244715897589</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2594695894861253</v>
+        <v>0.2595835481342444</v>
       </c>
       <c r="K286" t="n">
-        <v>0.378825600649743</v>
+        <v>0.3789919802759968</v>
       </c>
       <c r="L286" t="n">
-        <v>1.463940030242138</v>
+        <v>1.463265395045274</v>
       </c>
       <c r="M286" t="n">
-        <v>1.157234369108119</v>
+        <v>1.15774262467873</v>
       </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
@@ -12803,25 +12803,25 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H287" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I287" t="n">
-        <v>0.4289395873850125</v>
+        <v>0.4289769730437585</v>
       </c>
       <c r="J287" t="n">
-        <v>0.2321383791117835</v>
+        <v>0.2321231816895291</v>
       </c>
       <c r="K287" t="n">
-        <v>0.338922033503204</v>
+        <v>0.3388998452667124</v>
       </c>
       <c r="L287" t="n">
-        <v>1.625740795658241</v>
+        <v>1.625830764397988</v>
       </c>
       <c r="M287" t="n">
-        <v>1.035337170838555</v>
+        <v>1.0352693903353</v>
       </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
@@ -12842,25 +12842,25 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H288" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I288" t="n">
-        <v>0.5156627847413185</v>
+        <v>0.5160909796145198</v>
       </c>
       <c r="J288" t="n">
-        <v>0.1968850468531225</v>
+        <v>0.1967109838965367</v>
       </c>
       <c r="K288" t="n">
-        <v>0.2874521684055589</v>
+        <v>0.2871980364889435</v>
       </c>
       <c r="L288" t="n">
-        <v>1.834440522629515</v>
+        <v>1.835470975332503</v>
       </c>
       <c r="M288" t="n">
-        <v>0.8781073089649264</v>
+        <v>0.8773309881785536</v>
       </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
@@ -12881,25 +12881,25 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H289" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I289" t="n">
-        <v>0.2854877674587134</v>
+        <v>0.2852417064301935</v>
       </c>
       <c r="J289" t="n">
-        <v>0.297700092051565</v>
+        <v>0.298305402181724</v>
       </c>
       <c r="K289" t="n">
-        <v>0.4168121404897216</v>
+        <v>0.4164528913880824</v>
       </c>
       <c r="L289" t="n">
-        <v>1.273275442865862</v>
+        <v>1.272178010678663</v>
       </c>
       <c r="M289" t="n">
-        <v>1.309912416644416</v>
+        <v>1.311369097933254</v>
       </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
@@ -12920,25 +12920,25 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="H290" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I290" t="n">
-        <v>0.4860295032822362</v>
+        <v>0.4863347328290595</v>
       </c>
       <c r="J290" t="n">
-        <v>0.2089310962267333</v>
+        <v>0.2088070191751791</v>
       </c>
       <c r="K290" t="n">
-        <v>0.3050394004910305</v>
+        <v>0.3048582479957614</v>
       </c>
       <c r="L290" t="n">
-        <v>1.763127910337739</v>
+        <v>1.76386244648294</v>
       </c>
       <c r="M290" t="n">
-        <v>0.9318326891712303</v>
+        <v>0.9312793055212987</v>
       </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
@@ -12959,25 +12959,25 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H291" t="n">
-        <v>82.3065248857</v>
+        <v>82.21126964760001</v>
       </c>
       <c r="I291" t="n">
-        <v>0.3060316475686235</v>
+        <v>0.3055261858680496</v>
       </c>
       <c r="J291" t="n">
-        <v>0.2821009562729173</v>
+        <v>0.282306428508923</v>
       </c>
       <c r="K291" t="n">
-        <v>0.4118673961584592</v>
+        <v>0.4121673856230275</v>
       </c>
       <c r="L291" t="n">
-        <v>1.32996233886433</v>
+        <v>1.328745943227176</v>
       </c>
       <c r="M291" t="n">
-        <v>1.258170264977211</v>
+        <v>1.259086671149796</v>
       </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
@@ -12998,25 +12998,25 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H292" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I292" t="n">
-        <v>0.4721809444331673</v>
+        <v>0.4724332182285246</v>
       </c>
       <c r="J292" t="n">
-        <v>0.2145605916938345</v>
+        <v>0.2144580413705185</v>
       </c>
       <c r="K292" t="n">
-        <v>0.3132584638729983</v>
+        <v>0.313108740400957</v>
       </c>
       <c r="L292" t="n">
-        <v>1.7298012971725</v>
+        <v>1.730408395086531</v>
       </c>
       <c r="M292" t="n">
-        <v>0.9569402389545016</v>
+        <v>0.9564828645125123</v>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
@@ -13037,25 +13037,25 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H293" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I293" t="n">
-        <v>0.3236978077167267</v>
+        <v>0.3232503311270989</v>
       </c>
       <c r="J293" t="n">
-        <v>0.2749195903590542</v>
+        <v>0.2751014914117484</v>
       </c>
       <c r="K293" t="n">
-        <v>0.4013826019242192</v>
+        <v>0.4016481774611527</v>
       </c>
       <c r="L293" t="n">
-        <v>1.372476025074399</v>
+        <v>1.37139917084245</v>
       </c>
       <c r="M293" t="n">
-        <v>1.226141373001382</v>
+        <v>1.226952651696398</v>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
@@ -13076,25 +13076,25 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H294" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I294" t="n">
-        <v>0.4307152052889496</v>
+        <v>0.4307640049077038</v>
       </c>
       <c r="J294" t="n">
-        <v>0.2314165832158741</v>
+        <v>0.2313967459724782</v>
       </c>
       <c r="K294" t="n">
-        <v>0.3378682114951762</v>
+        <v>0.3378392491198181</v>
       </c>
       <c r="L294" t="n">
-        <v>1.630013827362025</v>
+        <v>1.63013126384293</v>
       </c>
       <c r="M294" t="n">
-        <v>1.032117961142799</v>
+        <v>1.032029487037253</v>
       </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
@@ -13168,25 +13168,25 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H296" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I296" t="n">
-        <v>0.4538814869829336</v>
+        <v>0.4540442560534872</v>
       </c>
       <c r="J296" t="n">
-        <v>0.2219993955353929</v>
+        <v>0.2219332292465499</v>
       </c>
       <c r="K296" t="n">
-        <v>0.3241191174816736</v>
+        <v>0.3240225146999628</v>
       </c>
       <c r="L296" t="n">
-        <v>1.685763578430474</v>
+        <v>1.686155282860424</v>
       </c>
       <c r="M296" t="n">
-        <v>0.9901173040878521</v>
+        <v>0.9898222024396126</v>
       </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
@@ -13207,25 +13207,25 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H297" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I297" t="n">
-        <v>0.3406774700575844</v>
+        <v>0.340301338179697</v>
       </c>
       <c r="J297" t="n">
-        <v>0.2680172885944779</v>
+        <v>0.2681701877318305</v>
       </c>
       <c r="K297" t="n">
-        <v>0.3913052413479377</v>
+        <v>0.3915284740884725</v>
       </c>
       <c r="L297" t="n">
-        <v>1.413337651520691</v>
+        <v>1.412432488627564</v>
       </c>
       <c r="M297" t="n">
-        <v>1.195357107131372</v>
+        <v>1.196039037283964</v>
       </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
@@ -13246,25 +13246,25 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H298" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I298" t="n">
-        <v>0.5282286057092275</v>
+        <v>0.5287468029393846</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1917769895490945</v>
+        <v>0.1915663402685429</v>
       </c>
       <c r="K298" t="n">
-        <v>0.279994404741678</v>
+        <v>0.2796868567920726</v>
       </c>
       <c r="L298" t="n">
-        <v>1.86468022186936</v>
+        <v>1.865927265610226</v>
       </c>
       <c r="M298" t="n">
-        <v>0.8553253733889616</v>
+        <v>0.8543858775977011</v>
       </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
@@ -13338,25 +13338,25 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H300" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I300" t="n">
-        <v>0.4711772112245699</v>
+        <v>0.4714245969407631</v>
       </c>
       <c r="J300" t="n">
-        <v>0.2149686133233456</v>
+        <v>0.21486805002408</v>
       </c>
       <c r="K300" t="n">
-        <v>0.3138541754520845</v>
+        <v>0.3137073530351568</v>
       </c>
       <c r="L300" t="n">
-        <v>1.727385809125794</v>
+        <v>1.727981143857446</v>
       </c>
       <c r="M300" t="n">
-        <v>0.9587600154221212</v>
+        <v>0.9583115031073969</v>
       </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
@@ -13377,25 +13377,25 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H301" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I301" t="n">
-        <v>0.3246155233536228</v>
+        <v>0.3241718033586365</v>
       </c>
       <c r="J301" t="n">
-        <v>0.2745465352221046</v>
+        <v>0.2747269092038063</v>
       </c>
       <c r="K301" t="n">
-        <v>0.4008379414242727</v>
+        <v>0.4011012874375572</v>
       </c>
       <c r="L301" t="n">
-        <v>1.374684511485141</v>
+        <v>1.373616697513467</v>
       </c>
       <c r="M301" t="n">
-        <v>1.224477547090586</v>
+        <v>1.225282015048976</v>
       </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
@@ -13469,25 +13469,25 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H303" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I303" t="n">
-        <v>0.4144640558123796</v>
+        <v>0.4144468574611554</v>
       </c>
       <c r="J303" t="n">
-        <v>0.2380227415396831</v>
+        <v>0.2380297327393677</v>
       </c>
       <c r="K303" t="n">
-        <v>0.3475132026479374</v>
+        <v>0.3475234097994768</v>
       </c>
       <c r="L303" t="n">
-        <v>1.590905370085076</v>
+        <v>1.590863982182943</v>
       </c>
       <c r="M303" t="n">
-        <v>1.061581427266987</v>
+        <v>1.06161260801758</v>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
@@ -13508,25 +13508,25 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H304" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I304" t="n">
-        <v>0.4354568208450325</v>
+        <v>0.4355289643202891</v>
       </c>
       <c r="J304" t="n">
-        <v>0.2294890972174665</v>
+        <v>0.2294597706015085</v>
       </c>
       <c r="K304" t="n">
-        <v>0.3350540819375011</v>
+        <v>0.3350112650782023</v>
       </c>
       <c r="L304" t="n">
-        <v>1.641424544472598</v>
+        <v>1.64159815803907</v>
       </c>
       <c r="M304" t="n">
-        <v>1.0235213735899</v>
+        <v>1.023390576882728</v>
       </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
@@ -13600,25 +13600,25 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H306" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I306" t="n">
-        <v>0.5917061083664296</v>
+        <v>0.5924843812578841</v>
       </c>
       <c r="J306" t="n">
-        <v>0.1659731266803132</v>
+        <v>0.165656755586226</v>
       </c>
       <c r="K306" t="n">
-        <v>0.2423207649532572</v>
+        <v>0.2418588631558899</v>
       </c>
       <c r="L306" t="n">
-        <v>2.017439090052546</v>
+        <v>2.019312006929542</v>
       </c>
       <c r="M306" t="n">
-        <v>0.7402401449941967</v>
+        <v>0.7388291299145678</v>
       </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
@@ -13639,25 +13639,25 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H307" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="I307" t="n">
-        <v>0.2588881538997062</v>
+        <v>0.258479582209084</v>
       </c>
       <c r="J307" t="n">
-        <v>0.3631351414067225</v>
+        <v>0.3641402277656535</v>
       </c>
       <c r="K307" t="n">
-        <v>0.3779767046935712</v>
+        <v>0.3773801900252626</v>
       </c>
       <c r="L307" t="n">
-        <v>1.15464116639269</v>
+        <v>1.152818936652515</v>
       </c>
       <c r="M307" t="n">
-        <v>1.467382128913739</v>
+        <v>1.469800873322223</v>
       </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
@@ -13678,25 +13678,25 @@
       <c r="E308" t="inlineStr"/>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="n">
-        <v>84.3819655962</v>
+        <v>84.2968597396</v>
       </c>
       <c r="H308" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I308" t="n">
-        <v>0.5627805827043603</v>
+        <v>0.5634521479951408</v>
       </c>
       <c r="J308" t="n">
-        <v>0.177731470445382</v>
+        <v>0.1774584764247395</v>
       </c>
       <c r="K308" t="n">
-        <v>0.2594879468502577</v>
+        <v>0.2590893755801196</v>
       </c>
       <c r="L308" t="n">
-        <v>1.947829694963338</v>
+        <v>1.949445819565542</v>
       </c>
       <c r="M308" t="n">
-        <v>0.7926823581864038</v>
+        <v>0.791464804854338</v>
       </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
@@ -13770,25 +13770,25 @@
       <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H310" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I310" t="n">
-        <v>0.3548506920011006</v>
+        <v>0.3545395338897056</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2622558162597152</v>
+        <v>0.2623823032968677</v>
       </c>
       <c r="K310" t="n">
-        <v>0.3828934917391842</v>
+        <v>0.3830781628134268</v>
       </c>
       <c r="L310" t="n">
-        <v>1.447445567742486</v>
+        <v>1.446696764482543</v>
       </c>
       <c r="M310" t="n">
-        <v>1.16966094051833</v>
+        <v>1.17022507270403</v>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
@@ -13862,25 +13862,25 @@
       <c r="E312" t="inlineStr"/>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H312" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I312" t="n">
-        <v>0.3766361405589924</v>
+        <v>0.3764244342859261</v>
       </c>
       <c r="J312" t="n">
-        <v>0.2533999428621981</v>
+        <v>0.2534860023227943</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3699639165788093</v>
+        <v>0.3700895633912796</v>
       </c>
       <c r="L312" t="n">
-        <v>1.499872338255787</v>
+        <v>1.499362866249058</v>
       </c>
       <c r="M312" t="n">
-        <v>1.130163745165404</v>
+        <v>1.130547570359663</v>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
@@ -14007,25 +14007,25 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H315" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I315" t="n">
-        <v>0.3399212660845867</v>
+        <v>0.3395497342627167</v>
       </c>
       <c r="J315" t="n">
-        <v>0.2683246885835013</v>
+        <v>0.2684757177793834</v>
       </c>
       <c r="K315" t="n">
-        <v>0.3917540453319119</v>
+        <v>0.3919745479578998</v>
       </c>
       <c r="L315" t="n">
-        <v>1.411517843585672</v>
+        <v>1.41062375074605</v>
       </c>
       <c r="M315" t="n">
-        <v>1.196728111082416</v>
+        <v>1.19740170129605</v>
       </c>
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr"/>
@@ -14046,25 +14046,25 @@
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H316" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I316" t="n">
-        <v>0.3931071469361127</v>
+        <v>0.3929722066175804</v>
       </c>
       <c r="J316" t="n">
-        <v>0.2467044118145883</v>
+        <v>0.2467592656026096</v>
       </c>
       <c r="K316" t="n">
-        <v>0.360188441249299</v>
+        <v>0.3602685277798101</v>
       </c>
       <c r="L316" t="n">
-        <v>1.539509882057637</v>
+        <v>1.539185147632551</v>
       </c>
       <c r="M316" t="n">
-        <v>1.100301676693064</v>
+        <v>1.100546324587639</v>
       </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
@@ -14085,25 +14085,25 @@
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H317" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I317" t="n">
-        <v>0.3950691799949885</v>
+        <v>0.3949434550184869</v>
       </c>
       <c r="J317" t="n">
-        <v>0.2459068374004112</v>
+        <v>0.2459579451144362</v>
       </c>
       <c r="K317" t="n">
-        <v>0.3590239826046003</v>
+        <v>0.3590985998670769</v>
       </c>
       <c r="L317" t="n">
-        <v>1.544231522589566</v>
+        <v>1.543928964922537</v>
       </c>
       <c r="M317" t="n">
-        <v>1.096744494805834</v>
+        <v>1.096972435210386</v>
       </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
@@ -14124,25 +14124,25 @@
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H318" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I318" t="n">
-        <v>0.308640893312275</v>
+        <v>0.3081195788147322</v>
       </c>
       <c r="J318" t="n">
-        <v>0.281040287271433</v>
+        <v>0.2812522037338487</v>
       </c>
       <c r="K318" t="n">
-        <v>0.4103188194162921</v>
+        <v>0.4106282174514191</v>
       </c>
       <c r="L318" t="n">
-        <v>1.336241499353117</v>
+        <v>1.334986953895616</v>
       </c>
       <c r="M318" t="n">
-        <v>1.253439681230591</v>
+        <v>1.254384828652965</v>
       </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
@@ -14216,25 +14216,25 @@
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="H320" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I320" t="n">
-        <v>0.359284226001968</v>
+        <v>0.3589930756381075</v>
       </c>
       <c r="J320" t="n">
-        <v>0.2604535666658666</v>
+        <v>0.260571920472314</v>
       </c>
       <c r="K320" t="n">
-        <v>0.3802622073321653</v>
+        <v>0.3804350038895785</v>
       </c>
       <c r="L320" t="n">
-        <v>1.458114885338069</v>
+        <v>1.457414230803901</v>
       </c>
       <c r="M320" t="n">
-        <v>1.161622907329765</v>
+        <v>1.162150765306521</v>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
@@ -14255,25 +14255,25 @@
       <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H321" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I321" t="n">
-        <v>0.431414336992422</v>
+        <v>0.4314636989607131</v>
       </c>
       <c r="J321" t="n">
-        <v>0.2311323833364138</v>
+        <v>0.2311123174956451</v>
       </c>
       <c r="K321" t="n">
-        <v>0.3374532796711642</v>
+        <v>0.3374239835436418</v>
       </c>
       <c r="L321" t="n">
-        <v>1.63169629064843</v>
+        <v>1.631815080425781</v>
       </c>
       <c r="M321" t="n">
-        <v>1.030850429680406</v>
+        <v>1.030760936030577</v>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
@@ -14347,25 +14347,25 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H323" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I323" t="n">
-        <v>0.2863440592519716</v>
+        <v>0.2861031240579222</v>
       </c>
       <c r="J323" t="n">
-        <v>0.2955936142401498</v>
+        <v>0.2961863148175114</v>
       </c>
       <c r="K323" t="n">
-        <v>0.4180623265078786</v>
+        <v>0.4177105611245664</v>
       </c>
       <c r="L323" t="n">
-        <v>1.277094504263793</v>
+        <v>1.276019933298333</v>
       </c>
       <c r="M323" t="n">
-        <v>1.304843169228328</v>
+        <v>1.306269505577101</v>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
@@ -14439,25 +14439,25 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H325" t="n">
-        <v>82.2358535779</v>
+        <v>82.14025808549999</v>
       </c>
       <c r="I325" t="n">
-        <v>0.308179966246156</v>
+        <v>0.3076828834337174</v>
       </c>
       <c r="J325" t="n">
-        <v>0.2812276559974975</v>
+        <v>0.2814297221814157</v>
       </c>
       <c r="K325" t="n">
-        <v>0.4105923777563464</v>
+        <v>0.4108873943848669</v>
       </c>
       <c r="L325" t="n">
-        <v>1.335132276494815</v>
+        <v>1.333936044686019</v>
       </c>
       <c r="M325" t="n">
-        <v>1.254275345748839</v>
+        <v>1.255176560929114</v>
       </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
@@ -14531,25 +14531,25 @@
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H327" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I327" t="n">
-        <v>0.3725642693637255</v>
+        <v>0.3723329546727221</v>
       </c>
       <c r="J327" t="n">
-        <v>0.2550551750553962</v>
+        <v>0.2551492054175927</v>
       </c>
       <c r="K327" t="n">
-        <v>0.3723805555808784</v>
+        <v>0.3725178399096853</v>
       </c>
       <c r="L327" t="n">
-        <v>1.490073363672055</v>
+        <v>1.489516703927852</v>
       </c>
       <c r="M327" t="n">
-        <v>1.137546080747067</v>
+        <v>1.137965456162463</v>
       </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
@@ -14570,25 +14570,25 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H328" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I328" t="n">
-        <v>0.4921076219038064</v>
+        <v>0.4924492378611606</v>
       </c>
       <c r="J328" t="n">
-        <v>0.2064603162992657</v>
+        <v>0.2063214480239184</v>
       </c>
       <c r="K328" t="n">
-        <v>0.3014320617969279</v>
+        <v>0.3012293141149209</v>
       </c>
       <c r="L328" t="n">
-        <v>1.777754927508347</v>
+        <v>1.778577027698403</v>
       </c>
       <c r="M328" t="n">
-        <v>0.9208130106947251</v>
+        <v>0.9201936581866761</v>
       </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
@@ -14609,25 +14609,25 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H329" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I329" t="n">
-        <v>0.3033940222987805</v>
+        <v>0.3028723617368763</v>
       </c>
       <c r="J329" t="n">
-        <v>0.2831731616671624</v>
+        <v>0.2833852188061479</v>
       </c>
       <c r="K329" t="n">
-        <v>0.4134328160340571</v>
+        <v>0.4137424194569758</v>
       </c>
       <c r="L329" t="n">
-        <v>1.323614882930399</v>
+        <v>1.322359504667605</v>
       </c>
       <c r="M329" t="n">
-        <v>1.262952301035544</v>
+        <v>1.263898075875419</v>
       </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
@@ -14648,25 +14648,25 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H330" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I330" t="n">
-        <v>0.4353573485602609</v>
+        <v>0.4354261954874806</v>
       </c>
       <c r="J330" t="n">
-        <v>0.229529533105585</v>
+        <v>0.2295015465498047</v>
       </c>
       <c r="K330" t="n">
-        <v>0.335113118334154</v>
+        <v>0.3350722579627148</v>
       </c>
       <c r="L330" t="n">
-        <v>1.641185164014937</v>
+        <v>1.641350844425157</v>
       </c>
       <c r="M330" t="n">
-        <v>1.023701717650909</v>
+        <v>1.023576897612129</v>
       </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
@@ -14687,25 +14687,25 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H331" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I331" t="n">
-        <v>0.3558102622132335</v>
+        <v>0.355503345831828</v>
       </c>
       <c r="J331" t="n">
-        <v>0.2618657470677913</v>
+        <v>0.2619905098244601</v>
       </c>
       <c r="K331" t="n">
-        <v>0.3823239907189753</v>
+        <v>0.3825061443437118</v>
       </c>
       <c r="L331" t="n">
-        <v>1.449754777358676</v>
+        <v>1.449016181839196</v>
       </c>
       <c r="M331" t="n">
-        <v>1.167921231922349</v>
+        <v>1.168477673817092</v>
       </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
@@ -14779,25 +14779,25 @@
       <c r="E333" t="inlineStr"/>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H333" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I333" t="n">
-        <v>0.4485585719032356</v>
+        <v>0.4487105678309488</v>
       </c>
       <c r="J333" t="n">
-        <v>0.2241631821531563</v>
+        <v>0.2241013951906712</v>
       </c>
       <c r="K333" t="n">
-        <v>0.3272782459436082</v>
+        <v>0.3271880369783799</v>
       </c>
       <c r="L333" t="n">
-        <v>1.672953961653315</v>
+        <v>1.673319740471226</v>
       </c>
       <c r="M333" t="n">
-        <v>0.999767792403077</v>
+        <v>0.9994922225503936</v>
       </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
@@ -14818,25 +14818,25 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H334" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I334" t="n">
-        <v>0.4002969463228046</v>
+        <v>0.4001962957227251</v>
       </c>
       <c r="J334" t="n">
-        <v>0.2437817291370713</v>
+        <v>0.2438226440151524</v>
       </c>
       <c r="K334" t="n">
-        <v>0.3559213245401241</v>
+        <v>0.3559810602621225</v>
       </c>
       <c r="L334" t="n">
-        <v>1.556812163508538</v>
+        <v>1.556569947430298</v>
       </c>
       <c r="M334" t="n">
-        <v>1.087266511951338</v>
+        <v>1.08744899230758</v>
       </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
@@ -14857,25 +14857,25 @@
       <c r="E335" t="inlineStr"/>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H335" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I335" t="n">
-        <v>0.3908774272373813</v>
+        <v>0.3907317360563639</v>
       </c>
       <c r="J335" t="n">
-        <v>0.2476108019360239</v>
+        <v>0.247670025993348</v>
       </c>
       <c r="K335" t="n">
-        <v>0.3615117708265949</v>
+        <v>0.3615982379502881</v>
       </c>
       <c r="L335" t="n">
-        <v>1.534144052538739</v>
+        <v>1.53379344611938</v>
       </c>
       <c r="M335" t="n">
-        <v>1.104344176634666</v>
+        <v>1.104608315930332</v>
       </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
@@ -14896,25 +14896,25 @@
       <c r="E336" t="inlineStr"/>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H336" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I336" t="n">
-        <v>0.5563634395744941</v>
+        <v>0.5569827954848962</v>
       </c>
       <c r="J336" t="n">
-        <v>0.1803400652136203</v>
+        <v>0.1800882945183349</v>
       </c>
       <c r="K336" t="n">
-        <v>0.2632964952118856</v>
+        <v>0.2629289099967689</v>
       </c>
       <c r="L336" t="n">
-        <v>1.932386813935368</v>
+        <v>1.933877296451457</v>
       </c>
       <c r="M336" t="n">
-        <v>0.8043166908527466</v>
+        <v>0.8031937935517737</v>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
@@ -14988,25 +14988,25 @@
       <c r="E338" t="inlineStr"/>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="H338" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I338" t="n">
-        <v>0.5269358719105786</v>
+        <v>0.5274386334138332</v>
       </c>
       <c r="J338" t="n">
-        <v>0.1923024910932608</v>
+        <v>0.1920981164984418</v>
       </c>
       <c r="K338" t="n">
-        <v>0.2807616369961607</v>
+        <v>0.280463250087725</v>
       </c>
       <c r="L338" t="n">
-        <v>1.861569252727896</v>
+        <v>1.862779150329225</v>
       </c>
       <c r="M338" t="n">
-        <v>0.8576691102759431</v>
+        <v>0.8567575995830504</v>
       </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
@@ -15027,25 +15027,25 @@
       <c r="E339" t="inlineStr"/>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H339" t="n">
-        <v>83.4086508927</v>
+        <v>83.3187476813</v>
       </c>
       <c r="I339" t="n">
-        <v>0.2825666981171338</v>
+        <v>0.2822955275375317</v>
       </c>
       <c r="J339" t="n">
-        <v>0.3048859226318508</v>
+        <v>0.3055530022576721</v>
       </c>
       <c r="K339" t="n">
-        <v>0.4125473792510154</v>
+        <v>0.4121514702047961</v>
       </c>
       <c r="L339" t="n">
-        <v>1.260247473602417</v>
+        <v>1.259038052817391</v>
       </c>
       <c r="M339" t="n">
-        <v>1.327205147146568</v>
+        <v>1.328810476977813</v>
       </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
@@ -15066,25 +15066,25 @@
       <c r="E340" t="inlineStr"/>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H340" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I340" t="n">
-        <v>0.467729088737192</v>
+        <v>0.467950882083599</v>
       </c>
       <c r="J340" t="n">
-        <v>0.2163702891312228</v>
+        <v>0.2162801292343094</v>
       </c>
       <c r="K340" t="n">
-        <v>0.3159006221315853</v>
+        <v>0.3157689886820917</v>
       </c>
       <c r="L340" t="n">
-        <v>1.719087888343161</v>
+        <v>1.719621634932889</v>
       </c>
       <c r="M340" t="n">
-        <v>0.9650114895252535</v>
+        <v>0.9646093763850199</v>
       </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
@@ -15105,25 +15105,25 @@
       <c r="E341" t="inlineStr"/>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H341" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I341" t="n">
-        <v>0.3236049690727401</v>
+        <v>0.3231647620382333</v>
       </c>
       <c r="J341" t="n">
-        <v>0.2749573296452277</v>
+        <v>0.2751362755942141</v>
       </c>
       <c r="K341" t="n">
-        <v>0.4014377012820323</v>
+        <v>0.4016989623675525</v>
       </c>
       <c r="L341" t="n">
-        <v>1.372252608500252</v>
+        <v>1.371193248482252</v>
       </c>
       <c r="M341" t="n">
-        <v>1.226309690217715</v>
+        <v>1.227107789150195</v>
       </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
@@ -15144,25 +15144,25 @@
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H342" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I342" t="n">
-        <v>0.4115123111451994</v>
+        <v>0.4114648788699712</v>
       </c>
       <c r="J342" t="n">
-        <v>0.2392226377458539</v>
+        <v>0.2392419191585483</v>
       </c>
       <c r="K342" t="n">
-        <v>0.3492650511089466</v>
+        <v>0.3492932019714804</v>
       </c>
       <c r="L342" t="n">
-        <v>1.583801984544545</v>
+        <v>1.583687838581394</v>
       </c>
       <c r="M342" t="n">
-        <v>1.066932964346508</v>
+        <v>1.067018959447125</v>
       </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
@@ -15183,25 +15183,25 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H343" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I343" t="n">
-        <v>0.3776201399298283</v>
+        <v>0.3774129529053732</v>
       </c>
       <c r="J343" t="n">
-        <v>0.2529999431179559</v>
+        <v>0.2530841654856206</v>
       </c>
       <c r="K343" t="n">
-        <v>0.3693799169522157</v>
+        <v>0.3695028816090061</v>
       </c>
       <c r="L343" t="n">
-        <v>1.502240336741701</v>
+        <v>1.501741740325126</v>
       </c>
       <c r="M343" t="n">
-        <v>1.128379746306083</v>
+        <v>1.128755378065868</v>
       </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
@@ -15222,25 +15222,25 @@
       <c r="E344" t="inlineStr"/>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H344" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I344" t="n">
-        <v>0.3252105357046846</v>
+        <v>0.3247554607196059</v>
       </c>
       <c r="J344" t="n">
-        <v>0.2743046602826485</v>
+        <v>0.2744896501139814</v>
       </c>
       <c r="K344" t="n">
-        <v>0.4004848040126669</v>
+        <v>0.4007548891664127</v>
       </c>
       <c r="L344" t="n">
-        <v>1.376116411126721</v>
+        <v>1.375021271325231</v>
       </c>
       <c r="M344" t="n">
-        <v>1.223398784860612</v>
+        <v>1.224223839508357</v>
       </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
@@ -15261,25 +15261,25 @@
       <c r="E345" t="inlineStr"/>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H345" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I345" t="n">
-        <v>0.4718890461079019</v>
+        <v>0.4721562305532666</v>
       </c>
       <c r="J345" t="n">
-        <v>0.2146792495496333</v>
+        <v>0.214570637986477</v>
       </c>
       <c r="K345" t="n">
-        <v>0.3134317043424646</v>
+        <v>0.3132731314602564</v>
       </c>
       <c r="L345" t="n">
-        <v>1.72909884266617</v>
+        <v>1.729741823120056</v>
       </c>
       <c r="M345" t="n">
-        <v>0.9574694529913645</v>
+        <v>0.9569850454196875</v>
       </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
@@ -15353,25 +15353,25 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H347" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I347" t="n">
-        <v>0.4134571981158399</v>
+        <v>0.4134197730583095</v>
       </c>
       <c r="J347" t="n">
-        <v>0.2384320332862439</v>
+        <v>0.2384472467242644</v>
       </c>
       <c r="K347" t="n">
-        <v>0.3481107685979161</v>
+        <v>0.3481329802174261</v>
       </c>
       <c r="L347" t="n">
-        <v>1.588482362945436</v>
+        <v>1.588392299392355</v>
       </c>
       <c r="M347" t="n">
-        <v>1.063406868456648</v>
+        <v>1.063474720390219</v>
       </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
@@ -15445,25 +15445,25 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H349" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="I349" t="n">
-        <v>0.2800214402503072</v>
+        <v>0.2797424240506643</v>
       </c>
       <c r="J349" t="n">
-        <v>0.3111472569842444</v>
+        <v>0.3118336368353657</v>
       </c>
       <c r="K349" t="n">
-        <v>0.4088313027654484</v>
+        <v>0.4084239391139699</v>
       </c>
       <c r="L349" t="n">
-        <v>1.24889562351637</v>
+        <v>1.247651211265963</v>
       </c>
       <c r="M349" t="n">
-        <v>1.342273073718182</v>
+        <v>1.343924849620067</v>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
@@ -15484,25 +15484,25 @@
       <c r="E350" t="inlineStr"/>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="n">
-        <v>82.75111397889999</v>
+        <v>82.6580073864</v>
       </c>
       <c r="H350" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I350" t="n">
-        <v>0.5025391533415887</v>
+        <v>0.5029244115077318</v>
       </c>
       <c r="J350" t="n">
-        <v>0.2022198563652079</v>
+        <v>0.2020632473545805</v>
       </c>
       <c r="K350" t="n">
-        <v>0.2952409902932035</v>
+        <v>0.2950123411376875</v>
       </c>
       <c r="L350" t="n">
-        <v>1.80285845031797</v>
+        <v>1.803785575660883</v>
       </c>
       <c r="M350" t="n">
-        <v>0.9019005593888271</v>
+        <v>0.9012020832014291</v>
       </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
@@ -15576,25 +15576,25 @@
       <c r="E352" t="inlineStr"/>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H352" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I352" t="n">
-        <v>0.3390181000905008</v>
+        <v>0.3386427070944891</v>
       </c>
       <c r="J352" t="n">
-        <v>0.2686918292315038</v>
+        <v>0.2688444280103703</v>
       </c>
       <c r="K352" t="n">
-        <v>0.3922900706779954</v>
+        <v>0.3925128648951406</v>
       </c>
       <c r="L352" t="n">
-        <v>1.409344370949498</v>
+        <v>1.408440986178608</v>
       </c>
       <c r="M352" t="n">
-        <v>1.198365558372507</v>
+        <v>1.199046148926251</v>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
@@ -15721,25 +15721,25 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H355" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I355" t="n">
-        <v>0.5462355327879341</v>
+        <v>0.5468538753022107</v>
       </c>
       <c r="J355" t="n">
-        <v>0.1844571004927097</v>
+        <v>0.1842057417470688</v>
       </c>
       <c r="K355" t="n">
-        <v>0.2693073667193561</v>
+        <v>0.2689403829507204</v>
       </c>
       <c r="L355" t="n">
-        <v>1.908013965083159</v>
+        <v>1.909502008857353</v>
       </c>
       <c r="M355" t="n">
-        <v>0.8226786681974851</v>
+        <v>0.8215576081919268</v>
       </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
@@ -15760,25 +15760,25 @@
       <c r="E356" t="inlineStr"/>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H356" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I356" t="n">
-        <v>0.3074910732652028</v>
+        <v>0.3069855639708375</v>
       </c>
       <c r="J356" t="n">
-        <v>0.281507693794633</v>
+        <v>0.2817131853777083</v>
       </c>
       <c r="K356" t="n">
-        <v>0.4110012329401642</v>
+        <v>0.4113012506514541</v>
       </c>
       <c r="L356" t="n">
-        <v>1.333474452735773</v>
+        <v>1.332257942563967</v>
       </c>
       <c r="M356" t="n">
-        <v>1.255524314324063</v>
+        <v>1.256440806784579</v>
       </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
@@ -15799,25 +15799,25 @@
       <c r="E357" t="inlineStr"/>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H357" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="I357" t="n">
-        <v>0.487088586538663</v>
+        <v>0.4874055229609437</v>
       </c>
       <c r="J357" t="n">
-        <v>0.2085005745777792</v>
+        <v>0.2083717386337627</v>
       </c>
       <c r="K357" t="n">
-        <v>0.3044108388835577</v>
+        <v>0.3042227384052936</v>
       </c>
       <c r="L357" t="n">
-        <v>1.765676598499547</v>
+        <v>1.766439307288125</v>
       </c>
       <c r="M357" t="n">
-        <v>0.9299125626168954</v>
+        <v>0.9293379543065818</v>
       </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
@@ -15838,25 +15838,25 @@
       <c r="E358" t="inlineStr"/>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H358" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I358" t="n">
-        <v>0.4548158519868235</v>
+        <v>0.4549532053291557</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2216195723630799</v>
+        <v>0.2215637376710749</v>
       </c>
       <c r="K358" t="n">
-        <v>0.3235645756500966</v>
+        <v>0.3234830569997694</v>
       </c>
       <c r="L358" t="n">
-        <v>1.688012131610567</v>
+        <v>1.688342672987237</v>
       </c>
       <c r="M358" t="n">
-        <v>0.9884232927393362</v>
+        <v>0.9881742700129941</v>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
@@ -15930,25 +15930,25 @@
       <c r="E360" t="inlineStr"/>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="n">
-        <v>80.6648724218</v>
+        <v>80.561805553</v>
       </c>
       <c r="H360" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I360" t="n">
-        <v>0.4256065741320899</v>
+        <v>0.4256215516954535</v>
       </c>
       <c r="J360" t="n">
-        <v>0.2334932625479309</v>
+        <v>0.2334871741075392</v>
       </c>
       <c r="K360" t="n">
-        <v>0.3409001633199791</v>
+        <v>0.3408912741970073</v>
       </c>
       <c r="L360" t="n">
-        <v>1.617719885716249</v>
+        <v>1.617755929283368</v>
       </c>
       <c r="M360" t="n">
-        <v>1.041379950963772</v>
+        <v>1.041352796519625</v>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr"/>
@@ -16075,25 +16075,25 @@
       <c r="E363" t="inlineStr"/>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H363" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I363" t="n">
-        <v>0.4892562181094753</v>
+        <v>0.4896081271044513</v>
       </c>
       <c r="J363" t="n">
-        <v>0.2076194235327336</v>
+        <v>0.2074763710957515</v>
       </c>
       <c r="K363" t="n">
-        <v>0.3031243583577911</v>
+        <v>0.3029155017997971</v>
       </c>
       <c r="L363" t="n">
-        <v>1.770893012686217</v>
+        <v>1.771739883113151</v>
       </c>
       <c r="M363" t="n">
-        <v>0.925982628955992</v>
+        <v>0.9253446150870515</v>
       </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
@@ -16114,25 +16114,25 @@
       <c r="E364" t="inlineStr"/>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H364" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I364" t="n">
-        <v>0.3602490905767941</v>
+        <v>0.3599622426720825</v>
       </c>
       <c r="J364" t="n">
-        <v>0.2600613452939861</v>
+        <v>0.2601779501332998</v>
       </c>
       <c r="K364" t="n">
-        <v>0.3796895641292198</v>
+        <v>0.3798598071946176</v>
       </c>
       <c r="L364" t="n">
-        <v>1.460436835859602</v>
+        <v>1.459746535210865</v>
       </c>
       <c r="M364" t="n">
-        <v>1.159873600011178</v>
+        <v>1.160393657594517</v>
       </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
@@ -16206,25 +16206,25 @@
       <c r="E366" t="inlineStr"/>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H366" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I366" t="n">
-        <v>0.5140864908111085</v>
+        <v>0.514507176100221</v>
       </c>
       <c r="J366" t="n">
-        <v>0.1975258167434519</v>
+        <v>0.1973548064633248</v>
       </c>
       <c r="K366" t="n">
-        <v>0.2883876924454397</v>
+        <v>0.2881380174364542</v>
       </c>
       <c r="L366" t="n">
-        <v>1.830647164878765</v>
+        <v>1.831659545737117</v>
       </c>
       <c r="M366" t="n">
-        <v>0.8809651426757953</v>
+        <v>0.8802024368264284</v>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
@@ -16245,25 +16245,25 @@
       <c r="E367" t="inlineStr"/>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H367" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I367" t="n">
-        <v>0.2860028550533542</v>
+        <v>0.2857598786859472</v>
       </c>
       <c r="J367" t="n">
-        <v>0.2964329765687488</v>
+        <v>0.29703069843257</v>
       </c>
       <c r="K367" t="n">
-        <v>0.4175641683778971</v>
+        <v>0.4172094228814828</v>
       </c>
       <c r="L367" t="n">
-        <v>1.27557273353796</v>
+        <v>1.274489058939325</v>
       </c>
       <c r="M367" t="n">
-        <v>1.306863098084143</v>
+        <v>1.308301518179193</v>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
@@ -16284,25 +16284,25 @@
       <c r="E368" t="inlineStr"/>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="H368" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I368" t="n">
-        <v>0.4844531876621048</v>
+        <v>0.4847507704700946</v>
       </c>
       <c r="J368" t="n">
-        <v>0.2095718749341038</v>
+        <v>0.2094509063129697</v>
       </c>
       <c r="K368" t="n">
-        <v>0.3059749374037915</v>
+        <v>0.3057983232169357</v>
       </c>
       <c r="L368" t="n">
-        <v>1.759334500390106</v>
+        <v>1.760050634627219</v>
       </c>
       <c r="M368" t="n">
-        <v>0.9346905622061028</v>
+        <v>0.9341510421558448</v>
       </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
@@ -16323,25 +16323,25 @@
       <c r="E369" t="inlineStr"/>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H369" t="n">
-        <v>82.2640485753</v>
+        <v>82.1685887881</v>
       </c>
       <c r="I369" t="n">
-        <v>0.3073218708873837</v>
+        <v>0.3068214351396815</v>
       </c>
       <c r="J369" t="n">
-        <v>0.281576475249031</v>
+        <v>0.2817799044147636</v>
       </c>
       <c r="K369" t="n">
-        <v>0.4111016538635852</v>
+        <v>0.4113986604455548</v>
       </c>
       <c r="L369" t="n">
-        <v>1.333067266525736</v>
+        <v>1.3318629658646</v>
       </c>
       <c r="M369" t="n">
-        <v>1.255831079610678</v>
+        <v>1.256738373689846</v>
       </c>
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr"/>
@@ -16415,25 +16415,25 @@
       <c r="E371" t="inlineStr"/>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H371" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I371" t="n">
-        <v>0.3424665232814782</v>
+        <v>0.3420845435420938</v>
       </c>
       <c r="J371" t="n">
-        <v>0.2672900311863909</v>
+        <v>0.2674453075032139</v>
       </c>
       <c r="K371" t="n">
-        <v>0.3902434455321308</v>
+        <v>0.3904701489546923</v>
       </c>
       <c r="L371" t="n">
-        <v>1.417643015376565</v>
+        <v>1.416723779580974</v>
       </c>
       <c r="M371" t="n">
-        <v>1.192113539091304</v>
+        <v>1.192806071464334</v>
       </c>
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr"/>
@@ -16454,25 +16454,25 @@
       <c r="E372" t="inlineStr"/>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="H372" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I372" t="n">
-        <v>0.6090832192021647</v>
+        <v>0.6099490540821528</v>
       </c>
       <c r="J372" t="n">
-        <v>0.1589092604869249</v>
+        <v>0.1585572950885557</v>
       </c>
       <c r="K372" t="n">
-        <v>0.2320075203109103</v>
+        <v>0.2314936508292914</v>
       </c>
       <c r="L372" t="n">
-        <v>2.059257177917404</v>
+        <v>2.06134081307575</v>
       </c>
       <c r="M372" t="n">
-        <v>0.7087353017716851</v>
+        <v>0.7071655360949585</v>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
@@ -16493,25 +16493,25 @@
       <c r="E373" t="inlineStr"/>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H373" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I373" t="n">
-        <v>0.2522798121178887</v>
+        <v>0.251825598864402</v>
       </c>
       <c r="J373" t="n">
-        <v>0.3793916621899939</v>
+        <v>0.3805090267935711</v>
       </c>
       <c r="K373" t="n">
-        <v>0.3683285256921174</v>
+        <v>0.367665374342027</v>
       </c>
       <c r="L373" t="n">
-        <v>1.125167962045784</v>
+        <v>1.123142170935233</v>
       </c>
       <c r="M373" t="n">
-        <v>1.506503512262099</v>
+        <v>1.50919245472274</v>
       </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
@@ -16585,25 +16585,25 @@
       <c r="E375" t="inlineStr"/>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H375" t="n">
-        <v>84.8695248274</v>
+        <v>84.78721527810001</v>
       </c>
       <c r="I375" t="n">
-        <v>0.2638947956066587</v>
+        <v>0.2635028910630204</v>
       </c>
       <c r="J375" t="n">
-        <v>0.3508188028076197</v>
+        <v>0.3517828879849698</v>
       </c>
       <c r="K375" t="n">
-        <v>0.3852864015857216</v>
+        <v>0.3847142209520098</v>
       </c>
       <c r="L375" t="n">
-        <v>1.176970788405698</v>
+        <v>1.175222894141071</v>
       </c>
       <c r="M375" t="n">
-        <v>1.437742810008581</v>
+        <v>1.440062884906919</v>
       </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
@@ -16624,25 +16624,25 @@
       <c r="E376" t="inlineStr"/>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H376" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="I376" t="n">
-        <v>0.5514005441178352</v>
+        <v>0.5519969607557715</v>
       </c>
       <c r="J376" t="n">
-        <v>0.1823575023911239</v>
+        <v>0.1821150566033449</v>
       </c>
       <c r="K376" t="n">
-        <v>0.2662419534910409</v>
+        <v>0.2658879826408835</v>
       </c>
       <c r="L376" t="n">
-        <v>1.920443585844547</v>
+        <v>1.921878864908198</v>
       </c>
       <c r="M376" t="n">
-        <v>0.8133144606644125</v>
+        <v>0.8122331524509182</v>
       </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
@@ -16716,25 +16716,25 @@
       <c r="E378" t="inlineStr"/>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="H378" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I378" t="n">
-        <v>0.5219266519921594</v>
+        <v>0.5224054068905331</v>
       </c>
       <c r="J378" t="n">
-        <v>0.1943387593527807</v>
+        <v>0.1941441435404337</v>
       </c>
       <c r="K378" t="n">
-        <v>0.2837345886550598</v>
+        <v>0.2834504495690333</v>
       </c>
       <c r="L378" t="n">
-        <v>1.849514544631538</v>
+        <v>1.850666670240632</v>
       </c>
       <c r="M378" t="n">
-        <v>0.866750866713402</v>
+        <v>0.8658828801903344</v>
       </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
@@ -16755,25 +16755,25 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="H379" t="n">
-        <v>83.2734633715</v>
+        <v>83.18289907170001</v>
       </c>
       <c r="I379" t="n">
-        <v>0.2842241848437687</v>
+        <v>0.2839631523670945</v>
       </c>
       <c r="J379" t="n">
-        <v>0.300808505284329</v>
+        <v>0.3014506451769475</v>
       </c>
       <c r="K379" t="n">
-        <v>0.4149673098719023</v>
+        <v>0.414586202455958</v>
       </c>
       <c r="L379" t="n">
-        <v>1.267639864403208</v>
+        <v>1.266475659557241</v>
       </c>
       <c r="M379" t="n">
-        <v>1.317392825724889</v>
+        <v>1.3189381379868</v>
       </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
@@ -16794,25 +16794,25 @@
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="n">
-        <v>78.8589549232</v>
+        <v>78.7478879172</v>
       </c>
       <c r="H380" t="n">
-        <v>79.6889321837</v>
+        <v>79.58131377629999</v>
       </c>
       <c r="I380" t="n">
-        <v>0.3616737554153394</v>
+        <v>0.361413535050262</v>
       </c>
       <c r="J380" t="n">
-        <v>0.259482213245797</v>
+        <v>0.2595879938820073</v>
       </c>
       <c r="K380" t="n">
-        <v>0.3788440313388636</v>
+        <v>0.3789984710677307</v>
       </c>
       <c r="L380" t="n">
-        <v>1.463865297584882</v>
+        <v>1.463239076218517</v>
       </c>
       <c r="M380" t="n">
-        <v>1.157290671076255</v>
+        <v>1.157762452713753</v>
       </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
